--- a/Portfolio/Transactions_2021_Q1.xlsx
+++ b/Portfolio/Transactions_2021_Q1.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r395930\AppData\Roaming\UltimateChartistRoot\Portfolio\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDE5806-53A5-4222-81DF-1CE0EDD60758}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="-22695" yWindow="3390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullPrecision="1" calcId="125725"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Transactions!$A$1:$N$146</definedName>
+  </definedNames>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65" count="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="66">
   <si>
     <t>Trade Date</t>
   </si>
@@ -82,9 +91,6 @@
     <t>Stock</t>
   </si>
   <si>
-    <t>Lyxor S&amp;P 500 Daily (-2x) Inverse UCITS ETF</t>
-  </si>
-  <si>
     <t>Turbo</t>
   </si>
   <si>
@@ -136,7 +142,7 @@
     <t>Commission</t>
   </si>
   <si>
-    <t>Cocoa - May 2021 Turbo Call 1890 Open (SOG)</t>
+    <t>Cocoa - May 2021 Turbo Call 1900 Open (SOG)</t>
   </si>
   <si>
     <t>Copper - Mar 2021 LEV Long 5x Open (SOG)</t>
@@ -145,16 +151,22 @@
     <t>Innate Pharma SA</t>
   </si>
   <si>
-    <t>Coffee C - May 2021 Turbo Call .96 Open (SOG)</t>
+    <t>Coffee C - May 2021 Turbo Call .964 Open (SOG)</t>
   </si>
   <si>
-    <t>Euro/US Dollar Turbo Call 1.0992 Open (SOG)</t>
+    <t>Euro/US Dollar Turbo Call 1.1028 Open (SOG)</t>
   </si>
   <si>
     <t>Tesla Inc. Turbo BEST Put 930 19.03.2021 (SOG)</t>
   </si>
   <si>
-    <t>Palladium/US Dollar Turbo Call 2034 Open (SOG)</t>
+    <t>Palladium/US Dollar Turbo Call 2044 Open (SOG)</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Cash deposit or withdrawal</t>
   </si>
   <si>
     <t>78800/775644PEA</t>
@@ -214,49 +226,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Tahoma"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Tahoma"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Tahoma"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Tahoma"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Tahoma"/>
-      <charset val="0"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="64"/>
-        <bgColor indexed="65"/>
-      </patternFill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor indexed="64"/>
-        <bgColor indexed="65"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -268,71 +250,351 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs>
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr/>
-  <dimension ref="A1:N150"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N146"/>
   <sheetViews>
-    <sheetView view="normal" tabSelected="1" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.41796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.41796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.27734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.41796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.41796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.84765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.27734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -376,7 +638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44200</v>
       </c>
@@ -420,7 +682,7 @@
         <v>-574.5</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44200</v>
       </c>
@@ -464,7 +726,7 @@
         <v>494.6</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44200</v>
       </c>
@@ -508,95 +770,95 @@
         <v>-511.5</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44201</v>
+        <v>44202</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>20187713</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5">
+        <v>1908695831</v>
+      </c>
+      <c r="J5">
+        <v>-100</v>
+      </c>
+      <c r="K5">
+        <v>4.49</v>
+      </c>
+      <c r="L5">
+        <v>446.6</v>
+      </c>
+      <c r="M5">
+        <v>446.6</v>
+      </c>
+      <c r="N5">
+        <v>446.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>44209</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="E5">
-        <v>3853478</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5">
-        <v>1907288257</v>
-      </c>
-      <c r="J5">
-        <v>76</v>
-      </c>
-      <c r="K5">
-        <v>13.05</v>
-      </c>
-      <c r="L5">
-        <v>-994.53</v>
-      </c>
-      <c r="M5">
-        <v>-994.53</v>
-      </c>
-      <c r="N5">
-        <v>-994.53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1">
-        <v>44202</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>20187713</v>
+        <v>20379234</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
         <v>19</v>
       </c>
       <c r="I6">
-        <v>1908695831</v>
+        <v>1915485428</v>
       </c>
       <c r="J6">
-        <v>-100</v>
+        <v>80</v>
       </c>
       <c r="K6">
-        <v>4.49</v>
+        <v>7</v>
       </c>
       <c r="L6">
-        <v>446.6</v>
+        <v>-562.5</v>
       </c>
       <c r="M6">
-        <v>446.6</v>
+        <v>-562.5</v>
       </c>
       <c r="N6">
-        <v>446.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>-562.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44209</v>
       </c>
@@ -604,190 +866,190 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>20187713</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7">
+        <v>1915933873</v>
+      </c>
+      <c r="J7">
+        <v>300</v>
+      </c>
+      <c r="K7">
+        <v>1.81</v>
+      </c>
+      <c r="L7">
+        <v>-545.79999999999995</v>
+      </c>
+      <c r="M7">
+        <v>-545.79999999999995</v>
+      </c>
+      <c r="N7">
+        <v>-545.79999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>44216</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E8">
+        <v>20379234</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8">
+        <v>1921810949</v>
+      </c>
+      <c r="J8">
+        <v>120</v>
+      </c>
+      <c r="K8">
+        <v>4.59</v>
+      </c>
+      <c r="L8">
+        <v>-553.29999999999995</v>
+      </c>
+      <c r="M8">
+        <v>-553.29999999999995</v>
+      </c>
+      <c r="N8">
+        <v>-553.29999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>44217</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>20379234</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7">
-        <v>1915485428</v>
-      </c>
-      <c r="J7">
-        <v>80</v>
-      </c>
-      <c r="K7">
-        <v>7</v>
-      </c>
-      <c r="L7">
-        <v>-562.5</v>
-      </c>
-      <c r="M7">
-        <v>-562.5</v>
-      </c>
-      <c r="N7">
-        <v>-562.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1">
-        <v>44209</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E9">
+        <v>18430232</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9">
+        <v>1922809253</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>58.29</v>
+      </c>
+      <c r="L9">
+        <v>-352.24</v>
+      </c>
+      <c r="M9">
+        <v>-352.24</v>
+      </c>
+      <c r="N9">
+        <v>-352.24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>44218</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
         <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8">
-        <v>20187713</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8">
-        <v>1915933873</v>
-      </c>
-      <c r="J8">
-        <v>300</v>
-      </c>
-      <c r="K8">
-        <v>1.81</v>
-      </c>
-      <c r="L8">
-        <v>-545.8</v>
-      </c>
-      <c r="M8">
-        <v>-545.8</v>
-      </c>
-      <c r="N8">
-        <v>-545.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1">
-        <v>44216</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>3853478</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9">
-        <v>1921674778</v>
-      </c>
-      <c r="J9">
-        <v>-76</v>
-      </c>
-      <c r="K9">
-        <v>12.31</v>
-      </c>
-      <c r="L9">
-        <v>933.14</v>
-      </c>
-      <c r="M9">
-        <v>933.14</v>
-      </c>
-      <c r="N9">
-        <v>933.14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1">
-        <v>44216</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
       </c>
       <c r="E10">
+        <v>18430232</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10">
+        <v>1923998400</v>
+      </c>
+      <c r="J10">
+        <v>-6</v>
+      </c>
+      <c r="K10">
+        <v>55.77</v>
+      </c>
+      <c r="L10">
+        <v>332.12</v>
+      </c>
+      <c r="M10">
+        <v>332.12</v>
+      </c>
+      <c r="N10">
+        <v>332.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>44218</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
         <v>20379234</v>
       </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10">
-        <v>1921810949</v>
-      </c>
-      <c r="J10">
-        <v>120</v>
-      </c>
-      <c r="K10">
-        <v>4.59</v>
-      </c>
-      <c r="L10">
-        <v>-553.3</v>
-      </c>
-      <c r="M10">
-        <v>-553.3</v>
-      </c>
-      <c r="N10">
-        <v>-553.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1">
-        <v>44217</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>18430232</v>
-      </c>
       <c r="F11" t="s">
         <v>17</v>
       </c>
@@ -798,27 +1060,27 @@
         <v>19</v>
       </c>
       <c r="I11">
-        <v>1922809253</v>
+        <v>1924311151</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="K11">
-        <v>58.29</v>
+        <v>3.32</v>
       </c>
       <c r="L11">
-        <v>-352.24</v>
+        <v>-334.5</v>
       </c>
       <c r="M11">
-        <v>-352.24</v>
+        <v>-334.5</v>
       </c>
       <c r="N11">
-        <v>-352.24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>-334.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44218</v>
+        <v>44221</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -827,10 +1089,10 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E12">
-        <v>18430232</v>
+        <v>20187713</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -842,36 +1104,36 @@
         <v>19</v>
       </c>
       <c r="I12">
-        <v>1923998400</v>
+        <v>1925558866</v>
       </c>
       <c r="J12">
-        <v>-6</v>
+        <v>-300</v>
       </c>
       <c r="K12">
-        <v>55.77</v>
+        <v>1.62</v>
       </c>
       <c r="L12">
-        <v>332.12</v>
+        <v>484.1</v>
       </c>
       <c r="M12">
-        <v>332.12</v>
+        <v>484.1</v>
       </c>
       <c r="N12">
-        <v>332.12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>484.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44218</v>
+        <v>44221</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
       </c>
       <c r="E13">
         <v>20379234</v>
@@ -886,25 +1148,25 @@
         <v>19</v>
       </c>
       <c r="I13">
-        <v>1924311151</v>
+        <v>1925570519</v>
       </c>
       <c r="J13">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="K13">
-        <v>3.32</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="L13">
-        <v>-334.5</v>
+        <v>-505</v>
       </c>
       <c r="M13">
-        <v>-334.5</v>
+        <v>-505</v>
       </c>
       <c r="N13">
-        <v>-334.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>-505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44221</v>
       </c>
@@ -912,13 +1174,13 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E14">
-        <v>20187713</v>
+        <v>20379234</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -930,80 +1192,80 @@
         <v>19</v>
       </c>
       <c r="I14">
-        <v>1925558866</v>
+        <v>1925951686</v>
       </c>
       <c r="J14">
-        <v>-300</v>
+        <v>-250</v>
       </c>
       <c r="K14">
-        <v>1.62</v>
+        <v>3.68</v>
       </c>
       <c r="L14">
-        <v>484.1</v>
+        <v>917.5</v>
       </c>
       <c r="M14">
-        <v>484.1</v>
+        <v>917.5</v>
       </c>
       <c r="N14">
-        <v>484.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>917.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44221</v>
+        <v>44223</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>20187713</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15">
+        <v>1928513133</v>
+      </c>
+      <c r="J15">
+        <v>320</v>
+      </c>
+      <c r="K15">
+        <v>1.59</v>
+      </c>
+      <c r="L15">
+        <v>-510.66</v>
+      </c>
+      <c r="M15">
+        <v>-510.66</v>
+      </c>
+      <c r="N15">
+        <v>-510.66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>44223</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15">
-        <v>20379234</v>
-      </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15">
-        <v>1925570519</v>
-      </c>
-      <c r="J15">
-        <v>250</v>
-      </c>
-      <c r="K15">
-        <v>2.01</v>
-      </c>
-      <c r="L15">
-        <v>-505</v>
-      </c>
-      <c r="M15">
-        <v>-505</v>
-      </c>
-      <c r="N15">
-        <v>-505</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="1">
-        <v>44221</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
       </c>
       <c r="E16">
         <v>20379234</v>
@@ -1018,25 +1280,25 @@
         <v>19</v>
       </c>
       <c r="I16">
-        <v>1925951686</v>
+        <v>1928853743</v>
       </c>
       <c r="J16">
-        <v>-250</v>
+        <v>-100</v>
       </c>
       <c r="K16">
-        <v>3.68</v>
+        <v>5.07</v>
       </c>
       <c r="L16">
-        <v>917.5</v>
+        <v>504.5</v>
       </c>
       <c r="M16">
-        <v>917.5</v>
+        <v>504.5</v>
       </c>
       <c r="N16">
-        <v>917.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>504.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44223</v>
       </c>
@@ -1062,36 +1324,36 @@
         <v>19</v>
       </c>
       <c r="I17">
-        <v>1928513133</v>
+        <v>1929073112</v>
       </c>
       <c r="J17">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="K17">
-        <v>1.59</v>
+        <v>1.44</v>
       </c>
       <c r="L17">
-        <v>-510.66</v>
+        <v>-406.82</v>
       </c>
       <c r="M17">
-        <v>-510.66</v>
+        <v>-406.82</v>
       </c>
       <c r="N17">
-        <v>-510.66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>-406.82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44223</v>
+        <v>44224</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
       </c>
       <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
       </c>
       <c r="E18">
         <v>20379234</v>
@@ -1100,119 +1362,119 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18">
+        <v>1930834324</v>
+      </c>
+      <c r="J18">
+        <v>50</v>
+      </c>
+      <c r="K18">
+        <v>7.05</v>
+      </c>
+      <c r="L18">
+        <v>-355</v>
+      </c>
+      <c r="M18">
+        <v>-355</v>
+      </c>
+      <c r="N18">
+        <v>-355</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>44228</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>20379234</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
         <v>20</v>
       </c>
-      <c r="H18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18">
-        <v>1928853743</v>
-      </c>
-      <c r="J18">
-        <v>-100</v>
-      </c>
-      <c r="K18">
-        <v>5.07</v>
-      </c>
-      <c r="L18">
-        <v>504.5</v>
-      </c>
-      <c r="M18">
-        <v>504.5</v>
-      </c>
-      <c r="N18">
-        <v>504.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="1">
-        <v>44223</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="H19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19">
+        <v>1934738435</v>
+      </c>
+      <c r="J19">
+        <v>-250</v>
+      </c>
+      <c r="K19">
+        <v>6.04</v>
+      </c>
+      <c r="L19">
+        <v>1505</v>
+      </c>
+      <c r="M19">
+        <v>1505</v>
+      </c>
+      <c r="N19">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>44228</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
         <v>15</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>16</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>20187713</v>
       </c>
-      <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19">
-        <v>1929073112</v>
-      </c>
-      <c r="J19">
-        <v>280</v>
-      </c>
-      <c r="K19">
-        <v>1.44</v>
-      </c>
-      <c r="L19">
-        <v>-406.82</v>
-      </c>
-      <c r="M19">
-        <v>-406.82</v>
-      </c>
-      <c r="N19">
-        <v>-406.82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="1">
-        <v>44224</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20">
-        <v>20379234</v>
-      </c>
       <c r="F20" t="s">
         <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
         <v>19</v>
       </c>
       <c r="I20">
-        <v>1930834324</v>
+        <v>1934738599</v>
       </c>
       <c r="J20">
-        <v>50</v>
+        <v>-600</v>
       </c>
       <c r="K20">
-        <v>7.05</v>
+        <v>1.96</v>
       </c>
       <c r="L20">
-        <v>-355</v>
+        <v>1171.5999999999999</v>
       </c>
       <c r="M20">
-        <v>-355</v>
+        <v>1171.5999999999999</v>
       </c>
       <c r="N20">
-        <v>-355</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1171.5999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44228</v>
       </c>
@@ -1220,10 +1482,10 @@
         <v>14</v>
       </c>
       <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
       </c>
       <c r="E21">
         <v>20379234</v>
@@ -1232,31 +1494,31 @@
         <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H21" t="s">
         <v>19</v>
       </c>
       <c r="I21">
-        <v>1934738435</v>
+        <v>1935642864</v>
       </c>
       <c r="J21">
-        <v>-250</v>
+        <v>100</v>
       </c>
       <c r="K21">
-        <v>6.04</v>
+        <v>4.58</v>
       </c>
       <c r="L21">
-        <v>1505</v>
+        <v>-460.5</v>
       </c>
       <c r="M21">
-        <v>1505</v>
+        <v>-460.5</v>
       </c>
       <c r="N21">
-        <v>1505</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>-460.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44228</v>
       </c>
@@ -1276,42 +1538,42 @@
         <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H22" t="s">
         <v>19</v>
       </c>
       <c r="I22">
-        <v>1934738599</v>
+        <v>1935644906</v>
       </c>
       <c r="J22">
-        <v>-600</v>
+        <v>300</v>
       </c>
       <c r="K22">
-        <v>1.96</v>
+        <v>1.72</v>
       </c>
       <c r="L22">
-        <v>1171.6</v>
+        <v>-519.1</v>
       </c>
       <c r="M22">
-        <v>1171.6</v>
+        <v>-519.1</v>
       </c>
       <c r="N22">
-        <v>1171.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>-519.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>44228</v>
+        <v>44230</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
       </c>
       <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
         <v>23</v>
-      </c>
-      <c r="D23" t="s">
-        <v>24</v>
       </c>
       <c r="E23">
         <v>20379234</v>
@@ -1326,69 +1588,69 @@
         <v>19</v>
       </c>
       <c r="I23">
-        <v>1935642864</v>
+        <v>1937880205</v>
       </c>
       <c r="J23">
+        <v>200</v>
+      </c>
+      <c r="K23">
+        <v>1.93</v>
+      </c>
+      <c r="L23">
+        <v>-388.5</v>
+      </c>
+      <c r="M23">
+        <v>-388.5</v>
+      </c>
+      <c r="N23">
+        <v>-388.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>44230</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>20379234</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24">
+        <v>1938366541</v>
+      </c>
+      <c r="J24">
         <v>100</v>
       </c>
-      <c r="K23">
-        <v>4.58</v>
-      </c>
-      <c r="L23">
-        <v>-460.5</v>
-      </c>
-      <c r="M23">
-        <v>-460.5</v>
-      </c>
-      <c r="N23">
-        <v>-460.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="1">
-        <v>44228</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24">
-        <v>20187713</v>
-      </c>
-      <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24">
-        <v>1935644906</v>
-      </c>
-      <c r="J24">
-        <v>300</v>
-      </c>
       <c r="K24">
-        <v>1.72</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="L24">
-        <v>-519.1</v>
+        <v>-255.5</v>
       </c>
       <c r="M24">
-        <v>-519.1</v>
+        <v>-255.5</v>
       </c>
       <c r="N24">
-        <v>-519.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>-255.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44230</v>
       </c>
@@ -1396,10 +1658,10 @@
         <v>14</v>
       </c>
       <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
       </c>
       <c r="E25">
         <v>20379234</v>
@@ -1408,31 +1670,31 @@
         <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
         <v>19</v>
       </c>
       <c r="I25">
-        <v>1937880205</v>
+        <v>1938398987</v>
       </c>
       <c r="J25">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="K25">
-        <v>1.93</v>
+        <v>2.85</v>
       </c>
       <c r="L25">
-        <v>-388.5</v>
+        <v>282.5</v>
       </c>
       <c r="M25">
-        <v>-388.5</v>
+        <v>282.5</v>
       </c>
       <c r="N25">
-        <v>-388.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>282.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44230</v>
       </c>
@@ -1440,10 +1702,10 @@
         <v>14</v>
       </c>
       <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
         <v>23</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
       </c>
       <c r="E26">
         <v>20379234</v>
@@ -1452,134 +1714,134 @@
         <v>17</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
         <v>19</v>
       </c>
       <c r="I26">
-        <v>1938366541</v>
+        <v>1938422142</v>
       </c>
       <c r="J26">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K26">
-        <v>2.53</v>
+        <v>3.16</v>
       </c>
       <c r="L26">
-        <v>-255.5</v>
+        <v>313.5</v>
       </c>
       <c r="M26">
-        <v>-255.5</v>
+        <v>313.5</v>
       </c>
       <c r="N26">
-        <v>-255.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>313.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>44230</v>
+        <v>44231</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
       </c>
       <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <v>18551496</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27">
+        <v>1939526007</v>
+      </c>
+      <c r="J27">
+        <v>200</v>
+      </c>
+      <c r="K27">
+        <v>2.72</v>
+      </c>
+      <c r="L27">
+        <v>-547.29999999999995</v>
+      </c>
+      <c r="M27">
+        <v>-547.29999999999995</v>
+      </c>
+      <c r="N27">
+        <v>-547.29999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>44231</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>21214867</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28">
+        <v>1939831596</v>
+      </c>
+      <c r="J28">
+        <v>10</v>
+      </c>
+      <c r="K28">
+        <v>50.64</v>
+      </c>
+      <c r="L28">
+        <v>-508.9</v>
+      </c>
+      <c r="M28">
+        <v>-508.9</v>
+      </c>
+      <c r="N28">
+        <v>-508.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>44232</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
         <v>23</v>
       </c>
-      <c r="D27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27">
+      <c r="E29">
         <v>20379234</v>
       </c>
-      <c r="F27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27">
-        <v>1938398987</v>
-      </c>
-      <c r="J27">
-        <v>-100</v>
-      </c>
-      <c r="K27">
-        <v>2.85</v>
-      </c>
-      <c r="L27">
-        <v>282.5</v>
-      </c>
-      <c r="M27">
-        <v>282.5</v>
-      </c>
-      <c r="N27">
-        <v>282.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="1">
-        <v>44230</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28">
-        <v>20379234</v>
-      </c>
-      <c r="F28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28">
-        <v>1938422142</v>
-      </c>
-      <c r="J28">
-        <v>-100</v>
-      </c>
-      <c r="K28">
-        <v>3.16</v>
-      </c>
-      <c r="L28">
-        <v>313.5</v>
-      </c>
-      <c r="M28">
-        <v>313.5</v>
-      </c>
-      <c r="N28">
-        <v>313.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="1">
-        <v>44231</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29">
-        <v>18551496</v>
-      </c>
       <c r="F29" t="s">
         <v>17</v>
       </c>
@@ -1590,27 +1852,27 @@
         <v>19</v>
       </c>
       <c r="I29">
-        <v>1939526007</v>
+        <v>1940588357</v>
       </c>
       <c r="J29">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K29">
-        <v>2.72</v>
+        <v>1.65</v>
       </c>
       <c r="L29">
-        <v>-547.3</v>
+        <v>-497.5</v>
       </c>
       <c r="M29">
-        <v>-547.3</v>
+        <v>-497.5</v>
       </c>
       <c r="N29">
-        <v>-547.3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>-497.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>44231</v>
+        <v>44232</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -1622,7 +1884,7 @@
         <v>27</v>
       </c>
       <c r="E30">
-        <v>21214867</v>
+        <v>18779164</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
@@ -1634,25 +1896,25 @@
         <v>19</v>
       </c>
       <c r="I30">
-        <v>1939831596</v>
+        <v>1940590699</v>
       </c>
       <c r="J30">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="K30">
-        <v>50.64</v>
+        <v>7.31</v>
       </c>
       <c r="L30">
-        <v>-508.9</v>
+        <v>-265.66000000000003</v>
       </c>
       <c r="M30">
-        <v>-508.9</v>
+        <v>-265.66000000000003</v>
       </c>
       <c r="N30">
-        <v>-508.9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+        <v>-265.66000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44232</v>
       </c>
@@ -1660,10 +1922,10 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
         <v>23</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
       </c>
       <c r="E31">
         <v>20379234</v>
@@ -1672,33 +1934,33 @@
         <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H31" t="s">
         <v>19</v>
       </c>
       <c r="I31">
-        <v>1940588357</v>
+        <v>1940988095</v>
       </c>
       <c r="J31">
-        <v>300</v>
+        <v>-250</v>
       </c>
       <c r="K31">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="L31">
-        <v>-497.5</v>
+        <v>535</v>
       </c>
       <c r="M31">
-        <v>-497.5</v>
+        <v>535</v>
       </c>
       <c r="N31">
-        <v>-497.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>44232</v>
+        <v>44235</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -1707,54 +1969,54 @@
         <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E32">
-        <v>18779164</v>
+        <v>20187713</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
       </c>
       <c r="G32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H32" t="s">
         <v>19</v>
       </c>
       <c r="I32">
-        <v>1940590699</v>
+        <v>1941781794</v>
       </c>
       <c r="J32">
-        <v>36</v>
+        <v>-300</v>
       </c>
       <c r="K32">
-        <v>7.31</v>
+        <v>1.39</v>
       </c>
       <c r="L32">
-        <v>-265.66</v>
+        <v>414.8</v>
       </c>
       <c r="M32">
-        <v>-265.66</v>
+        <v>414.8</v>
       </c>
       <c r="N32">
-        <v>-265.66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>414.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>44232</v>
+        <v>44235</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E33">
-        <v>20379234</v>
+        <v>18551496</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
@@ -1766,25 +2028,25 @@
         <v>19</v>
       </c>
       <c r="I33">
-        <v>1940988095</v>
+        <v>1941781921</v>
       </c>
       <c r="J33">
-        <v>-250</v>
+        <v>-200</v>
       </c>
       <c r="K33">
-        <v>2.15</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="L33">
-        <v>535</v>
+        <v>506.7</v>
       </c>
       <c r="M33">
-        <v>535</v>
+        <v>506.7</v>
       </c>
       <c r="N33">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>506.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44235</v>
       </c>
@@ -1795,10 +2057,10 @@
         <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E34">
-        <v>20187713</v>
+        <v>21214867</v>
       </c>
       <c r="F34" t="s">
         <v>17</v>
@@ -1810,25 +2072,25 @@
         <v>19</v>
       </c>
       <c r="I34">
-        <v>1941781794</v>
+        <v>1941840865</v>
       </c>
       <c r="J34">
-        <v>-300</v>
+        <v>-10</v>
       </c>
       <c r="K34">
-        <v>1.39</v>
+        <v>41.65</v>
       </c>
       <c r="L34">
-        <v>414.8</v>
+        <v>414</v>
       </c>
       <c r="M34">
-        <v>414.8</v>
+        <v>414</v>
       </c>
       <c r="N34">
-        <v>414.8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44235</v>
       </c>
@@ -1836,43 +2098,43 @@
         <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E35">
-        <v>18551496</v>
+        <v>49439</v>
       </c>
       <c r="F35" t="s">
         <v>17</v>
       </c>
       <c r="G35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H35" t="s">
         <v>19</v>
       </c>
       <c r="I35">
-        <v>1941781921</v>
+        <v>1941902254</v>
       </c>
       <c r="J35">
-        <v>-200</v>
+        <v>5600</v>
       </c>
       <c r="K35">
-        <v>2.55</v>
+        <v>0.17</v>
       </c>
       <c r="L35">
-        <v>506.7</v>
+        <v>-967.84</v>
       </c>
       <c r="M35">
-        <v>506.7</v>
+        <v>-967.84</v>
       </c>
       <c r="N35">
-        <v>506.7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>-967.84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44235</v>
       </c>
@@ -1883,40 +2145,40 @@
         <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E36">
-        <v>21214867</v>
+        <v>18430232</v>
       </c>
       <c r="F36" t="s">
         <v>17</v>
       </c>
       <c r="G36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H36" t="s">
         <v>19</v>
       </c>
       <c r="I36">
-        <v>1941840865</v>
+        <v>1942104601</v>
       </c>
       <c r="J36">
-        <v>-10</v>
+        <v>9</v>
       </c>
       <c r="K36">
-        <v>41.65</v>
+        <v>53.64</v>
       </c>
       <c r="L36">
-        <v>414</v>
+        <v>-485.26</v>
       </c>
       <c r="M36">
-        <v>414</v>
+        <v>-485.26</v>
       </c>
       <c r="N36">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>-485.26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44235</v>
       </c>
@@ -1924,45 +2186,45 @@
         <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E37">
-        <v>49439</v>
+        <v>20379234</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
       </c>
       <c r="G37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H37" t="s">
         <v>19</v>
       </c>
       <c r="I37">
-        <v>1941902254</v>
+        <v>1942289791</v>
       </c>
       <c r="J37">
-        <v>5600</v>
+        <v>-250</v>
       </c>
       <c r="K37">
-        <v>0.17</v>
+        <v>0.97</v>
       </c>
       <c r="L37">
-        <v>-967.84</v>
+        <v>240</v>
       </c>
       <c r="M37">
-        <v>-967.84</v>
+        <v>240</v>
       </c>
       <c r="N37">
-        <v>-967.84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
@@ -1971,7 +2233,7 @@
         <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E38">
         <v>18430232</v>
@@ -1980,75 +2242,75 @@
         <v>17</v>
       </c>
       <c r="G38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H38" t="s">
         <v>19</v>
       </c>
       <c r="I38">
-        <v>1942104601</v>
+        <v>1943279632</v>
       </c>
       <c r="J38">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="K38">
-        <v>53.64</v>
+        <v>52.62</v>
       </c>
       <c r="L38">
-        <v>-485.26</v>
+        <v>471.08</v>
       </c>
       <c r="M38">
-        <v>-485.26</v>
+        <v>471.08</v>
       </c>
       <c r="N38">
-        <v>-485.26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>471.08</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>44235</v>
+        <v>44236</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E39">
-        <v>20379234</v>
+        <v>901480</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
       </c>
       <c r="G39" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H39" t="s">
         <v>19</v>
       </c>
       <c r="I39">
-        <v>1942289791</v>
+        <v>1943449644</v>
       </c>
       <c r="J39">
-        <v>-250</v>
+        <v>136</v>
       </c>
       <c r="K39">
-        <v>0.97</v>
+        <v>7.35</v>
       </c>
       <c r="L39">
-        <v>240</v>
+        <v>-1002.1</v>
       </c>
       <c r="M39">
-        <v>240</v>
+        <v>-1002.1</v>
       </c>
       <c r="N39">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>-1002.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44236</v>
       </c>
@@ -2056,13 +2318,13 @@
         <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E40">
-        <v>18430232</v>
+        <v>901480</v>
       </c>
       <c r="F40" t="s">
         <v>17</v>
@@ -2074,25 +2336,25 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>1943279632</v>
+        <v>1943514137</v>
       </c>
       <c r="J40">
-        <v>-9</v>
+        <v>-136</v>
       </c>
       <c r="K40">
-        <v>52.62</v>
+        <v>7.28</v>
       </c>
       <c r="L40">
-        <v>471.08</v>
+        <v>987</v>
       </c>
       <c r="M40">
-        <v>471.08</v>
+        <v>987</v>
       </c>
       <c r="N40">
-        <v>471.08</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44236</v>
       </c>
@@ -2100,13 +2362,13 @@
         <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E41">
-        <v>901480</v>
+        <v>18551496</v>
       </c>
       <c r="F41" t="s">
         <v>17</v>
@@ -2118,27 +2380,27 @@
         <v>19</v>
       </c>
       <c r="I41">
-        <v>1943449644</v>
+        <v>1943644614</v>
       </c>
       <c r="J41">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="K41">
-        <v>7.35</v>
+        <v>2.5</v>
       </c>
       <c r="L41">
-        <v>-1002.1</v>
+        <v>-502.1</v>
       </c>
       <c r="M41">
-        <v>-1002.1</v>
+        <v>-502.1</v>
       </c>
       <c r="N41">
-        <v>-1002.1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>-502.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
@@ -2147,10 +2409,10 @@
         <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E42">
-        <v>901480</v>
+        <v>49439</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
@@ -2162,27 +2424,27 @@
         <v>19</v>
       </c>
       <c r="I42">
-        <v>1943514137</v>
+        <v>1944639068</v>
       </c>
       <c r="J42">
-        <v>-136</v>
+        <v>-5600</v>
       </c>
       <c r="K42">
-        <v>7.28</v>
+        <v>0.18</v>
       </c>
       <c r="L42">
-        <v>987</v>
+        <v>977.9</v>
       </c>
       <c r="M42">
-        <v>987</v>
+        <v>977.9</v>
       </c>
       <c r="N42">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>977.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>44236</v>
+        <v>44237</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
@@ -2191,10 +2453,10 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E43">
-        <v>18551496</v>
+        <v>18440471</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
@@ -2206,25 +2468,25 @@
         <v>19</v>
       </c>
       <c r="I43">
-        <v>1943644614</v>
+        <v>1944830066</v>
       </c>
       <c r="J43">
         <v>200</v>
       </c>
       <c r="K43">
-        <v>2.5</v>
+        <v>2.19</v>
       </c>
       <c r="L43">
-        <v>-502.1</v>
+        <v>-440.3</v>
       </c>
       <c r="M43">
-        <v>-502.1</v>
+        <v>-440.3</v>
       </c>
       <c r="N43">
-        <v>-502.1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>-440.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44237</v>
       </c>
@@ -2232,13 +2494,13 @@
         <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E44">
-        <v>49439</v>
+        <v>18440471</v>
       </c>
       <c r="F44" t="s">
         <v>17</v>
@@ -2250,25 +2512,25 @@
         <v>19</v>
       </c>
       <c r="I44">
-        <v>1944639068</v>
+        <v>1944838765</v>
       </c>
       <c r="J44">
-        <v>-5600</v>
+        <v>-200</v>
       </c>
       <c r="K44">
-        <v>0.18</v>
+        <v>2.15</v>
       </c>
       <c r="L44">
-        <v>977.9</v>
+        <v>428.1</v>
       </c>
       <c r="M44">
-        <v>977.9</v>
+        <v>428.1</v>
       </c>
       <c r="N44">
-        <v>977.9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>428.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44237</v>
       </c>
@@ -2279,7 +2541,7 @@
         <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E45">
         <v>18440471</v>
@@ -2294,25 +2556,25 @@
         <v>19</v>
       </c>
       <c r="I45">
-        <v>1944830066</v>
+        <v>1944846048</v>
       </c>
       <c r="J45">
         <v>200</v>
       </c>
       <c r="K45">
-        <v>2.19</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="L45">
-        <v>-440.3</v>
+        <v>-501.1</v>
       </c>
       <c r="M45">
-        <v>-440.3</v>
+        <v>-501.1</v>
       </c>
       <c r="N45">
-        <v>-440.3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>-501.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44237</v>
       </c>
@@ -2320,45 +2582,45 @@
         <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D46" t="s">
         <v>31</v>
       </c>
       <c r="E46">
-        <v>18440471</v>
+        <v>20962611</v>
       </c>
       <c r="F46" t="s">
         <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H46" t="s">
         <v>19</v>
       </c>
       <c r="I46">
-        <v>1944838765</v>
+        <v>1945354020</v>
       </c>
       <c r="J46">
-        <v>-200</v>
+        <v>42</v>
       </c>
       <c r="K46">
-        <v>2.15</v>
+        <v>11.72</v>
       </c>
       <c r="L46">
-        <v>428.1</v>
+        <v>-494.74</v>
       </c>
       <c r="M46">
-        <v>428.1</v>
+        <v>-494.74</v>
       </c>
       <c r="N46">
-        <v>428.1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+        <v>-494.74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="B47" t="s">
         <v>14</v>
@@ -2367,7 +2629,7 @@
         <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E47">
         <v>18440471</v>
@@ -2382,39 +2644,39 @@
         <v>19</v>
       </c>
       <c r="I47">
-        <v>1944846048</v>
+        <v>1946043100</v>
       </c>
       <c r="J47">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="K47">
-        <v>2.49</v>
+        <v>0.71</v>
       </c>
       <c r="L47">
-        <v>-501.1</v>
+        <v>-357</v>
       </c>
       <c r="M47">
-        <v>-501.1</v>
+        <v>-357</v>
       </c>
       <c r="N47">
-        <v>-501.1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+        <v>-357</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>44237</v>
+        <v>44238</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E48">
-        <v>20962611</v>
+        <v>18440471</v>
       </c>
       <c r="F48" t="s">
         <v>17</v>
@@ -2426,25 +2688,25 @@
         <v>19</v>
       </c>
       <c r="I48">
-        <v>1945354020</v>
+        <v>1946048210</v>
       </c>
       <c r="J48">
-        <v>42</v>
+        <v>300</v>
       </c>
       <c r="K48">
-        <v>11.72</v>
+        <v>0.65</v>
       </c>
       <c r="L48">
-        <v>-494.74</v>
+        <v>-196.6</v>
       </c>
       <c r="M48">
-        <v>-494.74</v>
+        <v>-196.6</v>
       </c>
       <c r="N48">
-        <v>-494.74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>-196.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>44238</v>
       </c>
@@ -2452,43 +2714,43 @@
         <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D49" t="s">
         <v>31</v>
       </c>
       <c r="E49">
-        <v>18440471</v>
+        <v>20962611</v>
       </c>
       <c r="F49" t="s">
         <v>17</v>
       </c>
       <c r="G49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H49" t="s">
         <v>19</v>
       </c>
       <c r="I49">
-        <v>1946043100</v>
+        <v>1946096120</v>
       </c>
       <c r="J49">
-        <v>500</v>
+        <v>-42</v>
       </c>
       <c r="K49">
-        <v>0.71</v>
+        <v>10.51</v>
       </c>
       <c r="L49">
-        <v>-357</v>
+        <v>438.92</v>
       </c>
       <c r="M49">
-        <v>-357</v>
+        <v>438.92</v>
       </c>
       <c r="N49">
-        <v>-357</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>438.92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>44238</v>
       </c>
@@ -2499,7 +2761,7 @@
         <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E50">
         <v>18440471</v>
@@ -2514,25 +2776,25 @@
         <v>19</v>
       </c>
       <c r="I50">
-        <v>1946048210</v>
+        <v>1946144160</v>
       </c>
       <c r="J50">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="K50">
-        <v>0.65</v>
+        <v>0.99</v>
       </c>
       <c r="L50">
-        <v>-196.6</v>
+        <v>-51.9</v>
       </c>
       <c r="M50">
-        <v>-196.6</v>
+        <v>-51.9</v>
       </c>
       <c r="N50">
-        <v>-196.6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>-51.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>44238</v>
       </c>
@@ -2540,45 +2802,45 @@
         <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E51">
-        <v>20962611</v>
+        <v>20187713</v>
       </c>
       <c r="F51" t="s">
         <v>17</v>
       </c>
       <c r="G51" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H51" t="s">
         <v>19</v>
       </c>
       <c r="I51">
-        <v>1946096120</v>
+        <v>1946555228</v>
       </c>
       <c r="J51">
-        <v>-42</v>
+        <v>200</v>
       </c>
       <c r="K51">
-        <v>10.51</v>
+        <v>1.79</v>
       </c>
       <c r="L51">
-        <v>438.92</v>
+        <v>-359.5</v>
       </c>
       <c r="M51">
-        <v>438.92</v>
+        <v>-359.5</v>
       </c>
       <c r="N51">
-        <v>438.92</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>-359.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B52" t="s">
         <v>14</v>
@@ -2587,7 +2849,7 @@
         <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E52">
         <v>18440471</v>
@@ -2596,45 +2858,45 @@
         <v>17</v>
       </c>
       <c r="G52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H52" t="s">
         <v>19</v>
       </c>
       <c r="I52">
-        <v>1946144160</v>
+        <v>1947293286</v>
       </c>
       <c r="J52">
-        <v>50</v>
+        <v>-1050</v>
       </c>
       <c r="K52">
-        <v>0.99</v>
+        <v>0.82</v>
       </c>
       <c r="L52">
-        <v>-51.9</v>
+        <v>857.45</v>
       </c>
       <c r="M52">
-        <v>-51.9</v>
+        <v>857.45</v>
       </c>
       <c r="N52">
-        <v>-51.9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>857.45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>44238</v>
+        <v>44239</v>
       </c>
       <c r="B53" t="s">
         <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E53">
-        <v>20187713</v>
+        <v>20962611</v>
       </c>
       <c r="F53" t="s">
         <v>17</v>
@@ -2646,25 +2908,25 @@
         <v>19</v>
       </c>
       <c r="I53">
-        <v>1946555228</v>
+        <v>1947295210</v>
       </c>
       <c r="J53">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="K53">
-        <v>1.79</v>
+        <v>10.71</v>
       </c>
       <c r="L53">
-        <v>-359.5</v>
+        <v>-484.45</v>
       </c>
       <c r="M53">
-        <v>-359.5</v>
+        <v>-484.45</v>
       </c>
       <c r="N53">
-        <v>-359.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+        <v>-484.45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>44239</v>
       </c>
@@ -2675,10 +2937,10 @@
         <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E54">
-        <v>18440471</v>
+        <v>18779164</v>
       </c>
       <c r="F54" t="s">
         <v>17</v>
@@ -2690,25 +2952,25 @@
         <v>19</v>
       </c>
       <c r="I54">
-        <v>1947293286</v>
+        <v>1947874560</v>
       </c>
       <c r="J54">
-        <v>-1050</v>
+        <v>-36</v>
       </c>
       <c r="K54">
-        <v>0.82</v>
+        <v>6.32</v>
       </c>
       <c r="L54">
-        <v>857.45</v>
+        <v>225.02</v>
       </c>
       <c r="M54">
-        <v>857.45</v>
+        <v>225.02</v>
       </c>
       <c r="N54">
-        <v>857.45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>225.02</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>44239</v>
       </c>
@@ -2716,45 +2978,45 @@
         <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E55">
-        <v>20962611</v>
+        <v>18551496</v>
       </c>
       <c r="F55" t="s">
         <v>17</v>
       </c>
       <c r="G55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H55" t="s">
         <v>19</v>
       </c>
       <c r="I55">
-        <v>1947295210</v>
+        <v>1947874704</v>
       </c>
       <c r="J55">
-        <v>45</v>
+        <v>-200</v>
       </c>
       <c r="K55">
-        <v>10.71</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="L55">
-        <v>-484.45</v>
+        <v>441.5</v>
       </c>
       <c r="M55">
-        <v>-484.45</v>
+        <v>441.5</v>
       </c>
       <c r="N55">
-        <v>-484.45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>441.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>44239</v>
+        <v>44242</v>
       </c>
       <c r="B56" t="s">
         <v>14</v>
@@ -2763,218 +3025,218 @@
         <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E56">
-        <v>18779164</v>
+        <v>20051603</v>
       </c>
       <c r="F56" t="s">
         <v>17</v>
       </c>
       <c r="G56" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56">
+        <v>1948714932</v>
+      </c>
+      <c r="J56">
+        <v>100</v>
+      </c>
+      <c r="K56">
+        <v>3.96</v>
+      </c>
+      <c r="L56">
+        <v>-398.5</v>
+      </c>
+      <c r="M56">
+        <v>-398.5</v>
+      </c>
+      <c r="N56">
+        <v>-398.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>44243</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57">
+        <v>20962611</v>
+      </c>
+      <c r="F57" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57">
+        <v>1949073785</v>
+      </c>
+      <c r="J57">
+        <v>45</v>
+      </c>
+      <c r="K57">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="L57">
+        <v>-420.55</v>
+      </c>
+      <c r="M57">
+        <v>-420.55</v>
+      </c>
+      <c r="N57">
+        <v>-420.55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>44243</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E58">
+        <v>20962611</v>
+      </c>
+      <c r="F58" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" t="s">
         <v>20</v>
       </c>
-      <c r="H56" t="s">
-        <v>19</v>
-      </c>
-      <c r="I56">
-        <v>1947874560</v>
-      </c>
-      <c r="J56">
-        <v>-36</v>
-      </c>
-      <c r="K56">
-        <v>6.32</v>
-      </c>
-      <c r="L56">
-        <v>225.02</v>
-      </c>
-      <c r="M56">
-        <v>225.02</v>
-      </c>
-      <c r="N56">
-        <v>225.02</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="1">
-        <v>44239</v>
-      </c>
-      <c r="B57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="H58" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58">
+        <v>1949932043</v>
+      </c>
+      <c r="J58">
+        <v>-45</v>
+      </c>
+      <c r="K58">
+        <v>10.3</v>
+      </c>
+      <c r="L58">
+        <v>461</v>
+      </c>
+      <c r="M58">
+        <v>461</v>
+      </c>
+      <c r="N58">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>44244</v>
+      </c>
+      <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" t="s">
         <v>15</v>
       </c>
-      <c r="D57" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57">
+      <c r="D59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59">
         <v>18551496</v>
       </c>
-      <c r="F57" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" t="s">
-        <v>20</v>
-      </c>
-      <c r="H57" t="s">
-        <v>19</v>
-      </c>
-      <c r="I57">
-        <v>1947874704</v>
-      </c>
-      <c r="J57">
-        <v>-200</v>
-      </c>
-      <c r="K57">
-        <v>2.22</v>
-      </c>
-      <c r="L57">
-        <v>441.5</v>
-      </c>
-      <c r="M57">
-        <v>441.5</v>
-      </c>
-      <c r="N57">
-        <v>441.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="A58" s="1">
-        <v>44242</v>
-      </c>
-      <c r="B58" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="F59" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59">
+        <v>1950991738</v>
+      </c>
+      <c r="J59">
+        <v>200</v>
+      </c>
+      <c r="K59">
+        <v>2.13</v>
+      </c>
+      <c r="L59">
+        <v>-428.9</v>
+      </c>
+      <c r="M59">
+        <v>-428.9</v>
+      </c>
+      <c r="N59">
+        <v>-428.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" t="s">
         <v>15</v>
       </c>
-      <c r="D58" t="s">
-        <v>33</v>
-      </c>
-      <c r="E58">
-        <v>20051603</v>
-      </c>
-      <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" t="s">
-        <v>18</v>
-      </c>
-      <c r="H58" t="s">
-        <v>19</v>
-      </c>
-      <c r="I58">
-        <v>1948714932</v>
-      </c>
-      <c r="J58">
-        <v>100</v>
-      </c>
-      <c r="K58">
-        <v>3.96</v>
-      </c>
-      <c r="L58">
-        <v>-398.5</v>
-      </c>
-      <c r="M58">
-        <v>-398.5</v>
-      </c>
-      <c r="N58">
-        <v>-398.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
-      <c r="A59" s="1">
-        <v>44243</v>
-      </c>
-      <c r="B59" t="s">
-        <v>14</v>
-      </c>
-      <c r="C59" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" t="s">
-        <v>32</v>
-      </c>
-      <c r="E59">
-        <v>20962611</v>
-      </c>
-      <c r="F59" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" t="s">
-        <v>18</v>
-      </c>
-      <c r="H59" t="s">
-        <v>19</v>
-      </c>
-      <c r="I59">
-        <v>1949073785</v>
-      </c>
-      <c r="J59">
-        <v>45</v>
-      </c>
-      <c r="K59">
-        <v>9.29</v>
-      </c>
-      <c r="L59">
-        <v>-420.55</v>
-      </c>
-      <c r="M59">
-        <v>-420.55</v>
-      </c>
-      <c r="N59">
-        <v>-420.55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60" s="1">
-        <v>44243</v>
-      </c>
-      <c r="B60" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60" t="s">
-        <v>23</v>
-      </c>
       <c r="D60" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E60">
-        <v>20962611</v>
+        <v>18551496</v>
       </c>
       <c r="F60" t="s">
         <v>17</v>
       </c>
       <c r="G60" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H60" t="s">
         <v>19</v>
       </c>
       <c r="I60">
-        <v>1949932043</v>
+        <v>1951905830</v>
       </c>
       <c r="J60">
-        <v>-45</v>
+        <v>155</v>
       </c>
       <c r="K60">
-        <v>10.3</v>
+        <v>1.99</v>
       </c>
       <c r="L60">
-        <v>461</v>
+        <v>-310.48</v>
       </c>
       <c r="M60">
-        <v>461</v>
+        <v>-310.48</v>
       </c>
       <c r="N60">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>-310.48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>44244</v>
+        <v>44246</v>
       </c>
       <c r="B61" t="s">
         <v>14</v>
@@ -2983,7 +3245,7 @@
         <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E61">
         <v>18551496</v>
@@ -2992,45 +3254,45 @@
         <v>17</v>
       </c>
       <c r="G61" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H61" t="s">
         <v>19</v>
       </c>
       <c r="I61">
-        <v>1950991738</v>
+        <v>1953441330</v>
       </c>
       <c r="J61">
-        <v>200</v>
+        <v>-155</v>
       </c>
       <c r="K61">
-        <v>2.13</v>
+        <v>2.15</v>
       </c>
       <c r="L61">
-        <v>-428.9</v>
+        <v>331.06</v>
       </c>
       <c r="M61">
-        <v>-428.9</v>
+        <v>331.06</v>
       </c>
       <c r="N61">
-        <v>-428.9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>331.06</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>44245</v>
+        <v>44249</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D62" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E62">
-        <v>18551496</v>
+        <v>20231467</v>
       </c>
       <c r="F62" t="s">
         <v>17</v>
@@ -3042,27 +3304,27 @@
         <v>19</v>
       </c>
       <c r="I62">
-        <v>1951905830</v>
+        <v>1954517337</v>
       </c>
       <c r="J62">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="K62">
-        <v>1.99</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="L62">
-        <v>-310.48</v>
+        <v>-327.3</v>
       </c>
       <c r="M62">
-        <v>-310.48</v>
+        <v>-327.3</v>
       </c>
       <c r="N62">
-        <v>-310.48</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>-327.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>44246</v>
+        <v>44250</v>
       </c>
       <c r="B63" t="s">
         <v>14</v>
@@ -3071,7 +3333,7 @@
         <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E63">
         <v>18551496</v>
@@ -3086,69 +3348,69 @@
         <v>19</v>
       </c>
       <c r="I63">
-        <v>1953441330</v>
+        <v>1955900349</v>
       </c>
       <c r="J63">
-        <v>-155</v>
+        <v>-200</v>
       </c>
       <c r="K63">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L63">
-        <v>331.06</v>
+        <v>368.3</v>
       </c>
       <c r="M63">
-        <v>331.06</v>
+        <v>368.3</v>
       </c>
       <c r="N63">
-        <v>331.06</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>368.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>44249</v>
+        <v>44250</v>
       </c>
       <c r="B64" t="s">
         <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E64">
-        <v>20231467</v>
+        <v>20187713</v>
       </c>
       <c r="F64" t="s">
         <v>17</v>
       </c>
       <c r="G64" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H64" t="s">
         <v>19</v>
       </c>
       <c r="I64">
-        <v>1954517337</v>
+        <v>1956019321</v>
       </c>
       <c r="J64">
-        <v>160</v>
+        <v>-100</v>
       </c>
       <c r="K64">
-        <v>2.03</v>
+        <v>3.5</v>
       </c>
       <c r="L64">
-        <v>-327.3</v>
+        <v>347.5</v>
       </c>
       <c r="M64">
-        <v>-327.3</v>
+        <v>347.5</v>
       </c>
       <c r="N64">
-        <v>-327.3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+        <v>347.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>44250</v>
       </c>
@@ -3156,13 +3418,13 @@
         <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D65" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E65">
-        <v>18551496</v>
+        <v>20231467</v>
       </c>
       <c r="F65" t="s">
         <v>17</v>
@@ -3174,27 +3436,27 @@
         <v>19</v>
       </c>
       <c r="I65">
-        <v>1955900349</v>
+        <v>1956083693</v>
       </c>
       <c r="J65">
-        <v>-200</v>
+        <v>-160</v>
       </c>
       <c r="K65">
-        <v>1.85</v>
+        <v>2.12</v>
       </c>
       <c r="L65">
-        <v>368.3</v>
+        <v>336.7</v>
       </c>
       <c r="M65">
-        <v>368.3</v>
+        <v>336.7</v>
       </c>
       <c r="N65">
-        <v>368.3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>336.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="B66" t="s">
         <v>14</v>
@@ -3203,84 +3465,84 @@
         <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E66">
-        <v>20187713</v>
+        <v>18551496</v>
       </c>
       <c r="F66" t="s">
         <v>17</v>
       </c>
       <c r="G66" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H66" t="s">
         <v>19</v>
       </c>
       <c r="I66">
-        <v>1956019321</v>
+        <v>1958243750</v>
       </c>
       <c r="J66">
-        <v>-100</v>
+        <v>250</v>
       </c>
       <c r="K66">
-        <v>3.5</v>
+        <v>1.88</v>
       </c>
       <c r="L66">
-        <v>347.5</v>
+        <v>-471.25</v>
       </c>
       <c r="M66">
-        <v>347.5</v>
+        <v>-471.25</v>
       </c>
       <c r="N66">
-        <v>347.5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+        <v>-471.25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>44250</v>
+        <v>44251</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E67">
-        <v>20231467</v>
+        <v>18551496</v>
       </c>
       <c r="F67" t="s">
         <v>17</v>
       </c>
       <c r="G67" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H67" t="s">
         <v>19</v>
       </c>
       <c r="I67">
-        <v>1956083693</v>
+        <v>1958490610</v>
       </c>
       <c r="J67">
-        <v>-160</v>
+        <v>250</v>
       </c>
       <c r="K67">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="L67">
-        <v>336.7</v>
+        <v>-458.75</v>
       </c>
       <c r="M67">
-        <v>336.7</v>
+        <v>-458.75</v>
       </c>
       <c r="N67">
-        <v>336.7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+        <v>-458.75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>44251</v>
       </c>
@@ -3288,43 +3550,43 @@
         <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D68" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E68">
-        <v>18551496</v>
+        <v>20962611</v>
       </c>
       <c r="F68" t="s">
         <v>17</v>
       </c>
       <c r="G68" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H68" t="s">
         <v>19</v>
       </c>
       <c r="I68">
-        <v>1958243750</v>
+        <v>1958628651</v>
       </c>
       <c r="J68">
-        <v>250</v>
+        <v>-45</v>
       </c>
       <c r="K68">
-        <v>1.88</v>
+        <v>15.32</v>
       </c>
       <c r="L68">
-        <v>-471.25</v>
+        <v>686.9</v>
       </c>
       <c r="M68">
-        <v>-471.25</v>
+        <v>686.9</v>
       </c>
       <c r="N68">
-        <v>-471.25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+        <v>686.9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>44251</v>
       </c>
@@ -3335,40 +3597,40 @@
         <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E69">
-        <v>18551496</v>
+        <v>20187713</v>
       </c>
       <c r="F69" t="s">
         <v>17</v>
       </c>
       <c r="G69" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H69" t="s">
         <v>19</v>
       </c>
       <c r="I69">
-        <v>1958490610</v>
+        <v>1958629005</v>
       </c>
       <c r="J69">
-        <v>250</v>
+        <v>-100</v>
       </c>
       <c r="K69">
-        <v>1.83</v>
+        <v>2.72</v>
       </c>
       <c r="L69">
-        <v>-458.75</v>
+        <v>269.60000000000002</v>
       </c>
       <c r="M69">
-        <v>-458.75</v>
+        <v>269.60000000000002</v>
       </c>
       <c r="N69">
-        <v>-458.75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <v>269.60000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>44251</v>
       </c>
@@ -3376,13 +3638,13 @@
         <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D70" t="s">
         <v>32</v>
       </c>
       <c r="E70">
-        <v>20962611</v>
+        <v>20051603</v>
       </c>
       <c r="F70" t="s">
         <v>17</v>
@@ -3394,25 +3656,25 @@
         <v>19</v>
       </c>
       <c r="I70">
-        <v>1958628651</v>
+        <v>1958630606</v>
       </c>
       <c r="J70">
-        <v>-45</v>
+        <v>-100</v>
       </c>
       <c r="K70">
-        <v>15.32</v>
+        <v>5.04</v>
       </c>
       <c r="L70">
-        <v>686.9</v>
+        <v>501.5</v>
       </c>
       <c r="M70">
-        <v>686.9</v>
+        <v>501.5</v>
       </c>
       <c r="N70">
-        <v>686.9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>501.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>44251</v>
       </c>
@@ -3420,57 +3682,57 @@
         <v>14</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E71">
-        <v>20187713</v>
+        <v>20165186</v>
       </c>
       <c r="F71" t="s">
         <v>17</v>
       </c>
       <c r="G71" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H71" t="s">
         <v>19</v>
       </c>
       <c r="I71">
-        <v>1958629005</v>
+        <v>1958735110</v>
       </c>
       <c r="J71">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K71">
-        <v>2.72</v>
+        <v>3.87</v>
       </c>
       <c r="L71">
-        <v>269.6</v>
+        <v>-389.2</v>
       </c>
       <c r="M71">
-        <v>269.6</v>
+        <v>-389.2</v>
       </c>
       <c r="N71">
-        <v>269.6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+        <v>-389.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>44251</v>
+        <v>44252</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E72">
-        <v>20051603</v>
+        <v>20165186</v>
       </c>
       <c r="F72" t="s">
         <v>17</v>
@@ -3482,113 +3744,113 @@
         <v>19</v>
       </c>
       <c r="I72">
-        <v>1958630606</v>
+        <v>1959591946</v>
       </c>
       <c r="J72">
         <v>-100</v>
       </c>
       <c r="K72">
-        <v>5.04</v>
+        <v>3.67</v>
       </c>
       <c r="L72">
-        <v>501.5</v>
+        <v>364.5</v>
       </c>
       <c r="M72">
-        <v>501.5</v>
+        <v>364.5</v>
       </c>
       <c r="N72">
-        <v>501.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+        <v>364.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>44251</v>
+        <v>44257</v>
       </c>
       <c r="B73" t="s">
         <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E73">
-        <v>20165186</v>
+        <v>18551496</v>
       </c>
       <c r="F73" t="s">
         <v>17</v>
       </c>
       <c r="G73" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H73" t="s">
         <v>19</v>
       </c>
       <c r="I73">
-        <v>1958735110</v>
+        <v>1964077230</v>
       </c>
       <c r="J73">
-        <v>100</v>
+        <v>-250</v>
       </c>
       <c r="K73">
-        <v>3.87</v>
+        <v>2.06</v>
       </c>
       <c r="L73">
-        <v>-389.2</v>
+        <v>512</v>
       </c>
       <c r="M73">
-        <v>-389.2</v>
+        <v>512</v>
       </c>
       <c r="N73">
-        <v>-389.2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>44252</v>
+        <v>44257</v>
       </c>
       <c r="B74" t="s">
         <v>14</v>
       </c>
       <c r="C74" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D74" t="s">
         <v>35</v>
       </c>
       <c r="E74">
-        <v>20165186</v>
+        <v>20187715</v>
       </c>
       <c r="F74" t="s">
         <v>17</v>
       </c>
       <c r="G74" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H74" t="s">
         <v>19</v>
       </c>
       <c r="I74">
-        <v>1959591946</v>
+        <v>1964474752</v>
       </c>
       <c r="J74">
-        <v>-100</v>
+        <v>125</v>
       </c>
       <c r="K74">
-        <v>3.67</v>
+        <v>4.05</v>
       </c>
       <c r="L74">
-        <v>364.5</v>
+        <v>-508.88</v>
       </c>
       <c r="M74">
-        <v>364.5</v>
+        <v>-508.88</v>
       </c>
       <c r="N74">
-        <v>364.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+        <v>-508.88</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>44257</v>
       </c>
@@ -3596,43 +3858,43 @@
         <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D75" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E75">
-        <v>18551496</v>
+        <v>20962611</v>
       </c>
       <c r="F75" t="s">
         <v>17</v>
       </c>
       <c r="G75" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H75" t="s">
         <v>19</v>
       </c>
       <c r="I75">
-        <v>1964077230</v>
+        <v>1964693928</v>
       </c>
       <c r="J75">
-        <v>-250</v>
+        <v>30</v>
       </c>
       <c r="K75">
-        <v>2.06</v>
+        <v>14.88</v>
       </c>
       <c r="L75">
-        <v>512</v>
+        <v>-448.9</v>
       </c>
       <c r="M75">
-        <v>512</v>
+        <v>-448.9</v>
       </c>
       <c r="N75">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+        <v>-448.9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>44257</v>
       </c>
@@ -3640,186 +3902,186 @@
         <v>14</v>
       </c>
       <c r="C76" t="s">
+        <v>36</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76" t="s">
+        <v>37</v>
+      </c>
+      <c r="G76" t="s">
+        <v>38</v>
+      </c>
+      <c r="H76" t="s">
+        <v>19</v>
+      </c>
+      <c r="I76" t="s">
+        <v>19</v>
+      </c>
+      <c r="J76" t="s">
+        <v>19</v>
+      </c>
+      <c r="K76" t="s">
+        <v>19</v>
+      </c>
+      <c r="L76">
+        <v>5</v>
+      </c>
+      <c r="M76">
+        <v>5</v>
+      </c>
+      <c r="N76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>44258</v>
+      </c>
+      <c r="B77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" t="s">
+        <v>39</v>
+      </c>
+      <c r="E77">
+        <v>18438537</v>
+      </c>
+      <c r="F77" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" t="s">
+        <v>18</v>
+      </c>
+      <c r="H77" t="s">
+        <v>19</v>
+      </c>
+      <c r="I77">
+        <v>1965857621</v>
+      </c>
+      <c r="J77">
+        <v>80</v>
+      </c>
+      <c r="K77">
+        <v>6.89</v>
+      </c>
+      <c r="L77">
+        <v>-553.70000000000005</v>
+      </c>
+      <c r="M77">
+        <v>-553.70000000000005</v>
+      </c>
+      <c r="N77">
+        <v>-553.70000000000005</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>44260</v>
+      </c>
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" t="s">
+        <v>39</v>
+      </c>
+      <c r="E78">
+        <v>18438537</v>
+      </c>
+      <c r="F78" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" t="s">
+        <v>19</v>
+      </c>
+      <c r="I78">
+        <v>1968977463</v>
+      </c>
+      <c r="J78">
+        <v>-80</v>
+      </c>
+      <c r="K78">
+        <v>6.32</v>
+      </c>
+      <c r="L78">
+        <v>503.1</v>
+      </c>
+      <c r="M78">
+        <v>503.1</v>
+      </c>
+      <c r="N78">
+        <v>503.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>44263</v>
+      </c>
+      <c r="B79" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" t="s">
         <v>15</v>
       </c>
-      <c r="D76" t="s">
-        <v>36</v>
-      </c>
-      <c r="E76">
+      <c r="D79" t="s">
+        <v>35</v>
+      </c>
+      <c r="E79">
         <v>20187715</v>
       </c>
-      <c r="F76" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" t="s">
-        <v>18</v>
-      </c>
-      <c r="H76" t="s">
-        <v>19</v>
-      </c>
-      <c r="I76">
-        <v>1964474752</v>
-      </c>
-      <c r="J76">
-        <v>125</v>
-      </c>
-      <c r="K76">
-        <v>4.05</v>
-      </c>
-      <c r="L76">
-        <v>-508.88</v>
-      </c>
-      <c r="M76">
-        <v>-508.88</v>
-      </c>
-      <c r="N76">
-        <v>-508.88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="A77" s="1">
-        <v>44257</v>
-      </c>
-      <c r="B77" t="s">
-        <v>14</v>
-      </c>
-      <c r="C77" t="s">
-        <v>23</v>
-      </c>
-      <c r="D77" t="s">
-        <v>32</v>
-      </c>
-      <c r="E77">
+      <c r="F79" t="s">
+        <v>17</v>
+      </c>
+      <c r="G79" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" t="s">
+        <v>19</v>
+      </c>
+      <c r="I79">
+        <v>1971031562</v>
+      </c>
+      <c r="J79">
+        <v>175</v>
+      </c>
+      <c r="K79">
+        <v>2.91</v>
+      </c>
+      <c r="L79">
+        <v>-510.88</v>
+      </c>
+      <c r="M79">
+        <v>-510.88</v>
+      </c>
+      <c r="N79">
+        <v>-510.88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>44263</v>
+      </c>
+      <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" t="s">
+        <v>31</v>
+      </c>
+      <c r="E80">
         <v>20962611</v>
-      </c>
-      <c r="F77" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" t="s">
-        <v>18</v>
-      </c>
-      <c r="H77" t="s">
-        <v>19</v>
-      </c>
-      <c r="I77">
-        <v>1964693928</v>
-      </c>
-      <c r="J77">
-        <v>30</v>
-      </c>
-      <c r="K77">
-        <v>14.88</v>
-      </c>
-      <c r="L77">
-        <v>-448.9</v>
-      </c>
-      <c r="M77">
-        <v>-448.9</v>
-      </c>
-      <c r="N77">
-        <v>-448.9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="A78" s="1">
-        <v>44257</v>
-      </c>
-      <c r="B78" t="s">
-        <v>14</v>
-      </c>
-      <c r="C78" t="s">
-        <v>37</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78" t="s">
-        <v>38</v>
-      </c>
-      <c r="G78" t="s">
-        <v>39</v>
-      </c>
-      <c r="H78" t="s">
-        <v>19</v>
-      </c>
-      <c r="I78" t="s">
-        <v>19</v>
-      </c>
-      <c r="J78" t="s">
-        <v>19</v>
-      </c>
-      <c r="K78" t="s">
-        <v>19</v>
-      </c>
-      <c r="L78">
-        <v>5</v>
-      </c>
-      <c r="M78">
-        <v>5</v>
-      </c>
-      <c r="N78">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="A79" s="1">
-        <v>44258</v>
-      </c>
-      <c r="B79" t="s">
-        <v>14</v>
-      </c>
-      <c r="C79" t="s">
-        <v>23</v>
-      </c>
-      <c r="D79" t="s">
-        <v>40</v>
-      </c>
-      <c r="E79">
-        <v>18438537</v>
-      </c>
-      <c r="F79" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" t="s">
-        <v>18</v>
-      </c>
-      <c r="H79" t="s">
-        <v>19</v>
-      </c>
-      <c r="I79">
-        <v>1965857621</v>
-      </c>
-      <c r="J79">
-        <v>80</v>
-      </c>
-      <c r="K79">
-        <v>6.89</v>
-      </c>
-      <c r="L79">
-        <v>-553.7</v>
-      </c>
-      <c r="M79">
-        <v>-553.7</v>
-      </c>
-      <c r="N79">
-        <v>-553.7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
-      <c r="A80" s="1">
-        <v>44260</v>
-      </c>
-      <c r="B80" t="s">
-        <v>14</v>
-      </c>
-      <c r="C80" t="s">
-        <v>23</v>
-      </c>
-      <c r="D80" t="s">
-        <v>40</v>
-      </c>
-      <c r="E80">
-        <v>18438537</v>
       </c>
       <c r="F80" t="s">
         <v>17</v>
@@ -3831,25 +4093,25 @@
         <v>19</v>
       </c>
       <c r="I80">
-        <v>1968977463</v>
+        <v>1971191664</v>
       </c>
       <c r="J80">
-        <v>-80</v>
+        <v>-30</v>
       </c>
       <c r="K80">
-        <v>6.32</v>
+        <v>19.37</v>
       </c>
       <c r="L80">
-        <v>503.1</v>
+        <v>578.6</v>
       </c>
       <c r="M80">
-        <v>503.1</v>
+        <v>578.6</v>
       </c>
       <c r="N80">
-        <v>503.1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
+        <v>578.6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>44263</v>
       </c>
@@ -3860,10 +4122,10 @@
         <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E81">
-        <v>20187715</v>
+        <v>19219209</v>
       </c>
       <c r="F81" t="s">
         <v>17</v>
@@ -3875,39 +4137,39 @@
         <v>19</v>
       </c>
       <c r="I81">
-        <v>1971031562</v>
+        <v>1971543181</v>
       </c>
       <c r="J81">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="K81">
-        <v>2.91</v>
+        <v>30.71</v>
       </c>
       <c r="L81">
-        <v>-510.88</v>
+        <v>-524.57000000000005</v>
       </c>
       <c r="M81">
-        <v>-510.88</v>
+        <v>-524.57000000000005</v>
       </c>
       <c r="N81">
-        <v>-510.88</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14">
+        <v>-524.57000000000005</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>44263</v>
+        <v>44264</v>
       </c>
       <c r="B82" t="s">
         <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E82">
-        <v>20962611</v>
+        <v>19219209</v>
       </c>
       <c r="F82" t="s">
         <v>17</v>
@@ -3919,27 +4181,27 @@
         <v>19</v>
       </c>
       <c r="I82">
-        <v>1971191664</v>
+        <v>1972233724</v>
       </c>
       <c r="J82">
-        <v>-30</v>
+        <v>-17</v>
       </c>
       <c r="K82">
-        <v>19.37</v>
+        <v>27.26</v>
       </c>
       <c r="L82">
-        <v>578.6</v>
+        <v>460.92</v>
       </c>
       <c r="M82">
-        <v>578.6</v>
+        <v>460.92</v>
       </c>
       <c r="N82">
-        <v>578.6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14">
+        <v>460.92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>44263</v>
+        <v>44265</v>
       </c>
       <c r="B83" t="s">
         <v>14</v>
@@ -3948,84 +4210,84 @@
         <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E83">
-        <v>19219209</v>
+        <v>20187715</v>
       </c>
       <c r="F83" t="s">
         <v>17</v>
       </c>
       <c r="G83" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H83" t="s">
         <v>19</v>
       </c>
       <c r="I83">
-        <v>1971543181</v>
+        <v>1973770638</v>
       </c>
       <c r="J83">
-        <v>17</v>
+        <v>-300</v>
       </c>
       <c r="K83">
-        <v>30.71</v>
+        <v>2.73</v>
       </c>
       <c r="L83">
-        <v>-524.57</v>
+        <v>815.6</v>
       </c>
       <c r="M83">
-        <v>-524.57</v>
+        <v>815.6</v>
       </c>
       <c r="N83">
-        <v>-524.57</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
+        <v>815.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="B84" t="s">
         <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D84" t="s">
         <v>41</v>
       </c>
       <c r="E84">
-        <v>19219209</v>
+        <v>23919</v>
       </c>
       <c r="F84" t="s">
         <v>17</v>
       </c>
       <c r="G84" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H84" t="s">
         <v>19</v>
       </c>
       <c r="I84">
-        <v>1972233724</v>
+        <v>1973807851</v>
       </c>
       <c r="J84">
-        <v>-17</v>
+        <v>240</v>
       </c>
       <c r="K84">
-        <v>27.26</v>
+        <v>3.77</v>
       </c>
       <c r="L84">
-        <v>460.92</v>
+        <v>-908.26</v>
       </c>
       <c r="M84">
-        <v>460.92</v>
+        <v>-908.26</v>
       </c>
       <c r="N84">
-        <v>460.92</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
+        <v>-908.26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>44265</v>
       </c>
@@ -4036,10 +4298,10 @@
         <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E85">
-        <v>20187715</v>
+        <v>18551496</v>
       </c>
       <c r="F85" t="s">
         <v>17</v>
@@ -4051,25 +4313,25 @@
         <v>19</v>
       </c>
       <c r="I85">
-        <v>1973770638</v>
+        <v>1973936043</v>
       </c>
       <c r="J85">
-        <v>-300</v>
+        <v>-250</v>
       </c>
       <c r="K85">
-        <v>2.73</v>
+        <v>1.65</v>
       </c>
       <c r="L85">
-        <v>815.6</v>
+        <v>409.75</v>
       </c>
       <c r="M85">
-        <v>815.6</v>
+        <v>409.75</v>
       </c>
       <c r="N85">
-        <v>815.6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
+        <v>409.75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>44265</v>
       </c>
@@ -4077,13 +4339,13 @@
         <v>14</v>
       </c>
       <c r="C86" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D86" t="s">
         <v>42</v>
       </c>
       <c r="E86">
-        <v>23919</v>
+        <v>18799246</v>
       </c>
       <c r="F86" t="s">
         <v>17</v>
@@ -4095,25 +4357,25 @@
         <v>19</v>
       </c>
       <c r="I86">
-        <v>1973807851</v>
+        <v>1973946191</v>
       </c>
       <c r="J86">
-        <v>240</v>
+        <v>420</v>
       </c>
       <c r="K86">
-        <v>3.77</v>
+        <v>1.32</v>
       </c>
       <c r="L86">
-        <v>-908.26</v>
+        <v>-556.9</v>
       </c>
       <c r="M86">
-        <v>-908.26</v>
+        <v>-556.9</v>
       </c>
       <c r="N86">
-        <v>-908.26</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14">
+        <v>-556.9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>44265</v>
       </c>
@@ -4124,40 +4386,40 @@
         <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E87">
-        <v>18551496</v>
+        <v>18430232</v>
       </c>
       <c r="F87" t="s">
         <v>17</v>
       </c>
       <c r="G87" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H87" t="s">
         <v>19</v>
       </c>
       <c r="I87">
-        <v>1973936043</v>
+        <v>1974109973</v>
       </c>
       <c r="J87">
-        <v>-250</v>
+        <v>10</v>
       </c>
       <c r="K87">
-        <v>1.65</v>
+        <v>53.67</v>
       </c>
       <c r="L87">
-        <v>409.75</v>
+        <v>-539.20000000000005</v>
       </c>
       <c r="M87">
-        <v>409.75</v>
+        <v>-539.20000000000005</v>
       </c>
       <c r="N87">
-        <v>409.75</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
+        <v>-539.20000000000005</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>44265</v>
       </c>
@@ -4165,43 +4427,43 @@
         <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D88" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E88">
-        <v>18799246</v>
+        <v>23919</v>
       </c>
       <c r="F88" t="s">
         <v>17</v>
       </c>
       <c r="G88" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H88" t="s">
         <v>19</v>
       </c>
       <c r="I88">
-        <v>1973946191</v>
+        <v>1974299366</v>
       </c>
       <c r="J88">
-        <v>420</v>
+        <v>-240</v>
       </c>
       <c r="K88">
-        <v>1.32</v>
+        <v>3.86</v>
       </c>
       <c r="L88">
-        <v>-556.9</v>
+        <v>923.42</v>
       </c>
       <c r="M88">
-        <v>-556.9</v>
+        <v>923.42</v>
       </c>
       <c r="N88">
-        <v>-556.9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
+        <v>923.42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>44265</v>
       </c>
@@ -4209,13 +4471,13 @@
         <v>14</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D89" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E89">
-        <v>18430232</v>
+        <v>19028703</v>
       </c>
       <c r="F89" t="s">
         <v>17</v>
@@ -4227,25 +4489,25 @@
         <v>19</v>
       </c>
       <c r="I89">
-        <v>1974109973</v>
+        <v>1974314094</v>
       </c>
       <c r="J89">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="K89">
-        <v>53.67</v>
+        <v>8.91</v>
       </c>
       <c r="L89">
-        <v>-539.2</v>
+        <v>-537.1</v>
       </c>
       <c r="M89">
-        <v>-539.2</v>
+        <v>-537.1</v>
       </c>
       <c r="N89">
-        <v>-539.2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
+        <v>-537.1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>44265</v>
       </c>
@@ -4253,145 +4515,145 @@
         <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D90" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E90">
-        <v>23919</v>
+        <v>20743879</v>
       </c>
       <c r="F90" t="s">
         <v>17</v>
       </c>
       <c r="G90" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H90" t="s">
         <v>19</v>
       </c>
       <c r="I90">
-        <v>1974299366</v>
+        <v>1974390339</v>
       </c>
       <c r="J90">
-        <v>-240</v>
+        <v>115</v>
       </c>
       <c r="K90">
-        <v>3.86</v>
+        <v>4.99</v>
       </c>
       <c r="L90">
-        <v>923.42</v>
+        <v>-576.35</v>
       </c>
       <c r="M90">
-        <v>923.42</v>
+        <v>-576.35</v>
       </c>
       <c r="N90">
-        <v>923.42</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
+        <v>-576.35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>44265</v>
+        <v>44266</v>
       </c>
       <c r="B91" t="s">
         <v>14</v>
       </c>
       <c r="C91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D91" t="s">
         <v>44</v>
       </c>
       <c r="E91">
+        <v>20743879</v>
+      </c>
+      <c r="F91" t="s">
+        <v>17</v>
+      </c>
+      <c r="G91" t="s">
+        <v>20</v>
+      </c>
+      <c r="H91" t="s">
+        <v>19</v>
+      </c>
+      <c r="I91">
+        <v>1975225146</v>
+      </c>
+      <c r="J91">
+        <v>-115</v>
+      </c>
+      <c r="K91">
+        <v>5.27</v>
+      </c>
+      <c r="L91">
+        <v>603.54999999999995</v>
+      </c>
+      <c r="M91">
+        <v>603.54999999999995</v>
+      </c>
+      <c r="N91">
+        <v>603.54999999999995</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>44266</v>
+      </c>
+      <c r="B92" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" t="s">
+        <v>35</v>
+      </c>
+      <c r="E92">
+        <v>20187715</v>
+      </c>
+      <c r="F92" t="s">
+        <v>17</v>
+      </c>
+      <c r="G92" t="s">
+        <v>18</v>
+      </c>
+      <c r="H92" t="s">
+        <v>19</v>
+      </c>
+      <c r="I92">
+        <v>1975228762</v>
+      </c>
+      <c r="J92">
+        <v>180</v>
+      </c>
+      <c r="K92">
+        <v>3.17</v>
+      </c>
+      <c r="L92">
+        <v>-572.20000000000005</v>
+      </c>
+      <c r="M92">
+        <v>-572.20000000000005</v>
+      </c>
+      <c r="N92">
+        <v>-572.20000000000005</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>44271</v>
+      </c>
+      <c r="B93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" t="s">
+        <v>43</v>
+      </c>
+      <c r="E93">
         <v>19028703</v>
-      </c>
-      <c r="F91" t="s">
-        <v>17</v>
-      </c>
-      <c r="G91" t="s">
-        <v>18</v>
-      </c>
-      <c r="H91" t="s">
-        <v>19</v>
-      </c>
-      <c r="I91">
-        <v>1974314094</v>
-      </c>
-      <c r="J91">
-        <v>60</v>
-      </c>
-      <c r="K91">
-        <v>8.91</v>
-      </c>
-      <c r="L91">
-        <v>-537.1</v>
-      </c>
-      <c r="M91">
-        <v>-537.1</v>
-      </c>
-      <c r="N91">
-        <v>-537.1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
-      <c r="A92" s="1">
-        <v>44265</v>
-      </c>
-      <c r="B92" t="s">
-        <v>14</v>
-      </c>
-      <c r="C92" t="s">
-        <v>23</v>
-      </c>
-      <c r="D92" t="s">
-        <v>45</v>
-      </c>
-      <c r="E92">
-        <v>20743879</v>
-      </c>
-      <c r="F92" t="s">
-        <v>17</v>
-      </c>
-      <c r="G92" t="s">
-        <v>18</v>
-      </c>
-      <c r="H92" t="s">
-        <v>19</v>
-      </c>
-      <c r="I92">
-        <v>1974390339</v>
-      </c>
-      <c r="J92">
-        <v>115</v>
-      </c>
-      <c r="K92">
-        <v>4.99</v>
-      </c>
-      <c r="L92">
-        <v>-576.35</v>
-      </c>
-      <c r="M92">
-        <v>-576.35</v>
-      </c>
-      <c r="N92">
-        <v>-576.35</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
-      <c r="A93" s="1">
-        <v>44266</v>
-      </c>
-      <c r="B93" t="s">
-        <v>14</v>
-      </c>
-      <c r="C93" t="s">
-        <v>23</v>
-      </c>
-      <c r="D93" t="s">
-        <v>45</v>
-      </c>
-      <c r="E93">
-        <v>20743879</v>
       </c>
       <c r="F93" t="s">
         <v>17</v>
@@ -4403,27 +4665,27 @@
         <v>19</v>
       </c>
       <c r="I93">
-        <v>1975225146</v>
+        <v>1979175060</v>
       </c>
       <c r="J93">
-        <v>-115</v>
+        <v>-60</v>
       </c>
       <c r="K93">
-        <v>5.27</v>
+        <v>8.76</v>
       </c>
       <c r="L93">
-        <v>603.55</v>
+        <v>523.1</v>
       </c>
       <c r="M93">
-        <v>603.55</v>
+        <v>523.1</v>
       </c>
       <c r="N93">
-        <v>603.55</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
+        <v>523.1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>44266</v>
+        <v>44271</v>
       </c>
       <c r="B94" t="s">
         <v>14</v>
@@ -4432,7 +4694,7 @@
         <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E94">
         <v>20187715</v>
@@ -4447,39 +4709,39 @@
         <v>19</v>
       </c>
       <c r="I94">
-        <v>1975228762</v>
+        <v>1979180968</v>
       </c>
       <c r="J94">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="K94">
-        <v>3.17</v>
+        <v>2.17</v>
       </c>
       <c r="L94">
-        <v>-572.2</v>
+        <v>-524.26</v>
       </c>
       <c r="M94">
-        <v>-572.2</v>
+        <v>-524.26</v>
       </c>
       <c r="N94">
-        <v>-572.2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
+        <v>-524.26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>44271</v>
+        <v>44280</v>
       </c>
       <c r="B95" t="s">
         <v>14</v>
       </c>
       <c r="C95" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E95">
-        <v>19028703</v>
+        <v>20187715</v>
       </c>
       <c r="F95" t="s">
         <v>17</v>
@@ -4491,69 +4753,69 @@
         <v>19</v>
       </c>
       <c r="I95">
-        <v>1979175060</v>
+        <v>1987147009</v>
       </c>
       <c r="J95">
-        <v>-60</v>
+        <v>-420</v>
       </c>
       <c r="K95">
-        <v>8.76</v>
+        <v>2.06</v>
       </c>
       <c r="L95">
-        <v>523.1</v>
+        <v>862.28</v>
       </c>
       <c r="M95">
-        <v>523.1</v>
+        <v>862.28</v>
       </c>
       <c r="N95">
-        <v>523.1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
+        <v>862.28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>44271</v>
+        <v>44280</v>
       </c>
       <c r="B96" t="s">
         <v>14</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D96" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E96">
-        <v>20187715</v>
+        <v>18799246</v>
       </c>
       <c r="F96" t="s">
         <v>17</v>
       </c>
       <c r="G96" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H96" t="s">
         <v>19</v>
       </c>
       <c r="I96">
-        <v>1979180968</v>
+        <v>1987147620</v>
       </c>
       <c r="J96">
-        <v>240</v>
+        <v>-420</v>
       </c>
       <c r="K96">
-        <v>2.17</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="L96">
-        <v>-524.26</v>
+        <v>472.1</v>
       </c>
       <c r="M96">
-        <v>-524.26</v>
+        <v>472.1</v>
       </c>
       <c r="N96">
-        <v>-524.26</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
+        <v>472.1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>44280</v>
       </c>
@@ -4564,7 +4826,7 @@
         <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E97">
         <v>20187715</v>
@@ -4573,77 +4835,77 @@
         <v>17</v>
       </c>
       <c r="G97" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H97" t="s">
         <v>19</v>
       </c>
       <c r="I97">
-        <v>1987147009</v>
+        <v>1987517650</v>
       </c>
       <c r="J97">
-        <v>-420</v>
+        <v>230</v>
       </c>
       <c r="K97">
-        <v>2.06</v>
+        <v>2.42</v>
       </c>
       <c r="L97">
-        <v>862.28</v>
+        <v>-557.95000000000005</v>
       </c>
       <c r="M97">
-        <v>862.28</v>
+        <v>-557.95000000000005</v>
       </c>
       <c r="N97">
-        <v>862.28</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
+        <v>-557.95000000000005</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>44280</v>
+        <v>44281</v>
       </c>
       <c r="B98" t="s">
         <v>14</v>
       </c>
       <c r="C98" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D98" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E98">
-        <v>18799246</v>
+        <v>19412260</v>
       </c>
       <c r="F98" t="s">
         <v>17</v>
       </c>
       <c r="G98" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H98" t="s">
         <v>19</v>
       </c>
       <c r="I98">
-        <v>1987147620</v>
+        <v>1988723430</v>
       </c>
       <c r="J98">
-        <v>-420</v>
+        <v>823</v>
       </c>
       <c r="K98">
-        <v>1.13</v>
+        <v>0.68</v>
       </c>
       <c r="L98">
-        <v>472.1</v>
+        <v>-562.14</v>
       </c>
       <c r="M98">
-        <v>472.1</v>
+        <v>-562.14</v>
       </c>
       <c r="N98">
-        <v>472.1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
+        <v>-562.14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>44280</v>
+        <v>44286</v>
       </c>
       <c r="B99" t="s">
         <v>14</v>
@@ -4652,7 +4914,7 @@
         <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E99">
         <v>20187715</v>
@@ -4661,86 +4923,86 @@
         <v>17</v>
       </c>
       <c r="G99" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H99" t="s">
         <v>19</v>
       </c>
       <c r="I99">
-        <v>1987517650</v>
+        <v>1991900129</v>
       </c>
       <c r="J99">
-        <v>230</v>
+        <v>-230</v>
       </c>
       <c r="K99">
-        <v>2.42</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L99">
-        <v>-557.95</v>
+        <v>503.04</v>
       </c>
       <c r="M99">
-        <v>-557.95</v>
+        <v>503.04</v>
       </c>
       <c r="N99">
-        <v>-557.95</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
+        <v>503.04</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>44281</v>
+        <v>44286</v>
       </c>
       <c r="B100" t="s">
         <v>14</v>
       </c>
       <c r="C100" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E100">
-        <v>19412260</v>
+        <v>9466</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="H100" t="s">
         <v>19</v>
       </c>
-      <c r="I100">
-        <v>1988723430</v>
-      </c>
-      <c r="J100">
-        <v>823</v>
-      </c>
-      <c r="K100">
-        <v>0.68</v>
+      <c r="I100" t="s">
+        <v>19</v>
+      </c>
+      <c r="J100" t="s">
+        <v>19</v>
+      </c>
+      <c r="K100" t="s">
+        <v>19</v>
       </c>
       <c r="L100">
-        <v>-562.14</v>
+        <v>1000</v>
       </c>
       <c r="M100">
-        <v>-562.14</v>
+        <v>1000</v>
       </c>
       <c r="N100">
-        <v>-562.14</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>44203</v>
       </c>
       <c r="B101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C101" t="s">
         <v>21</v>
       </c>
       <c r="D101" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E101">
         <v>49439</v>
@@ -4773,21 +5035,21 @@
         <v>-994.2</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>44208</v>
+        <v>44221</v>
       </c>
       <c r="B102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C102" t="s">
         <v>21</v>
       </c>
       <c r="D102" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="E102">
-        <v>3853478</v>
+        <v>112808</v>
       </c>
       <c r="F102" t="s">
         <v>17</v>
@@ -4799,36 +5061,36 @@
         <v>19</v>
       </c>
       <c r="I102">
-        <v>1914294823</v>
+        <v>1925735955</v>
       </c>
       <c r="J102">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="K102">
-        <v>12.37</v>
+        <v>14.8</v>
       </c>
       <c r="L102">
-        <v>-992.34</v>
+        <v>-996.73</v>
       </c>
       <c r="M102">
-        <v>-992.34</v>
+        <v>-996.73</v>
       </c>
       <c r="N102">
-        <v>-992.34</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14">
+        <v>-996.73</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>44221</v>
+        <v>44223</v>
       </c>
       <c r="B103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C103" t="s">
         <v>21</v>
       </c>
       <c r="D103" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E103">
         <v>112808</v>
@@ -4837,89 +5099,89 @@
         <v>17</v>
       </c>
       <c r="G103" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H103" t="s">
         <v>19</v>
       </c>
       <c r="I103">
-        <v>1925735955</v>
+        <v>1928478118</v>
       </c>
       <c r="J103">
-        <v>67</v>
+        <v>-67</v>
       </c>
       <c r="K103">
-        <v>14.8</v>
+        <v>14.27</v>
       </c>
       <c r="L103">
-        <v>-996.73</v>
+        <v>953.26</v>
       </c>
       <c r="M103">
-        <v>-996.73</v>
+        <v>953.26</v>
       </c>
       <c r="N103">
-        <v>-996.73</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14">
+        <v>953.26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>44223</v>
+        <v>44235</v>
       </c>
       <c r="B104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C104" t="s">
         <v>21</v>
       </c>
       <c r="D104" t="s">
+        <v>50</v>
+      </c>
+      <c r="E104">
+        <v>22454</v>
+      </c>
+      <c r="F104" t="s">
+        <v>17</v>
+      </c>
+      <c r="G104" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" t="s">
+        <v>19</v>
+      </c>
+      <c r="I104">
+        <v>1941836275</v>
+      </c>
+      <c r="J104">
+        <v>50</v>
+      </c>
+      <c r="K104">
+        <v>19.02</v>
+      </c>
+      <c r="L104">
+        <v>-953.3</v>
+      </c>
+      <c r="M104">
+        <v>-953.3</v>
+      </c>
+      <c r="N104">
+        <v>-953.3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>44235</v>
+      </c>
+      <c r="B105" t="s">
         <v>48</v>
-      </c>
-      <c r="E104">
-        <v>112808</v>
-      </c>
-      <c r="F104" t="s">
-        <v>17</v>
-      </c>
-      <c r="G104" t="s">
-        <v>20</v>
-      </c>
-      <c r="H104" t="s">
-        <v>19</v>
-      </c>
-      <c r="I104">
-        <v>1928478118</v>
-      </c>
-      <c r="J104">
-        <v>-67</v>
-      </c>
-      <c r="K104">
-        <v>14.27</v>
-      </c>
-      <c r="L104">
-        <v>953.26</v>
-      </c>
-      <c r="M104">
-        <v>953.26</v>
-      </c>
-      <c r="N104">
-        <v>953.26</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
-      <c r="A105" s="1">
-        <v>44223</v>
-      </c>
-      <c r="B105" t="s">
-        <v>47</v>
       </c>
       <c r="C105" t="s">
         <v>21</v>
       </c>
       <c r="D105" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E105">
-        <v>3853478</v>
+        <v>13142</v>
       </c>
       <c r="F105" t="s">
         <v>17</v>
@@ -4931,83 +5193,83 @@
         <v>19</v>
       </c>
       <c r="I105">
-        <v>1928537627</v>
+        <v>1941871096</v>
       </c>
       <c r="J105">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="K105">
-        <v>12.38</v>
+        <v>48.6</v>
       </c>
       <c r="L105">
-        <v>-2134.7</v>
+        <v>-977.42</v>
       </c>
       <c r="M105">
-        <v>-2134.7</v>
+        <v>-977.42</v>
       </c>
       <c r="N105">
-        <v>-2134.7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14">
+        <v>-977.42</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>44232</v>
+        <v>44235</v>
       </c>
       <c r="B106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C106" t="s">
         <v>21</v>
       </c>
       <c r="D106" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E106">
-        <v>3853478</v>
+        <v>49439</v>
       </c>
       <c r="F106" t="s">
         <v>17</v>
       </c>
       <c r="G106" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H106" t="s">
         <v>19</v>
       </c>
       <c r="I106">
-        <v>1940458366</v>
+        <v>1941947166</v>
       </c>
       <c r="J106">
-        <v>-300</v>
+        <v>5600</v>
       </c>
       <c r="K106">
-        <v>11.99</v>
+        <v>0.18</v>
       </c>
       <c r="L106">
-        <v>3591.72</v>
+        <v>-988.1</v>
       </c>
       <c r="M106">
-        <v>3591.72</v>
+        <v>-988.1</v>
       </c>
       <c r="N106">
-        <v>3591.72</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
+        <v>-988.1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>44235</v>
+        <v>44237</v>
       </c>
       <c r="B107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C107" t="s">
         <v>21</v>
       </c>
       <c r="D107" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E107">
-        <v>22454</v>
+        <v>25345</v>
       </c>
       <c r="F107" t="s">
         <v>17</v>
@@ -5019,30 +5281,30 @@
         <v>19</v>
       </c>
       <c r="I107">
-        <v>1941836275</v>
+        <v>1945325585</v>
       </c>
       <c r="J107">
-        <v>50</v>
+        <v>1350</v>
       </c>
       <c r="K107">
-        <v>19.02</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="L107">
-        <v>-953.3</v>
+        <v>-2952.05</v>
       </c>
       <c r="M107">
-        <v>-953.3</v>
+        <v>-2952.05</v>
       </c>
       <c r="N107">
-        <v>-953.3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
+        <v>-2952.05</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>44235</v>
+        <v>44238</v>
       </c>
       <c r="B108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C108" t="s">
         <v>21</v>
@@ -5051,139 +5313,139 @@
         <v>50</v>
       </c>
       <c r="E108">
-        <v>13142</v>
+        <v>22454</v>
       </c>
       <c r="F108" t="s">
         <v>17</v>
       </c>
       <c r="G108" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H108" t="s">
         <v>19</v>
       </c>
       <c r="I108">
-        <v>1941871096</v>
+        <v>1946043558</v>
       </c>
       <c r="J108">
-        <v>20</v>
+        <v>-50</v>
       </c>
       <c r="K108">
-        <v>48.6</v>
+        <v>18.920000000000002</v>
       </c>
       <c r="L108">
-        <v>-977.42</v>
+        <v>943.3</v>
       </c>
       <c r="M108">
-        <v>-977.42</v>
+        <v>943.3</v>
       </c>
       <c r="N108">
-        <v>-977.42</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14">
+        <v>943.3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>44235</v>
+        <v>44239</v>
       </c>
       <c r="B109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C109" t="s">
         <v>21</v>
       </c>
       <c r="D109" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E109">
-        <v>49439</v>
+        <v>13142</v>
       </c>
       <c r="F109" t="s">
         <v>17</v>
       </c>
       <c r="G109" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H109" t="s">
         <v>19</v>
       </c>
       <c r="I109">
-        <v>1941947166</v>
+        <v>1947293540</v>
       </c>
       <c r="J109">
-        <v>5600</v>
+        <v>-20</v>
       </c>
       <c r="K109">
-        <v>0.18</v>
+        <v>50.08</v>
       </c>
       <c r="L109">
-        <v>-988.1</v>
+        <v>996.56</v>
       </c>
       <c r="M109">
-        <v>-988.1</v>
+        <v>996.56</v>
       </c>
       <c r="N109">
-        <v>-988.1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14">
+        <v>996.56</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>44235</v>
+        <v>44239</v>
       </c>
       <c r="B110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C110" t="s">
         <v>21</v>
       </c>
       <c r="D110" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E110">
-        <v>3853478</v>
+        <v>25345</v>
       </c>
       <c r="F110" t="s">
         <v>17</v>
       </c>
       <c r="G110" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H110" t="s">
         <v>19</v>
       </c>
       <c r="I110">
-        <v>1942156331</v>
+        <v>1947851691</v>
       </c>
       <c r="J110">
-        <v>-300</v>
+        <v>1350</v>
       </c>
       <c r="K110">
-        <v>11.77</v>
+        <v>2.14</v>
       </c>
       <c r="L110">
-        <v>3526</v>
+        <v>-2896.02</v>
       </c>
       <c r="M110">
-        <v>3526</v>
+        <v>-2896.02</v>
       </c>
       <c r="N110">
-        <v>3526</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
+        <v>-2896.02</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>44237</v>
+        <v>44242</v>
       </c>
       <c r="B111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C111" t="s">
         <v>21</v>
       </c>
       <c r="D111" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E111">
-        <v>25345</v>
+        <v>3844730</v>
       </c>
       <c r="F111" t="s">
         <v>17</v>
@@ -5195,83 +5457,83 @@
         <v>19</v>
       </c>
       <c r="I111">
-        <v>1945325585</v>
+        <v>1948447224</v>
       </c>
       <c r="J111">
-        <v>1350</v>
+        <v>109</v>
       </c>
       <c r="K111">
-        <v>2.18</v>
+        <v>9.09</v>
       </c>
       <c r="L111">
-        <v>-2952.05</v>
+        <v>-993.31</v>
       </c>
       <c r="M111">
-        <v>-2952.05</v>
+        <v>-993.31</v>
       </c>
       <c r="N111">
-        <v>-2952.05</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
+        <v>-993.31</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>44238</v>
+        <v>44242</v>
       </c>
       <c r="B112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C112" t="s">
         <v>21</v>
       </c>
       <c r="D112" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E112">
-        <v>22454</v>
+        <v>1242522</v>
       </c>
       <c r="F112" t="s">
         <v>17</v>
       </c>
       <c r="G112" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H112" t="s">
         <v>19</v>
       </c>
       <c r="I112">
-        <v>1946043558</v>
+        <v>1948461136</v>
       </c>
       <c r="J112">
-        <v>-50</v>
+        <v>120</v>
       </c>
       <c r="K112">
-        <v>18.92</v>
+        <v>7.35</v>
       </c>
       <c r="L112">
-        <v>943.3</v>
+        <v>-887.15</v>
       </c>
       <c r="M112">
-        <v>943.3</v>
+        <v>-887.15</v>
       </c>
       <c r="N112">
-        <v>943.3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14">
+        <v>-887.15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>44239</v>
+        <v>44243</v>
       </c>
       <c r="B113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C113" t="s">
         <v>21</v>
       </c>
       <c r="D113" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E113">
-        <v>13142</v>
+        <v>3844730</v>
       </c>
       <c r="F113" t="s">
         <v>17</v>
@@ -5283,36 +5545,36 @@
         <v>19</v>
       </c>
       <c r="I113">
-        <v>1947293540</v>
+        <v>1949053395</v>
       </c>
       <c r="J113">
-        <v>-20</v>
+        <v>-109</v>
       </c>
       <c r="K113">
-        <v>50.08</v>
+        <v>8.99</v>
       </c>
       <c r="L113">
-        <v>996.56</v>
+        <v>977.41</v>
       </c>
       <c r="M113">
-        <v>996.56</v>
+        <v>977.41</v>
       </c>
       <c r="N113">
-        <v>996.56</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14">
+        <v>977.41</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="B114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C114" t="s">
         <v>21</v>
       </c>
       <c r="D114" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E114">
         <v>25345</v>
@@ -5327,391 +5589,391 @@
         <v>19</v>
       </c>
       <c r="I114">
-        <v>1947851691</v>
+        <v>1951152110</v>
       </c>
       <c r="J114">
-        <v>1350</v>
+        <v>1300</v>
       </c>
       <c r="K114">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="L114">
-        <v>-2896.02</v>
+        <v>-2710.3</v>
       </c>
       <c r="M114">
-        <v>-2896.02</v>
+        <v>-2710.3</v>
       </c>
       <c r="N114">
-        <v>-2896.02</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14">
+        <v>-2710.3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>44242</v>
+        <v>44244</v>
       </c>
       <c r="B115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C115" t="s">
         <v>21</v>
       </c>
       <c r="D115" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E115">
-        <v>3844730</v>
+        <v>1242522</v>
       </c>
       <c r="F115" t="s">
         <v>17</v>
       </c>
       <c r="G115" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H115" t="s">
         <v>19</v>
       </c>
       <c r="I115">
-        <v>1948447224</v>
+        <v>1951252232</v>
       </c>
       <c r="J115">
-        <v>109</v>
+        <v>-120</v>
       </c>
       <c r="K115">
-        <v>9.09</v>
+        <v>7.45</v>
       </c>
       <c r="L115">
-        <v>-993.31</v>
+        <v>890.9</v>
       </c>
       <c r="M115">
-        <v>-993.31</v>
+        <v>890.9</v>
       </c>
       <c r="N115">
-        <v>-993.31</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14">
+        <v>890.9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>44242</v>
+        <v>44245</v>
       </c>
       <c r="B116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C116" t="s">
         <v>21</v>
       </c>
       <c r="D116" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="E116">
-        <v>1242522</v>
+        <v>49439</v>
       </c>
       <c r="F116" t="s">
         <v>17</v>
       </c>
       <c r="G116" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H116" t="s">
         <v>19</v>
       </c>
       <c r="I116">
-        <v>1948461136</v>
+        <v>1952108311</v>
       </c>
       <c r="J116">
-        <v>120</v>
+        <v>-15000</v>
       </c>
       <c r="K116">
-        <v>7.35</v>
+        <v>0.16</v>
       </c>
       <c r="L116">
-        <v>-887.15</v>
+        <v>2468.02</v>
       </c>
       <c r="M116">
-        <v>-887.15</v>
+        <v>2468.02</v>
       </c>
       <c r="N116">
-        <v>-887.15</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14">
+        <v>2468.02</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>44243</v>
+        <v>44249</v>
       </c>
       <c r="B117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C117" t="s">
         <v>21</v>
       </c>
       <c r="D117" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E117">
-        <v>3844730</v>
+        <v>11114004</v>
       </c>
       <c r="F117" t="s">
         <v>17</v>
       </c>
       <c r="G117" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H117" t="s">
         <v>19</v>
       </c>
       <c r="I117">
-        <v>1949053395</v>
+        <v>1955055490</v>
       </c>
       <c r="J117">
-        <v>-109</v>
+        <v>18</v>
       </c>
       <c r="K117">
-        <v>8.99</v>
+        <v>51.2</v>
       </c>
       <c r="L117">
-        <v>977.41</v>
+        <v>-924.1</v>
       </c>
       <c r="M117">
-        <v>977.41</v>
+        <v>-924.1</v>
       </c>
       <c r="N117">
-        <v>977.41</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14">
+        <v>-924.1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>44244</v>
+        <v>44249</v>
       </c>
       <c r="B118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C118" t="s">
         <v>21</v>
       </c>
       <c r="D118" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E118">
-        <v>25345</v>
+        <v>11114004</v>
       </c>
       <c r="F118" t="s">
         <v>17</v>
       </c>
       <c r="G118" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H118" t="s">
         <v>19</v>
       </c>
       <c r="I118">
-        <v>1951152110</v>
+        <v>1955242702</v>
       </c>
       <c r="J118">
-        <v>1300</v>
+        <v>-18</v>
       </c>
       <c r="K118">
-        <v>2.08</v>
+        <v>49.8</v>
       </c>
       <c r="L118">
-        <v>-2710.3</v>
+        <v>893.9</v>
       </c>
       <c r="M118">
-        <v>-2710.3</v>
+        <v>893.9</v>
       </c>
       <c r="N118">
-        <v>-2710.3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14">
+        <v>893.9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>44244</v>
+        <v>44252</v>
       </c>
       <c r="B119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C119" t="s">
         <v>21</v>
       </c>
       <c r="D119" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E119">
-        <v>1242522</v>
+        <v>2159003</v>
       </c>
       <c r="F119" t="s">
         <v>17</v>
       </c>
       <c r="G119" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H119" t="s">
         <v>19</v>
       </c>
       <c r="I119">
-        <v>1951252232</v>
+        <v>1959258108</v>
       </c>
       <c r="J119">
-        <v>-120</v>
+        <v>688</v>
       </c>
       <c r="K119">
-        <v>7.45</v>
+        <v>1.37</v>
       </c>
       <c r="L119">
-        <v>890.9</v>
+        <v>-942.31</v>
       </c>
       <c r="M119">
-        <v>890.9</v>
+        <v>-942.31</v>
       </c>
       <c r="N119">
-        <v>890.9</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14">
+        <v>-942.31</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>44245</v>
+        <v>44252</v>
       </c>
       <c r="B120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C120" t="s">
         <v>21</v>
       </c>
       <c r="D120" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E120">
-        <v>49439</v>
+        <v>8820998</v>
       </c>
       <c r="F120" t="s">
         <v>17</v>
       </c>
       <c r="G120" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H120" t="s">
         <v>19</v>
       </c>
       <c r="I120">
-        <v>1952108311</v>
+        <v>1959480841</v>
       </c>
       <c r="J120">
-        <v>-15000</v>
+        <v>61</v>
       </c>
       <c r="K120">
-        <v>0.16</v>
+        <v>14.85</v>
       </c>
       <c r="L120">
-        <v>2468.02</v>
+        <v>-908.35</v>
       </c>
       <c r="M120">
-        <v>2468.02</v>
+        <v>-908.35</v>
       </c>
       <c r="N120">
-        <v>2468.02</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14">
+        <v>-908.35</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>44249</v>
+        <v>44252</v>
       </c>
       <c r="B121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C121" t="s">
         <v>21</v>
       </c>
       <c r="D121" t="s">
+        <v>58</v>
+      </c>
+      <c r="E121">
+        <v>12768</v>
+      </c>
+      <c r="F121" t="s">
+        <v>17</v>
+      </c>
+      <c r="G121" t="s">
+        <v>18</v>
+      </c>
+      <c r="H121" t="s">
+        <v>19</v>
+      </c>
+      <c r="I121">
+        <v>1959515938</v>
+      </c>
+      <c r="J121">
         <v>54</v>
       </c>
-      <c r="E121">
-        <v>11114004</v>
-      </c>
-      <c r="F121" t="s">
-        <v>17</v>
-      </c>
-      <c r="G121" t="s">
-        <v>18</v>
-      </c>
-      <c r="H121" t="s">
-        <v>19</v>
-      </c>
-      <c r="I121">
-        <v>1955055490</v>
-      </c>
-      <c r="J121">
-        <v>18</v>
-      </c>
       <c r="K121">
-        <v>51.2</v>
+        <v>16.82</v>
       </c>
       <c r="L121">
-        <v>-924.1</v>
+        <v>-913.5</v>
       </c>
       <c r="M121">
-        <v>-924.1</v>
+        <v>-913.5</v>
       </c>
       <c r="N121">
-        <v>-924.1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14">
+        <v>-913.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>44249</v>
+        <v>44253</v>
       </c>
       <c r="B122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C122" t="s">
         <v>21</v>
       </c>
       <c r="D122" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E122">
-        <v>11114004</v>
+        <v>52312</v>
       </c>
       <c r="F122" t="s">
         <v>17</v>
       </c>
       <c r="G122" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H122" t="s">
         <v>19</v>
       </c>
       <c r="I122">
-        <v>1955242702</v>
+        <v>1961241819</v>
       </c>
       <c r="J122">
-        <v>-18</v>
+        <v>33</v>
       </c>
       <c r="K122">
-        <v>49.8</v>
+        <v>27.2</v>
       </c>
       <c r="L122">
-        <v>893.9</v>
+        <v>-900.1</v>
       </c>
       <c r="M122">
-        <v>893.9</v>
+        <v>-900.1</v>
       </c>
       <c r="N122">
-        <v>893.9</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14">
+        <v>-900.1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>44252</v>
+        <v>44253</v>
       </c>
       <c r="B123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C123" t="s">
         <v>21</v>
       </c>
       <c r="D123" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E123">
-        <v>2159003</v>
+        <v>32220</v>
       </c>
       <c r="F123" t="s">
         <v>17</v>
@@ -5723,39 +5985,39 @@
         <v>19</v>
       </c>
       <c r="I123">
-        <v>1959258108</v>
+        <v>1961554237</v>
       </c>
       <c r="J123">
-        <v>688</v>
+        <v>10</v>
       </c>
       <c r="K123">
-        <v>1.37</v>
+        <v>89.2</v>
       </c>
       <c r="L123">
-        <v>-942.31</v>
+        <v>-894.5</v>
       </c>
       <c r="M123">
-        <v>-942.31</v>
+        <v>-894.5</v>
       </c>
       <c r="N123">
-        <v>-942.31</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14">
+        <v>-894.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>44252</v>
+        <v>44256</v>
       </c>
       <c r="B124" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C124" t="s">
         <v>21</v>
       </c>
       <c r="D124" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E124">
-        <v>8820998</v>
+        <v>12768</v>
       </c>
       <c r="F124" t="s">
         <v>17</v>
@@ -5767,83 +6029,83 @@
         <v>19</v>
       </c>
       <c r="I124">
-        <v>1959480841</v>
+        <v>1962796726</v>
       </c>
       <c r="J124">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="K124">
-        <v>14.85</v>
+        <v>17.059999999999999</v>
       </c>
       <c r="L124">
-        <v>-908.35</v>
+        <v>-926.5</v>
       </c>
       <c r="M124">
-        <v>-908.35</v>
+        <v>-926.5</v>
       </c>
       <c r="N124">
-        <v>-908.35</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14">
+        <v>-926.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>44252</v>
+        <v>44256</v>
       </c>
       <c r="B125" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C125" t="s">
         <v>21</v>
       </c>
       <c r="D125" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E125">
-        <v>12768</v>
+        <v>25345</v>
       </c>
       <c r="F125" t="s">
         <v>17</v>
       </c>
       <c r="G125" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H125" t="s">
         <v>19</v>
       </c>
       <c r="I125">
-        <v>1959515938</v>
+        <v>1962825930</v>
       </c>
       <c r="J125">
-        <v>54</v>
+        <v>-1450</v>
       </c>
       <c r="K125">
-        <v>16.82</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="L125">
-        <v>-913.5</v>
+        <v>2989.25</v>
       </c>
       <c r="M125">
-        <v>-913.5</v>
+        <v>2989.25</v>
       </c>
       <c r="N125">
-        <v>-913.5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14">
+        <v>2989.25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>44253</v>
+        <v>44256</v>
       </c>
       <c r="B126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C126" t="s">
         <v>21</v>
       </c>
       <c r="D126" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E126">
-        <v>52312</v>
+        <v>339393</v>
       </c>
       <c r="F126" t="s">
         <v>17</v>
@@ -5855,39 +6117,39 @@
         <v>19</v>
       </c>
       <c r="I126">
-        <v>1961241819</v>
+        <v>1962826904</v>
       </c>
       <c r="J126">
-        <v>33</v>
+        <v>920</v>
       </c>
       <c r="K126">
-        <v>27.2</v>
+        <v>1</v>
       </c>
       <c r="L126">
-        <v>-900.1</v>
+        <v>-922.13</v>
       </c>
       <c r="M126">
-        <v>-900.1</v>
+        <v>-922.13</v>
       </c>
       <c r="N126">
-        <v>-900.1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14">
+        <v>-922.13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>44253</v>
+        <v>44256</v>
       </c>
       <c r="B127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C127" t="s">
         <v>21</v>
       </c>
       <c r="D127" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E127">
-        <v>32220</v>
+        <v>13110</v>
       </c>
       <c r="F127" t="s">
         <v>17</v>
@@ -5899,39 +6161,39 @@
         <v>19</v>
       </c>
       <c r="I127">
-        <v>1961554237</v>
+        <v>1962830559</v>
       </c>
       <c r="J127">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="K127">
-        <v>89.2</v>
+        <v>47.7</v>
       </c>
       <c r="L127">
-        <v>-894.5</v>
+        <v>-911.52</v>
       </c>
       <c r="M127">
-        <v>-894.5</v>
+        <v>-911.52</v>
       </c>
       <c r="N127">
-        <v>-894.5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14">
+        <v>-911.52</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>44256</v>
+        <v>44258</v>
       </c>
       <c r="B128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C128" t="s">
         <v>21</v>
       </c>
       <c r="D128" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E128">
-        <v>12768</v>
+        <v>339393</v>
       </c>
       <c r="F128" t="s">
         <v>17</v>
@@ -5943,36 +6205,36 @@
         <v>19</v>
       </c>
       <c r="I128">
-        <v>1962796726</v>
+        <v>1965437024</v>
       </c>
       <c r="J128">
-        <v>54</v>
+        <v>907</v>
       </c>
       <c r="K128">
-        <v>17.06</v>
+        <v>1.01</v>
       </c>
       <c r="L128">
-        <v>-926.5</v>
+        <v>-921.74</v>
       </c>
       <c r="M128">
-        <v>-926.5</v>
+        <v>-921.74</v>
       </c>
       <c r="N128">
-        <v>-926.5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
+        <v>-921.74</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>44256</v>
+        <v>44258</v>
       </c>
       <c r="B129" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C129" t="s">
         <v>21</v>
       </c>
       <c r="D129" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E129">
         <v>25345</v>
@@ -5987,39 +6249,39 @@
         <v>19</v>
       </c>
       <c r="I129">
-        <v>1962825930</v>
+        <v>1965467508</v>
       </c>
       <c r="J129">
         <v>-1450</v>
       </c>
       <c r="K129">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="L129">
-        <v>2989.25</v>
+        <v>2925.45</v>
       </c>
       <c r="M129">
-        <v>2989.25</v>
+        <v>2925.45</v>
       </c>
       <c r="N129">
-        <v>2989.25</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+        <v>2925.45</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>44256</v>
+        <v>44258</v>
       </c>
       <c r="B130" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C130" t="s">
         <v>21</v>
       </c>
       <c r="D130" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E130">
-        <v>339393</v>
+        <v>10961403</v>
       </c>
       <c r="F130" t="s">
         <v>17</v>
@@ -6031,215 +6293,215 @@
         <v>19</v>
       </c>
       <c r="I130">
-        <v>1962826904</v>
+        <v>1965538011</v>
       </c>
       <c r="J130">
-        <v>920</v>
+        <v>200</v>
       </c>
       <c r="K130">
-        <v>1</v>
+        <v>3.54</v>
       </c>
       <c r="L130">
-        <v>-922.13</v>
+        <v>-709.5</v>
       </c>
       <c r="M130">
-        <v>-922.13</v>
+        <v>-709.5</v>
       </c>
       <c r="N130">
-        <v>-922.13</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+        <v>-709.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>44256</v>
+        <v>44258</v>
       </c>
       <c r="B131" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C131" t="s">
         <v>21</v>
       </c>
       <c r="D131" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E131">
-        <v>13110</v>
+        <v>2159003</v>
       </c>
       <c r="F131" t="s">
         <v>17</v>
       </c>
       <c r="G131" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H131" t="s">
         <v>19</v>
       </c>
       <c r="I131">
-        <v>1962830559</v>
+        <v>1965746543</v>
       </c>
       <c r="J131">
-        <v>19</v>
+        <v>-688</v>
       </c>
       <c r="K131">
-        <v>47.7</v>
+        <v>1.26</v>
       </c>
       <c r="L131">
-        <v>-911.52</v>
+        <v>865.76</v>
       </c>
       <c r="M131">
-        <v>-911.52</v>
+        <v>865.76</v>
       </c>
       <c r="N131">
-        <v>-911.52</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+        <v>865.76</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>44258</v>
+        <v>44260</v>
       </c>
       <c r="B132" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C132" t="s">
         <v>21</v>
       </c>
       <c r="D132" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E132">
-        <v>339393</v>
+        <v>8820998</v>
       </c>
       <c r="F132" t="s">
         <v>17</v>
       </c>
       <c r="G132" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H132" t="s">
         <v>19</v>
       </c>
       <c r="I132">
-        <v>1965437024</v>
+        <v>1968864033</v>
       </c>
       <c r="J132">
-        <v>907</v>
+        <v>-61</v>
       </c>
       <c r="K132">
-        <v>1.01</v>
+        <v>13.55</v>
       </c>
       <c r="L132">
-        <v>-921.74</v>
+        <v>824.05</v>
       </c>
       <c r="M132">
-        <v>-921.74</v>
+        <v>824.05</v>
       </c>
       <c r="N132">
-        <v>-921.74</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+        <v>824.05</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>44258</v>
+        <v>44263</v>
       </c>
       <c r="B133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C133" t="s">
         <v>21</v>
       </c>
       <c r="D133" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E133">
-        <v>25345</v>
+        <v>13110</v>
       </c>
       <c r="F133" t="s">
         <v>17</v>
       </c>
       <c r="G133" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H133" t="s">
         <v>19</v>
       </c>
       <c r="I133">
-        <v>1965467508</v>
+        <v>1970616107</v>
       </c>
       <c r="J133">
-        <v>-1450</v>
+        <v>18</v>
       </c>
       <c r="K133">
-        <v>2.02</v>
+        <v>49.08</v>
       </c>
       <c r="L133">
-        <v>2925.45</v>
+        <v>-888.59</v>
       </c>
       <c r="M133">
-        <v>2925.45</v>
+        <v>-888.59</v>
       </c>
       <c r="N133">
-        <v>2925.45</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
+        <v>-888.59</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>44258</v>
+        <v>44263</v>
       </c>
       <c r="B134" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C134" t="s">
         <v>21</v>
       </c>
       <c r="D134" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E134">
-        <v>10961403</v>
+        <v>25345</v>
       </c>
       <c r="F134" t="s">
         <v>17</v>
       </c>
       <c r="G134" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H134" t="s">
         <v>19</v>
       </c>
       <c r="I134">
-        <v>1965538011</v>
+        <v>1971421168</v>
       </c>
       <c r="J134">
-        <v>200</v>
+        <v>-1100</v>
       </c>
       <c r="K134">
-        <v>3.54</v>
+        <v>1.98</v>
       </c>
       <c r="L134">
-        <v>-709.5</v>
+        <v>2176.7399999999998</v>
       </c>
       <c r="M134">
-        <v>-709.5</v>
+        <v>2176.7399999999998</v>
       </c>
       <c r="N134">
-        <v>-709.5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+        <v>2176.7399999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>44258</v>
+        <v>44264</v>
       </c>
       <c r="B135" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C135" t="s">
         <v>21</v>
       </c>
       <c r="D135" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E135">
-        <v>2159003</v>
+        <v>10961403</v>
       </c>
       <c r="F135" t="s">
         <v>17</v>
@@ -6251,83 +6513,83 @@
         <v>19</v>
       </c>
       <c r="I135">
-        <v>1965746543</v>
+        <v>1972887370</v>
       </c>
       <c r="J135">
-        <v>-688</v>
+        <v>-200</v>
       </c>
       <c r="K135">
-        <v>1.26</v>
+        <v>3.19</v>
       </c>
       <c r="L135">
-        <v>865.76</v>
+        <v>634.5</v>
       </c>
       <c r="M135">
-        <v>865.76</v>
+        <v>634.5</v>
       </c>
       <c r="N135">
-        <v>865.76</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+        <v>634.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>44260</v>
+        <v>44265</v>
       </c>
       <c r="B136" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C136" t="s">
         <v>21</v>
       </c>
       <c r="D136" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="E136">
-        <v>8820998</v>
+        <v>23919</v>
       </c>
       <c r="F136" t="s">
         <v>17</v>
       </c>
       <c r="G136" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H136" t="s">
         <v>19</v>
       </c>
       <c r="I136">
-        <v>1968864033</v>
+        <v>1973816510</v>
       </c>
       <c r="J136">
-        <v>-61</v>
+        <v>240</v>
       </c>
       <c r="K136">
-        <v>13.55</v>
+        <v>3.8</v>
       </c>
       <c r="L136">
-        <v>824.05</v>
+        <v>-914.5</v>
       </c>
       <c r="M136">
-        <v>824.05</v>
+        <v>-914.5</v>
       </c>
       <c r="N136">
-        <v>824.05</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+        <v>-914.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>44263</v>
+        <v>44266</v>
       </c>
       <c r="B137" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C137" t="s">
         <v>21</v>
       </c>
       <c r="D137" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E137">
-        <v>13110</v>
+        <v>112808</v>
       </c>
       <c r="F137" t="s">
         <v>17</v>
@@ -6339,215 +6601,215 @@
         <v>19</v>
       </c>
       <c r="I137">
-        <v>1970616107</v>
+        <v>1975264151</v>
       </c>
       <c r="J137">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="K137">
-        <v>49.08</v>
+        <v>14.62</v>
       </c>
       <c r="L137">
-        <v>-888.59</v>
+        <v>-940.99</v>
       </c>
       <c r="M137">
-        <v>-888.59</v>
+        <v>-940.99</v>
       </c>
       <c r="N137">
-        <v>-888.59</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
+        <v>-940.99</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>44263</v>
+        <v>44271</v>
       </c>
       <c r="B138" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C138" t="s">
         <v>21</v>
       </c>
       <c r="D138" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E138">
-        <v>25345</v>
+        <v>49439</v>
       </c>
       <c r="F138" t="s">
         <v>17</v>
       </c>
       <c r="G138" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H138" t="s">
         <v>19</v>
       </c>
       <c r="I138">
-        <v>1971421168</v>
+        <v>1978814398</v>
       </c>
       <c r="J138">
-        <v>-1100</v>
+        <v>4700</v>
       </c>
       <c r="K138">
-        <v>1.98</v>
+        <v>0.19</v>
       </c>
       <c r="L138">
-        <v>2176.74</v>
+        <v>-904.9</v>
       </c>
       <c r="M138">
-        <v>2176.74</v>
+        <v>-904.9</v>
       </c>
       <c r="N138">
-        <v>2176.74</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
+        <v>-904.9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>44264</v>
+        <v>44271</v>
       </c>
       <c r="B139" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C139" t="s">
         <v>21</v>
       </c>
       <c r="D139" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E139">
-        <v>10961403</v>
+        <v>339393</v>
       </c>
       <c r="F139" t="s">
         <v>17</v>
       </c>
       <c r="G139" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H139" t="s">
         <v>19</v>
       </c>
       <c r="I139">
-        <v>1972887370</v>
+        <v>1979332444</v>
       </c>
       <c r="J139">
-        <v>-200</v>
+        <v>900</v>
       </c>
       <c r="K139">
-        <v>3.19</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L139">
-        <v>634.5</v>
+        <v>-1000.6</v>
       </c>
       <c r="M139">
-        <v>634.5</v>
+        <v>-1000.6</v>
       </c>
       <c r="N139">
-        <v>634.5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+        <v>-1000.6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>44265</v>
+        <v>44273</v>
       </c>
       <c r="B140" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C140" t="s">
         <v>21</v>
       </c>
       <c r="D140" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E140">
-        <v>23919</v>
+        <v>339393</v>
       </c>
       <c r="F140" t="s">
         <v>17</v>
       </c>
       <c r="G140" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H140" t="s">
         <v>19</v>
       </c>
       <c r="I140">
-        <v>1973816510</v>
+        <v>1981289704</v>
       </c>
       <c r="J140">
-        <v>240</v>
+        <v>-850</v>
       </c>
       <c r="K140">
-        <v>3.8</v>
+        <v>1.18</v>
       </c>
       <c r="L140">
-        <v>-914.5</v>
+        <v>997.1</v>
       </c>
       <c r="M140">
-        <v>-914.5</v>
+        <v>997.1</v>
       </c>
       <c r="N140">
-        <v>-914.5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+        <v>997.1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>44266</v>
+        <v>44278</v>
       </c>
       <c r="B141" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C141" t="s">
         <v>21</v>
       </c>
       <c r="D141" t="s">
+        <v>60</v>
+      </c>
+      <c r="E141">
+        <v>32220</v>
+      </c>
+      <c r="F141" t="s">
+        <v>17</v>
+      </c>
+      <c r="G141" t="s">
+        <v>20</v>
+      </c>
+      <c r="H141" t="s">
+        <v>19</v>
+      </c>
+      <c r="I141">
+        <v>1984784257</v>
+      </c>
+      <c r="J141">
+        <v>-10</v>
+      </c>
+      <c r="K141">
+        <v>84.3</v>
+      </c>
+      <c r="L141">
+        <v>840.5</v>
+      </c>
+      <c r="M141">
+        <v>840.5</v>
+      </c>
+      <c r="N141">
+        <v>840.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>44279</v>
+      </c>
+      <c r="B142" t="s">
         <v>48</v>
-      </c>
-      <c r="E141">
-        <v>112808</v>
-      </c>
-      <c r="F141" t="s">
-        <v>17</v>
-      </c>
-      <c r="G141" t="s">
-        <v>18</v>
-      </c>
-      <c r="H141" t="s">
-        <v>19</v>
-      </c>
-      <c r="I141">
-        <v>1975264151</v>
-      </c>
-      <c r="J141">
-        <v>64</v>
-      </c>
-      <c r="K141">
-        <v>14.62</v>
-      </c>
-      <c r="L141">
-        <v>-940.99</v>
-      </c>
-      <c r="M141">
-        <v>-940.99</v>
-      </c>
-      <c r="N141">
-        <v>-940.99</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
-      <c r="A142" s="1">
-        <v>44271</v>
-      </c>
-      <c r="B142" t="s">
-        <v>47</v>
       </c>
       <c r="C142" t="s">
         <v>21</v>
       </c>
       <c r="D142" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E142">
-        <v>49439</v>
+        <v>112808</v>
       </c>
       <c r="F142" t="s">
         <v>17</v>
@@ -6559,379 +6821,203 @@
         <v>19</v>
       </c>
       <c r="I142">
-        <v>1978814398</v>
+        <v>1985941417</v>
       </c>
       <c r="J142">
-        <v>4700</v>
+        <v>64</v>
       </c>
       <c r="K142">
-        <v>0.19</v>
+        <v>14.87</v>
       </c>
       <c r="L142">
-        <v>-904.9</v>
+        <v>-957.04</v>
       </c>
       <c r="M142">
-        <v>-904.9</v>
+        <v>-957.04</v>
       </c>
       <c r="N142">
-        <v>-904.9</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
+        <v>-957.04</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>44271</v>
+        <v>44281</v>
       </c>
       <c r="B143" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C143" t="s">
         <v>21</v>
       </c>
       <c r="D143" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="E143">
-        <v>339393</v>
+        <v>49439</v>
       </c>
       <c r="F143" t="s">
         <v>17</v>
       </c>
       <c r="G143" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H143" t="s">
         <v>19</v>
       </c>
       <c r="I143">
-        <v>1979332444</v>
+        <v>1988545319</v>
       </c>
       <c r="J143">
-        <v>900</v>
+        <v>-4700</v>
       </c>
       <c r="K143">
-        <v>1.11</v>
+        <v>0.17</v>
       </c>
       <c r="L143">
-        <v>-1000.6</v>
+        <v>787.1</v>
       </c>
       <c r="M143">
-        <v>-1000.6</v>
+        <v>787.1</v>
       </c>
       <c r="N143">
-        <v>-1000.6</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
+        <v>787.1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>44273</v>
+        <v>44281</v>
       </c>
       <c r="B144" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C144" t="s">
         <v>21</v>
       </c>
       <c r="D144" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E144">
-        <v>339393</v>
+        <v>8704739</v>
       </c>
       <c r="F144" t="s">
         <v>17</v>
       </c>
       <c r="G144" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H144" t="s">
         <v>19</v>
       </c>
       <c r="I144">
-        <v>1981289704</v>
+        <v>1988671724</v>
       </c>
       <c r="J144">
-        <v>-850</v>
+        <v>560</v>
       </c>
       <c r="K144">
-        <v>1.18</v>
+        <v>1.64</v>
       </c>
       <c r="L144">
-        <v>997.1</v>
+        <v>-920.9</v>
       </c>
       <c r="M144">
-        <v>997.1</v>
+        <v>-920.9</v>
       </c>
       <c r="N144">
-        <v>997.1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
+        <v>-920.9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>44278</v>
+        <v>44284</v>
       </c>
       <c r="B145" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C145" t="s">
         <v>21</v>
       </c>
       <c r="D145" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E145">
-        <v>32220</v>
+        <v>12624</v>
       </c>
       <c r="F145" t="s">
         <v>17</v>
       </c>
       <c r="G145" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H145" t="s">
         <v>19</v>
       </c>
       <c r="I145">
-        <v>1984784257</v>
+        <v>1989869640</v>
       </c>
       <c r="J145">
-        <v>-10</v>
+        <v>58</v>
       </c>
       <c r="K145">
-        <v>84.3</v>
+        <v>16.36</v>
       </c>
       <c r="L145">
-        <v>840.5</v>
+        <v>-954.23</v>
       </c>
       <c r="M145">
-        <v>840.5</v>
+        <v>-954.23</v>
       </c>
       <c r="N145">
-        <v>840.5</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
+        <v>-954.23</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>44279</v>
+        <v>44285</v>
       </c>
       <c r="B146" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C146" t="s">
         <v>21</v>
       </c>
       <c r="D146" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E146">
-        <v>112808</v>
+        <v>8704739</v>
       </c>
       <c r="F146" t="s">
         <v>17</v>
       </c>
       <c r="G146" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H146" t="s">
         <v>19</v>
       </c>
       <c r="I146">
-        <v>1985941417</v>
+        <v>1990695330</v>
       </c>
       <c r="J146">
-        <v>64</v>
+        <v>-560</v>
       </c>
       <c r="K146">
-        <v>14.87</v>
+        <v>1.77</v>
       </c>
       <c r="L146">
-        <v>-957.04</v>
+        <v>988.7</v>
       </c>
       <c r="M146">
-        <v>-957.04</v>
+        <v>988.7</v>
       </c>
       <c r="N146">
-        <v>-957.04</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
-      <c r="A147" s="1">
-        <v>44281</v>
-      </c>
-      <c r="B147" t="s">
-        <v>47</v>
-      </c>
-      <c r="C147" t="s">
-        <v>21</v>
-      </c>
-      <c r="D147" t="s">
-        <v>29</v>
-      </c>
-      <c r="E147">
-        <v>49439</v>
-      </c>
-      <c r="F147" t="s">
-        <v>17</v>
-      </c>
-      <c r="G147" t="s">
-        <v>20</v>
-      </c>
-      <c r="H147" t="s">
-        <v>19</v>
-      </c>
-      <c r="I147">
-        <v>1988545319</v>
-      </c>
-      <c r="J147">
-        <v>-4700</v>
-      </c>
-      <c r="K147">
-        <v>0.17</v>
-      </c>
-      <c r="L147">
-        <v>787.1</v>
-      </c>
-      <c r="M147">
-        <v>787.1</v>
-      </c>
-      <c r="N147">
-        <v>787.1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
-      <c r="A148" s="1">
-        <v>44281</v>
-      </c>
-      <c r="B148" t="s">
-        <v>47</v>
-      </c>
-      <c r="C148" t="s">
-        <v>21</v>
-      </c>
-      <c r="D148" t="s">
-        <v>63</v>
-      </c>
-      <c r="E148">
-        <v>8704739</v>
-      </c>
-      <c r="F148" t="s">
-        <v>17</v>
-      </c>
-      <c r="G148" t="s">
-        <v>18</v>
-      </c>
-      <c r="H148" t="s">
-        <v>19</v>
-      </c>
-      <c r="I148">
-        <v>1988671724</v>
-      </c>
-      <c r="J148">
-        <v>560</v>
-      </c>
-      <c r="K148">
-        <v>1.64</v>
-      </c>
-      <c r="L148">
-        <v>-920.9</v>
-      </c>
-      <c r="M148">
-        <v>-920.9</v>
-      </c>
-      <c r="N148">
-        <v>-920.9</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
-      <c r="A149" s="1">
-        <v>44284</v>
-      </c>
-      <c r="B149" t="s">
-        <v>47</v>
-      </c>
-      <c r="C149" t="s">
-        <v>21</v>
-      </c>
-      <c r="D149" t="s">
-        <v>64</v>
-      </c>
-      <c r="E149">
-        <v>12624</v>
-      </c>
-      <c r="F149" t="s">
-        <v>17</v>
-      </c>
-      <c r="G149" t="s">
-        <v>18</v>
-      </c>
-      <c r="H149" t="s">
-        <v>19</v>
-      </c>
-      <c r="I149">
-        <v>1989869640</v>
-      </c>
-      <c r="J149">
-        <v>58</v>
-      </c>
-      <c r="K149">
-        <v>16.36</v>
-      </c>
-      <c r="L149">
-        <v>-954.23</v>
-      </c>
-      <c r="M149">
-        <v>-954.23</v>
-      </c>
-      <c r="N149">
-        <v>-954.23</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
-      <c r="A150" s="1">
-        <v>44285</v>
-      </c>
-      <c r="B150" t="s">
-        <v>47</v>
-      </c>
-      <c r="C150" t="s">
-        <v>21</v>
-      </c>
-      <c r="D150" t="s">
-        <v>63</v>
-      </c>
-      <c r="E150">
-        <v>8704739</v>
-      </c>
-      <c r="F150" t="s">
-        <v>17</v>
-      </c>
-      <c r="G150" t="s">
-        <v>20</v>
-      </c>
-      <c r="H150" t="s">
-        <v>19</v>
-      </c>
-      <c r="I150">
-        <v>1990695330</v>
-      </c>
-      <c r="J150">
-        <v>-560</v>
-      </c>
-      <c r="K150">
-        <v>1.77</v>
-      </c>
-      <c r="L150">
-        <v>988.7</v>
-      </c>
-      <c r="M150">
-        <v>988.7</v>
-      </c>
-      <c r="N150">
         <v>988.7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
-  <extLst/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/Portfolio/Transactions_2021_Q1.xlsx
+++ b/Portfolio/Transactions_2021_Q1.xlsx
@@ -1,29 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r395930\AppData\Roaming\UltimateChartistRoot\Portfolio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\AppData\Roaming\UltimateChartistRoot\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDE5806-53A5-4222-81DF-1CE0EDD60758}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{283205AA-D36B-48B7-A36B-C97E7D79139C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22695" yWindow="3390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Transactions!$A$1:$N$146</definedName>
-  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="67">
   <si>
     <t>Trade Date</t>
   </si>
@@ -89,6 +86,9 @@
   </si>
   <si>
     <t>Stock</t>
+  </si>
+  <si>
+    <t>Lyxor S&amp;P 500 Daily (-2x) Inverse UCITS ETF</t>
   </si>
   <si>
     <t>Turbo</t>
@@ -570,11 +570,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N146"/>
+  <dimension ref="A1:N153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -772,90 +770,90 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44202</v>
+        <v>44201</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>20187713</v>
+        <v>3853478</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
         <v>19</v>
       </c>
       <c r="I5">
-        <v>1908695831</v>
+        <v>1907288257</v>
       </c>
       <c r="J5">
-        <v>-100</v>
+        <v>76</v>
       </c>
       <c r="K5">
-        <v>4.49</v>
+        <v>13.05</v>
       </c>
       <c r="L5">
-        <v>446.6</v>
+        <v>-994.53</v>
       </c>
       <c r="M5">
-        <v>446.6</v>
+        <v>-994.53</v>
       </c>
       <c r="N5">
-        <v>446.6</v>
+        <v>-994.53</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44209</v>
+        <v>44202</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E6">
-        <v>20379234</v>
+        <v>20187713</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
         <v>19</v>
       </c>
       <c r="I6">
-        <v>1915485428</v>
+        <v>1908695831</v>
       </c>
       <c r="J6">
-        <v>80</v>
+        <v>-100</v>
       </c>
       <c r="K6">
-        <v>7</v>
+        <v>4.49</v>
       </c>
       <c r="L6">
-        <v>-562.5</v>
+        <v>446.6</v>
       </c>
       <c r="M6">
-        <v>-562.5</v>
+        <v>446.6</v>
       </c>
       <c r="N6">
-        <v>-562.5</v>
+        <v>446.6</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -866,13 +864,13 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>20187713</v>
+        <v>20379234</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -884,39 +882,39 @@
         <v>19</v>
       </c>
       <c r="I7">
-        <v>1915933873</v>
+        <v>1915485428</v>
       </c>
       <c r="J7">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="K7">
-        <v>1.81</v>
+        <v>7</v>
       </c>
       <c r="L7">
-        <v>-545.79999999999995</v>
+        <v>-562.5</v>
       </c>
       <c r="M7">
-        <v>-545.79999999999995</v>
+        <v>-562.5</v>
       </c>
       <c r="N7">
-        <v>-545.79999999999995</v>
+        <v>-562.5</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44216</v>
+        <v>44209</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E8">
-        <v>20379234</v>
+        <v>20187713</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -928,127 +926,127 @@
         <v>19</v>
       </c>
       <c r="I8">
-        <v>1921810949</v>
+        <v>1915933873</v>
       </c>
       <c r="J8">
-        <v>120</v>
+        <v>300</v>
       </c>
       <c r="K8">
-        <v>4.59</v>
+        <v>1.81</v>
       </c>
       <c r="L8">
-        <v>-553.29999999999995</v>
+        <v>-545.79999999999995</v>
       </c>
       <c r="M8">
-        <v>-553.29999999999995</v>
+        <v>-545.79999999999995</v>
       </c>
       <c r="N8">
-        <v>-553.29999999999995</v>
+        <v>-545.79999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>18430232</v>
+        <v>3853478</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
         <v>19</v>
       </c>
       <c r="I9">
-        <v>1922809253</v>
+        <v>1921674778</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>-76</v>
       </c>
       <c r="K9">
-        <v>58.29</v>
+        <v>12.31</v>
       </c>
       <c r="L9">
-        <v>-352.24</v>
+        <v>933.14</v>
       </c>
       <c r="M9">
-        <v>-352.24</v>
+        <v>933.14</v>
       </c>
       <c r="N9">
-        <v>-352.24</v>
+        <v>933.14</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44218</v>
+        <v>44216</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
       </c>
       <c r="E10">
-        <v>18430232</v>
+        <v>20379234</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
         <v>19</v>
       </c>
       <c r="I10">
-        <v>1923998400</v>
+        <v>1921810949</v>
       </c>
       <c r="J10">
-        <v>-6</v>
+        <v>120</v>
       </c>
       <c r="K10">
-        <v>55.77</v>
+        <v>4.59</v>
       </c>
       <c r="L10">
-        <v>332.12</v>
+        <v>-553.29999999999995</v>
       </c>
       <c r="M10">
-        <v>332.12</v>
+        <v>-553.29999999999995</v>
       </c>
       <c r="N10">
-        <v>332.12</v>
+        <v>-553.29999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44218</v>
+        <v>44217</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>20379234</v>
+        <v>18430232</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
@@ -1060,27 +1058,27 @@
         <v>19</v>
       </c>
       <c r="I11">
-        <v>1924311151</v>
+        <v>1922809253</v>
       </c>
       <c r="J11">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="K11">
-        <v>3.32</v>
+        <v>58.29</v>
       </c>
       <c r="L11">
-        <v>-334.5</v>
+        <v>-352.24</v>
       </c>
       <c r="M11">
-        <v>-334.5</v>
+        <v>-352.24</v>
       </c>
       <c r="N11">
-        <v>-334.5</v>
+        <v>-352.24</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44221</v>
+        <v>44218</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -1089,10 +1087,10 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E12">
-        <v>20187713</v>
+        <v>18430232</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -1104,36 +1102,36 @@
         <v>19</v>
       </c>
       <c r="I12">
-        <v>1925558866</v>
+        <v>1923998400</v>
       </c>
       <c r="J12">
-        <v>-300</v>
+        <v>-6</v>
       </c>
       <c r="K12">
-        <v>1.62</v>
+        <v>55.77</v>
       </c>
       <c r="L12">
-        <v>484.1</v>
+        <v>332.12</v>
       </c>
       <c r="M12">
-        <v>484.1</v>
+        <v>332.12</v>
       </c>
       <c r="N12">
-        <v>484.1</v>
+        <v>332.12</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44221</v>
+        <v>44218</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>20379234</v>
@@ -1148,22 +1146,22 @@
         <v>19</v>
       </c>
       <c r="I13">
-        <v>1925570519</v>
+        <v>1924311151</v>
       </c>
       <c r="J13">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="K13">
-        <v>2.0099999999999998</v>
+        <v>3.32</v>
       </c>
       <c r="L13">
-        <v>-505</v>
+        <v>-334.5</v>
       </c>
       <c r="M13">
-        <v>-505</v>
+        <v>-334.5</v>
       </c>
       <c r="N13">
-        <v>-505</v>
+        <v>-334.5</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1174,13 +1172,13 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E14">
-        <v>20379234</v>
+        <v>20187713</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -1192,39 +1190,39 @@
         <v>19</v>
       </c>
       <c r="I14">
-        <v>1925951686</v>
+        <v>1925558866</v>
       </c>
       <c r="J14">
-        <v>-250</v>
+        <v>-300</v>
       </c>
       <c r="K14">
-        <v>3.68</v>
+        <v>1.62</v>
       </c>
       <c r="L14">
-        <v>917.5</v>
+        <v>484.1</v>
       </c>
       <c r="M14">
-        <v>917.5</v>
+        <v>484.1</v>
       </c>
       <c r="N14">
-        <v>917.5</v>
+        <v>484.1</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44223</v>
+        <v>44221</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>20187713</v>
+        <v>20379234</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
@@ -1236,36 +1234,36 @@
         <v>19</v>
       </c>
       <c r="I15">
-        <v>1928513133</v>
+        <v>1925570519</v>
       </c>
       <c r="J15">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="K15">
-        <v>1.59</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="L15">
-        <v>-510.66</v>
+        <v>-505</v>
       </c>
       <c r="M15">
-        <v>-510.66</v>
+        <v>-505</v>
       </c>
       <c r="N15">
-        <v>-510.66</v>
+        <v>-505</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44223</v>
+        <v>44221</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>20379234</v>
@@ -1280,22 +1278,22 @@
         <v>19</v>
       </c>
       <c r="I16">
-        <v>1928853743</v>
+        <v>1925951686</v>
       </c>
       <c r="J16">
-        <v>-100</v>
+        <v>-250</v>
       </c>
       <c r="K16">
-        <v>5.07</v>
+        <v>3.68</v>
       </c>
       <c r="L16">
-        <v>504.5</v>
+        <v>917.5</v>
       </c>
       <c r="M16">
-        <v>504.5</v>
+        <v>917.5</v>
       </c>
       <c r="N16">
-        <v>504.5</v>
+        <v>917.5</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -1324,36 +1322,36 @@
         <v>19</v>
       </c>
       <c r="I17">
-        <v>1929073112</v>
+        <v>1928513133</v>
       </c>
       <c r="J17">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="K17">
-        <v>1.44</v>
+        <v>1.59</v>
       </c>
       <c r="L17">
-        <v>-406.82</v>
+        <v>-510.66</v>
       </c>
       <c r="M17">
-        <v>-406.82</v>
+        <v>-510.66</v>
       </c>
       <c r="N17">
-        <v>-406.82</v>
+        <v>-510.66</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>20379234</v>
@@ -1362,116 +1360,116 @@
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
         <v>19</v>
       </c>
       <c r="I18">
-        <v>1930834324</v>
+        <v>1928853743</v>
       </c>
       <c r="J18">
-        <v>50</v>
+        <v>-100</v>
       </c>
       <c r="K18">
-        <v>7.05</v>
+        <v>5.07</v>
       </c>
       <c r="L18">
-        <v>-355</v>
+        <v>504.5</v>
       </c>
       <c r="M18">
-        <v>-355</v>
+        <v>504.5</v>
       </c>
       <c r="N18">
-        <v>-355</v>
+        <v>504.5</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>44228</v>
+        <v>44223</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E19">
-        <v>20379234</v>
+        <v>20187713</v>
       </c>
       <c r="F19" t="s">
         <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H19" t="s">
         <v>19</v>
       </c>
       <c r="I19">
-        <v>1934738435</v>
+        <v>1929073112</v>
       </c>
       <c r="J19">
-        <v>-250</v>
+        <v>280</v>
       </c>
       <c r="K19">
-        <v>6.04</v>
+        <v>1.44</v>
       </c>
       <c r="L19">
-        <v>1505</v>
+        <v>-406.82</v>
       </c>
       <c r="M19">
-        <v>1505</v>
+        <v>-406.82</v>
       </c>
       <c r="N19">
-        <v>1505</v>
+        <v>-406.82</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>44228</v>
+        <v>44224</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E20">
-        <v>20187713</v>
+        <v>20379234</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H20" t="s">
         <v>19</v>
       </c>
       <c r="I20">
-        <v>1934738599</v>
+        <v>1930834324</v>
       </c>
       <c r="J20">
-        <v>-600</v>
+        <v>50</v>
       </c>
       <c r="K20">
-        <v>1.96</v>
+        <v>7.05</v>
       </c>
       <c r="L20">
-        <v>1171.5999999999999</v>
+        <v>-355</v>
       </c>
       <c r="M20">
-        <v>1171.5999999999999</v>
+        <v>-355</v>
       </c>
       <c r="N20">
-        <v>1171.5999999999999</v>
+        <v>-355</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -1482,10 +1480,10 @@
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>20379234</v>
@@ -1494,28 +1492,28 @@
         <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
         <v>19</v>
       </c>
       <c r="I21">
-        <v>1935642864</v>
+        <v>1934738435</v>
       </c>
       <c r="J21">
-        <v>100</v>
+        <v>-250</v>
       </c>
       <c r="K21">
-        <v>4.58</v>
+        <v>6.04</v>
       </c>
       <c r="L21">
-        <v>-460.5</v>
+        <v>1505</v>
       </c>
       <c r="M21">
-        <v>-460.5</v>
+        <v>1505</v>
       </c>
       <c r="N21">
-        <v>-460.5</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
@@ -1538,42 +1536,42 @@
         <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H22" t="s">
         <v>19</v>
       </c>
       <c r="I22">
-        <v>1935644906</v>
+        <v>1934738599</v>
       </c>
       <c r="J22">
-        <v>300</v>
+        <v>-600</v>
       </c>
       <c r="K22">
-        <v>1.72</v>
+        <v>1.96</v>
       </c>
       <c r="L22">
-        <v>-519.1</v>
+        <v>1171.5999999999999</v>
       </c>
       <c r="M22">
-        <v>-519.1</v>
+        <v>1171.5999999999999</v>
       </c>
       <c r="N22">
-        <v>-519.1</v>
+        <v>1171.5999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>44230</v>
+        <v>44228</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <v>20379234</v>
@@ -1588,39 +1586,39 @@
         <v>19</v>
       </c>
       <c r="I23">
-        <v>1937880205</v>
+        <v>1935642864</v>
       </c>
       <c r="J23">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K23">
-        <v>1.93</v>
+        <v>4.58</v>
       </c>
       <c r="L23">
-        <v>-388.5</v>
+        <v>-460.5</v>
       </c>
       <c r="M23">
-        <v>-388.5</v>
+        <v>-460.5</v>
       </c>
       <c r="N23">
-        <v>-388.5</v>
+        <v>-460.5</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>44230</v>
+        <v>44228</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E24">
-        <v>20379234</v>
+        <v>20187713</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
@@ -1632,22 +1630,22 @@
         <v>19</v>
       </c>
       <c r="I24">
-        <v>1938366541</v>
+        <v>1935644906</v>
       </c>
       <c r="J24">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K24">
-        <v>2.5299999999999998</v>
+        <v>1.72</v>
       </c>
       <c r="L24">
-        <v>-255.5</v>
+        <v>-519.1</v>
       </c>
       <c r="M24">
-        <v>-255.5</v>
+        <v>-519.1</v>
       </c>
       <c r="N24">
-        <v>-255.5</v>
+        <v>-519.1</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -1658,10 +1656,10 @@
         <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>20379234</v>
@@ -1670,28 +1668,28 @@
         <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H25" t="s">
         <v>19</v>
       </c>
       <c r="I25">
-        <v>1938398987</v>
+        <v>1937880205</v>
       </c>
       <c r="J25">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="K25">
-        <v>2.85</v>
+        <v>1.93</v>
       </c>
       <c r="L25">
-        <v>282.5</v>
+        <v>-388.5</v>
       </c>
       <c r="M25">
-        <v>282.5</v>
+        <v>-388.5</v>
       </c>
       <c r="N25">
-        <v>282.5</v>
+        <v>-388.5</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -1702,10 +1700,10 @@
         <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>20379234</v>
@@ -1714,133 +1712,133 @@
         <v>17</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H26" t="s">
         <v>19</v>
       </c>
       <c r="I26">
-        <v>1938422142</v>
+        <v>1938366541</v>
       </c>
       <c r="J26">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K26">
-        <v>3.16</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="L26">
-        <v>313.5</v>
+        <v>-255.5</v>
       </c>
       <c r="M26">
-        <v>313.5</v>
+        <v>-255.5</v>
       </c>
       <c r="N26">
-        <v>313.5</v>
+        <v>-255.5</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E27">
-        <v>18551496</v>
+        <v>20379234</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
         <v>19</v>
       </c>
       <c r="I27">
-        <v>1939526007</v>
+        <v>1938398987</v>
       </c>
       <c r="J27">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="K27">
-        <v>2.72</v>
+        <v>2.85</v>
       </c>
       <c r="L27">
-        <v>-547.29999999999995</v>
+        <v>282.5</v>
       </c>
       <c r="M27">
-        <v>-547.29999999999995</v>
+        <v>282.5</v>
       </c>
       <c r="N27">
-        <v>-547.29999999999995</v>
+        <v>282.5</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E28">
-        <v>21214867</v>
+        <v>20379234</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
       </c>
       <c r="G28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H28" t="s">
         <v>19</v>
       </c>
       <c r="I28">
-        <v>1939831596</v>
+        <v>1938422142</v>
       </c>
       <c r="J28">
-        <v>10</v>
+        <v>-100</v>
       </c>
       <c r="K28">
-        <v>50.64</v>
+        <v>3.16</v>
       </c>
       <c r="L28">
-        <v>-508.9</v>
+        <v>313.5</v>
       </c>
       <c r="M28">
-        <v>-508.9</v>
+        <v>313.5</v>
       </c>
       <c r="N28">
-        <v>-508.9</v>
+        <v>313.5</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E29">
-        <v>20379234</v>
+        <v>18551496</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
@@ -1852,27 +1850,27 @@
         <v>19</v>
       </c>
       <c r="I29">
-        <v>1940588357</v>
+        <v>1939526007</v>
       </c>
       <c r="J29">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K29">
-        <v>1.65</v>
+        <v>2.72</v>
       </c>
       <c r="L29">
-        <v>-497.5</v>
+        <v>-547.29999999999995</v>
       </c>
       <c r="M29">
-        <v>-497.5</v>
+        <v>-547.29999999999995</v>
       </c>
       <c r="N29">
-        <v>-497.5</v>
+        <v>-547.29999999999995</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -1884,7 +1882,7 @@
         <v>27</v>
       </c>
       <c r="E30">
-        <v>18779164</v>
+        <v>21214867</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
@@ -1896,22 +1894,22 @@
         <v>19</v>
       </c>
       <c r="I30">
-        <v>1940590699</v>
+        <v>1939831596</v>
       </c>
       <c r="J30">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="K30">
-        <v>7.31</v>
+        <v>50.64</v>
       </c>
       <c r="L30">
-        <v>-265.66000000000003</v>
+        <v>-508.9</v>
       </c>
       <c r="M30">
-        <v>-265.66000000000003</v>
+        <v>-508.9</v>
       </c>
       <c r="N30">
-        <v>-265.66000000000003</v>
+        <v>-508.9</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -1922,10 +1920,10 @@
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E31">
         <v>20379234</v>
@@ -1934,33 +1932,33 @@
         <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H31" t="s">
         <v>19</v>
       </c>
       <c r="I31">
-        <v>1940988095</v>
+        <v>1940588357</v>
       </c>
       <c r="J31">
-        <v>-250</v>
+        <v>300</v>
       </c>
       <c r="K31">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="L31">
-        <v>535</v>
+        <v>-497.5</v>
       </c>
       <c r="M31">
-        <v>535</v>
+        <v>-497.5</v>
       </c>
       <c r="N31">
-        <v>535</v>
+        <v>-497.5</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>44235</v>
+        <v>44232</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
@@ -1969,54 +1967,54 @@
         <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E32">
-        <v>20187713</v>
+        <v>18779164</v>
       </c>
       <c r="F32" t="s">
         <v>17</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H32" t="s">
         <v>19</v>
       </c>
       <c r="I32">
-        <v>1941781794</v>
+        <v>1940590699</v>
       </c>
       <c r="J32">
-        <v>-300</v>
+        <v>36</v>
       </c>
       <c r="K32">
-        <v>1.39</v>
+        <v>7.31</v>
       </c>
       <c r="L32">
-        <v>414.8</v>
+        <v>-265.66000000000003</v>
       </c>
       <c r="M32">
-        <v>414.8</v>
+        <v>-265.66000000000003</v>
       </c>
       <c r="N32">
-        <v>414.8</v>
+        <v>-265.66000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>44235</v>
+        <v>44232</v>
       </c>
       <c r="B33" t="s">
         <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E33">
-        <v>18551496</v>
+        <v>20379234</v>
       </c>
       <c r="F33" t="s">
         <v>17</v>
@@ -2028,22 +2026,22 @@
         <v>19</v>
       </c>
       <c r="I33">
-        <v>1941781921</v>
+        <v>1940988095</v>
       </c>
       <c r="J33">
-        <v>-200</v>
+        <v>-250</v>
       </c>
       <c r="K33">
-        <v>2.5499999999999998</v>
+        <v>2.15</v>
       </c>
       <c r="L33">
-        <v>506.7</v>
+        <v>535</v>
       </c>
       <c r="M33">
-        <v>506.7</v>
+        <v>535</v>
       </c>
       <c r="N33">
-        <v>506.7</v>
+        <v>535</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -2057,10 +2055,10 @@
         <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E34">
-        <v>21214867</v>
+        <v>20187713</v>
       </c>
       <c r="F34" t="s">
         <v>17</v>
@@ -2072,22 +2070,22 @@
         <v>19</v>
       </c>
       <c r="I34">
-        <v>1941840865</v>
+        <v>1941781794</v>
       </c>
       <c r="J34">
-        <v>-10</v>
+        <v>-300</v>
       </c>
       <c r="K34">
-        <v>41.65</v>
+        <v>1.39</v>
       </c>
       <c r="L34">
-        <v>414</v>
+        <v>414.8</v>
       </c>
       <c r="M34">
-        <v>414</v>
+        <v>414.8</v>
       </c>
       <c r="N34">
-        <v>414</v>
+        <v>414.8</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -2098,40 +2096,40 @@
         <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E35">
-        <v>49439</v>
+        <v>18551496</v>
       </c>
       <c r="F35" t="s">
         <v>17</v>
       </c>
       <c r="G35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H35" t="s">
         <v>19</v>
       </c>
       <c r="I35">
-        <v>1941902254</v>
+        <v>1941781921</v>
       </c>
       <c r="J35">
-        <v>5600</v>
+        <v>-200</v>
       </c>
       <c r="K35">
-        <v>0.17</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="L35">
-        <v>-967.84</v>
+        <v>506.7</v>
       </c>
       <c r="M35">
-        <v>-967.84</v>
+        <v>506.7</v>
       </c>
       <c r="N35">
-        <v>-967.84</v>
+        <v>506.7</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
@@ -2145,37 +2143,37 @@
         <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E36">
-        <v>18430232</v>
+        <v>21214867</v>
       </c>
       <c r="F36" t="s">
         <v>17</v>
       </c>
       <c r="G36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H36" t="s">
         <v>19</v>
       </c>
       <c r="I36">
-        <v>1942104601</v>
+        <v>1941840865</v>
       </c>
       <c r="J36">
-        <v>9</v>
+        <v>-10</v>
       </c>
       <c r="K36">
-        <v>53.64</v>
+        <v>41.65</v>
       </c>
       <c r="L36">
-        <v>-485.26</v>
+        <v>414</v>
       </c>
       <c r="M36">
-        <v>-485.26</v>
+        <v>414</v>
       </c>
       <c r="N36">
-        <v>-485.26</v>
+        <v>414</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -2186,45 +2184,45 @@
         <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E37">
-        <v>20379234</v>
+        <v>49439</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
       </c>
       <c r="G37" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H37" t="s">
         <v>19</v>
       </c>
       <c r="I37">
-        <v>1942289791</v>
+        <v>1941902254</v>
       </c>
       <c r="J37">
-        <v>-250</v>
+        <v>5600</v>
       </c>
       <c r="K37">
-        <v>0.97</v>
+        <v>0.17</v>
       </c>
       <c r="L37">
-        <v>240</v>
+        <v>-967.84</v>
       </c>
       <c r="M37">
-        <v>240</v>
+        <v>-967.84</v>
       </c>
       <c r="N37">
-        <v>240</v>
+        <v>-967.84</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
@@ -2233,7 +2231,7 @@
         <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E38">
         <v>18430232</v>
@@ -2242,72 +2240,72 @@
         <v>17</v>
       </c>
       <c r="G38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H38" t="s">
         <v>19</v>
       </c>
       <c r="I38">
-        <v>1943279632</v>
+        <v>1942104601</v>
       </c>
       <c r="J38">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="K38">
-        <v>52.62</v>
+        <v>53.64</v>
       </c>
       <c r="L38">
-        <v>471.08</v>
+        <v>-485.26</v>
       </c>
       <c r="M38">
-        <v>471.08</v>
+        <v>-485.26</v>
       </c>
       <c r="N38">
-        <v>471.08</v>
+        <v>-485.26</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D39" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E39">
-        <v>901480</v>
+        <v>20379234</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
       </c>
       <c r="G39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H39" t="s">
         <v>19</v>
       </c>
       <c r="I39">
-        <v>1943449644</v>
+        <v>1942289791</v>
       </c>
       <c r="J39">
-        <v>136</v>
+        <v>-250</v>
       </c>
       <c r="K39">
-        <v>7.35</v>
+        <v>0.97</v>
       </c>
       <c r="L39">
-        <v>-1002.1</v>
+        <v>240</v>
       </c>
       <c r="M39">
-        <v>-1002.1</v>
+        <v>240</v>
       </c>
       <c r="N39">
-        <v>-1002.1</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -2318,13 +2316,13 @@
         <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E40">
-        <v>901480</v>
+        <v>18430232</v>
       </c>
       <c r="F40" t="s">
         <v>17</v>
@@ -2336,22 +2334,22 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>1943514137</v>
+        <v>1943279632</v>
       </c>
       <c r="J40">
-        <v>-136</v>
+        <v>-9</v>
       </c>
       <c r="K40">
-        <v>7.28</v>
+        <v>52.62</v>
       </c>
       <c r="L40">
-        <v>987</v>
+        <v>471.08</v>
       </c>
       <c r="M40">
-        <v>987</v>
+        <v>471.08</v>
       </c>
       <c r="N40">
-        <v>987</v>
+        <v>471.08</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -2362,13 +2360,13 @@
         <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E41">
-        <v>18551496</v>
+        <v>901480</v>
       </c>
       <c r="F41" t="s">
         <v>17</v>
@@ -2380,27 +2378,27 @@
         <v>19</v>
       </c>
       <c r="I41">
-        <v>1943644614</v>
+        <v>1943449644</v>
       </c>
       <c r="J41">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="K41">
-        <v>2.5</v>
+        <v>7.35</v>
       </c>
       <c r="L41">
-        <v>-502.1</v>
+        <v>-1002.1</v>
       </c>
       <c r="M41">
-        <v>-502.1</v>
+        <v>-1002.1</v>
       </c>
       <c r="N41">
-        <v>-502.1</v>
+        <v>-1002.1</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
@@ -2409,10 +2407,10 @@
         <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E42">
-        <v>49439</v>
+        <v>901480</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
@@ -2424,27 +2422,27 @@
         <v>19</v>
       </c>
       <c r="I42">
-        <v>1944639068</v>
+        <v>1943514137</v>
       </c>
       <c r="J42">
-        <v>-5600</v>
+        <v>-136</v>
       </c>
       <c r="K42">
-        <v>0.18</v>
+        <v>7.28</v>
       </c>
       <c r="L42">
-        <v>977.9</v>
+        <v>987</v>
       </c>
       <c r="M42">
-        <v>977.9</v>
+        <v>987</v>
       </c>
       <c r="N42">
-        <v>977.9</v>
+        <v>987</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
@@ -2453,10 +2451,10 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E43">
-        <v>18440471</v>
+        <v>18551496</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
@@ -2468,22 +2466,22 @@
         <v>19</v>
       </c>
       <c r="I43">
-        <v>1944830066</v>
+        <v>1943644614</v>
       </c>
       <c r="J43">
         <v>200</v>
       </c>
       <c r="K43">
-        <v>2.19</v>
+        <v>2.5</v>
       </c>
       <c r="L43">
-        <v>-440.3</v>
+        <v>-502.1</v>
       </c>
       <c r="M43">
-        <v>-440.3</v>
+        <v>-502.1</v>
       </c>
       <c r="N43">
-        <v>-440.3</v>
+        <v>-502.1</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -2494,13 +2492,13 @@
         <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E44">
-        <v>18440471</v>
+        <v>49439</v>
       </c>
       <c r="F44" t="s">
         <v>17</v>
@@ -2512,22 +2510,22 @@
         <v>19</v>
       </c>
       <c r="I44">
-        <v>1944838765</v>
+        <v>1944639068</v>
       </c>
       <c r="J44">
-        <v>-200</v>
+        <v>-5600</v>
       </c>
       <c r="K44">
-        <v>2.15</v>
+        <v>0.18</v>
       </c>
       <c r="L44">
-        <v>428.1</v>
+        <v>977.9</v>
       </c>
       <c r="M44">
-        <v>428.1</v>
+        <v>977.9</v>
       </c>
       <c r="N44">
-        <v>428.1</v>
+        <v>977.9</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -2541,7 +2539,7 @@
         <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E45">
         <v>18440471</v>
@@ -2556,22 +2554,22 @@
         <v>19</v>
       </c>
       <c r="I45">
-        <v>1944846048</v>
+        <v>1944830066</v>
       </c>
       <c r="J45">
         <v>200</v>
       </c>
       <c r="K45">
-        <v>2.4900000000000002</v>
+        <v>2.19</v>
       </c>
       <c r="L45">
-        <v>-501.1</v>
+        <v>-440.3</v>
       </c>
       <c r="M45">
-        <v>-501.1</v>
+        <v>-440.3</v>
       </c>
       <c r="N45">
-        <v>-501.1</v>
+        <v>-440.3</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -2582,45 +2580,45 @@
         <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
         <v>31</v>
       </c>
       <c r="E46">
-        <v>20962611</v>
+        <v>18440471</v>
       </c>
       <c r="F46" t="s">
         <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H46" t="s">
         <v>19</v>
       </c>
       <c r="I46">
-        <v>1945354020</v>
+        <v>1944838765</v>
       </c>
       <c r="J46">
-        <v>42</v>
+        <v>-200</v>
       </c>
       <c r="K46">
-        <v>11.72</v>
+        <v>2.15</v>
       </c>
       <c r="L46">
-        <v>-494.74</v>
+        <v>428.1</v>
       </c>
       <c r="M46">
-        <v>-494.74</v>
+        <v>428.1</v>
       </c>
       <c r="N46">
-        <v>-494.74</v>
+        <v>428.1</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B47" t="s">
         <v>14</v>
@@ -2629,7 +2627,7 @@
         <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E47">
         <v>18440471</v>
@@ -2644,39 +2642,39 @@
         <v>19</v>
       </c>
       <c r="I47">
-        <v>1946043100</v>
+        <v>1944846048</v>
       </c>
       <c r="J47">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K47">
-        <v>0.71</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="L47">
-        <v>-357</v>
+        <v>-501.1</v>
       </c>
       <c r="M47">
-        <v>-357</v>
+        <v>-501.1</v>
       </c>
       <c r="N47">
-        <v>-357</v>
+        <v>-501.1</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="B48" t="s">
         <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D48" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E48">
-        <v>18440471</v>
+        <v>20962611</v>
       </c>
       <c r="F48" t="s">
         <v>17</v>
@@ -2688,22 +2686,22 @@
         <v>19</v>
       </c>
       <c r="I48">
-        <v>1946048210</v>
+        <v>1945354020</v>
       </c>
       <c r="J48">
-        <v>300</v>
+        <v>42</v>
       </c>
       <c r="K48">
-        <v>0.65</v>
+        <v>11.72</v>
       </c>
       <c r="L48">
-        <v>-196.6</v>
+        <v>-494.74</v>
       </c>
       <c r="M48">
-        <v>-196.6</v>
+        <v>-494.74</v>
       </c>
       <c r="N48">
-        <v>-196.6</v>
+        <v>-494.74</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
@@ -2714,40 +2712,40 @@
         <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D49" t="s">
         <v>31</v>
       </c>
       <c r="E49">
-        <v>20962611</v>
+        <v>18440471</v>
       </c>
       <c r="F49" t="s">
         <v>17</v>
       </c>
       <c r="G49" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H49" t="s">
         <v>19</v>
       </c>
       <c r="I49">
-        <v>1946096120</v>
+        <v>1946043100</v>
       </c>
       <c r="J49">
-        <v>-42</v>
+        <v>500</v>
       </c>
       <c r="K49">
-        <v>10.51</v>
+        <v>0.71</v>
       </c>
       <c r="L49">
-        <v>438.92</v>
+        <v>-357</v>
       </c>
       <c r="M49">
-        <v>438.92</v>
+        <v>-357</v>
       </c>
       <c r="N49">
-        <v>438.92</v>
+        <v>-357</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
@@ -2761,7 +2759,7 @@
         <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E50">
         <v>18440471</v>
@@ -2776,22 +2774,22 @@
         <v>19</v>
       </c>
       <c r="I50">
-        <v>1946144160</v>
+        <v>1946048210</v>
       </c>
       <c r="J50">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="K50">
-        <v>0.99</v>
+        <v>0.65</v>
       </c>
       <c r="L50">
-        <v>-51.9</v>
+        <v>-196.6</v>
       </c>
       <c r="M50">
-        <v>-51.9</v>
+        <v>-196.6</v>
       </c>
       <c r="N50">
-        <v>-51.9</v>
+        <v>-196.6</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
@@ -2802,45 +2800,45 @@
         <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E51">
-        <v>20187713</v>
+        <v>20962611</v>
       </c>
       <c r="F51" t="s">
         <v>17</v>
       </c>
       <c r="G51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H51" t="s">
         <v>19</v>
       </c>
       <c r="I51">
-        <v>1946555228</v>
+        <v>1946096120</v>
       </c>
       <c r="J51">
-        <v>200</v>
+        <v>-42</v>
       </c>
       <c r="K51">
-        <v>1.79</v>
+        <v>10.51</v>
       </c>
       <c r="L51">
-        <v>-359.5</v>
+        <v>438.92</v>
       </c>
       <c r="M51">
-        <v>-359.5</v>
+        <v>438.92</v>
       </c>
       <c r="N51">
-        <v>-359.5</v>
+        <v>438.92</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B52" t="s">
         <v>14</v>
@@ -2849,7 +2847,7 @@
         <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E52">
         <v>18440471</v>
@@ -2858,45 +2856,45 @@
         <v>17</v>
       </c>
       <c r="G52" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H52" t="s">
         <v>19</v>
       </c>
       <c r="I52">
-        <v>1947293286</v>
+        <v>1946144160</v>
       </c>
       <c r="J52">
-        <v>-1050</v>
+        <v>50</v>
       </c>
       <c r="K52">
-        <v>0.82</v>
+        <v>0.99</v>
       </c>
       <c r="L52">
-        <v>857.45</v>
+        <v>-51.9</v>
       </c>
       <c r="M52">
-        <v>857.45</v>
+        <v>-51.9</v>
       </c>
       <c r="N52">
-        <v>857.45</v>
+        <v>-51.9</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="B53" t="s">
         <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D53" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E53">
-        <v>20962611</v>
+        <v>20187713</v>
       </c>
       <c r="F53" t="s">
         <v>17</v>
@@ -2908,22 +2906,22 @@
         <v>19</v>
       </c>
       <c r="I53">
-        <v>1947295210</v>
+        <v>1946555228</v>
       </c>
       <c r="J53">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="K53">
-        <v>10.71</v>
+        <v>1.79</v>
       </c>
       <c r="L53">
-        <v>-484.45</v>
+        <v>-359.5</v>
       </c>
       <c r="M53">
-        <v>-484.45</v>
+        <v>-359.5</v>
       </c>
       <c r="N53">
-        <v>-484.45</v>
+        <v>-359.5</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
@@ -2937,10 +2935,10 @@
         <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E54">
-        <v>18779164</v>
+        <v>18440471</v>
       </c>
       <c r="F54" t="s">
         <v>17</v>
@@ -2952,22 +2950,22 @@
         <v>19</v>
       </c>
       <c r="I54">
-        <v>1947874560</v>
+        <v>1947293286</v>
       </c>
       <c r="J54">
-        <v>-36</v>
+        <v>-1050</v>
       </c>
       <c r="K54">
-        <v>6.32</v>
+        <v>0.82</v>
       </c>
       <c r="L54">
-        <v>225.02</v>
+        <v>857.45</v>
       </c>
       <c r="M54">
-        <v>225.02</v>
+        <v>857.45</v>
       </c>
       <c r="N54">
-        <v>225.02</v>
+        <v>857.45</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
@@ -2978,45 +2976,45 @@
         <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D55" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E55">
-        <v>18551496</v>
+        <v>20962611</v>
       </c>
       <c r="F55" t="s">
         <v>17</v>
       </c>
       <c r="G55" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H55" t="s">
         <v>19</v>
       </c>
       <c r="I55">
-        <v>1947874704</v>
+        <v>1947295210</v>
       </c>
       <c r="J55">
-        <v>-200</v>
+        <v>45</v>
       </c>
       <c r="K55">
-        <v>2.2200000000000002</v>
+        <v>10.71</v>
       </c>
       <c r="L55">
-        <v>441.5</v>
+        <v>-484.45</v>
       </c>
       <c r="M55">
-        <v>441.5</v>
+        <v>-484.45</v>
       </c>
       <c r="N55">
-        <v>441.5</v>
+        <v>-484.45</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>44242</v>
+        <v>44239</v>
       </c>
       <c r="B56" t="s">
         <v>14</v>
@@ -3025,142 +3023,142 @@
         <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E56">
-        <v>20051603</v>
+        <v>18779164</v>
       </c>
       <c r="F56" t="s">
         <v>17</v>
       </c>
       <c r="G56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H56" t="s">
         <v>19</v>
       </c>
       <c r="I56">
-        <v>1948714932</v>
+        <v>1947874560</v>
       </c>
       <c r="J56">
-        <v>100</v>
+        <v>-36</v>
       </c>
       <c r="K56">
-        <v>3.96</v>
+        <v>6.32</v>
       </c>
       <c r="L56">
-        <v>-398.5</v>
+        <v>225.02</v>
       </c>
       <c r="M56">
-        <v>-398.5</v>
+        <v>225.02</v>
       </c>
       <c r="N56">
-        <v>-398.5</v>
+        <v>225.02</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>44243</v>
+        <v>44239</v>
       </c>
       <c r="B57" t="s">
         <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E57">
-        <v>20962611</v>
+        <v>18551496</v>
       </c>
       <c r="F57" t="s">
         <v>17</v>
       </c>
       <c r="G57" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H57" t="s">
         <v>19</v>
       </c>
       <c r="I57">
-        <v>1949073785</v>
+        <v>1947874704</v>
       </c>
       <c r="J57">
-        <v>45</v>
+        <v>-200</v>
       </c>
       <c r="K57">
-        <v>9.2899999999999991</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="L57">
-        <v>-420.55</v>
+        <v>441.5</v>
       </c>
       <c r="M57">
-        <v>-420.55</v>
+        <v>441.5</v>
       </c>
       <c r="N57">
-        <v>-420.55</v>
+        <v>441.5</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="B58" t="s">
         <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E58">
-        <v>20962611</v>
+        <v>20051603</v>
       </c>
       <c r="F58" t="s">
         <v>17</v>
       </c>
       <c r="G58" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H58" t="s">
         <v>19</v>
       </c>
       <c r="I58">
-        <v>1949932043</v>
+        <v>1948714932</v>
       </c>
       <c r="J58">
-        <v>-45</v>
+        <v>100</v>
       </c>
       <c r="K58">
-        <v>10.3</v>
+        <v>3.96</v>
       </c>
       <c r="L58">
-        <v>461</v>
+        <v>-398.5</v>
       </c>
       <c r="M58">
-        <v>461</v>
+        <v>-398.5</v>
       </c>
       <c r="N58">
-        <v>461</v>
+        <v>-398.5</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="B59" t="s">
         <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D59" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E59">
-        <v>18551496</v>
+        <v>20962611</v>
       </c>
       <c r="F59" t="s">
         <v>17</v>
@@ -3172,71 +3170,71 @@
         <v>19</v>
       </c>
       <c r="I59">
-        <v>1950991738</v>
+        <v>1949073785</v>
       </c>
       <c r="J59">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="K59">
-        <v>2.13</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="L59">
-        <v>-428.9</v>
+        <v>-420.55</v>
       </c>
       <c r="M59">
-        <v>-428.9</v>
+        <v>-420.55</v>
       </c>
       <c r="N59">
-        <v>-428.9</v>
+        <v>-420.55</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>44245</v>
+        <v>44243</v>
       </c>
       <c r="B60" t="s">
         <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D60" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E60">
-        <v>18551496</v>
+        <v>20962611</v>
       </c>
       <c r="F60" t="s">
         <v>17</v>
       </c>
       <c r="G60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H60" t="s">
         <v>19</v>
       </c>
       <c r="I60">
-        <v>1951905830</v>
+        <v>1949932043</v>
       </c>
       <c r="J60">
-        <v>155</v>
+        <v>-45</v>
       </c>
       <c r="K60">
-        <v>1.99</v>
+        <v>10.3</v>
       </c>
       <c r="L60">
-        <v>-310.48</v>
+        <v>461</v>
       </c>
       <c r="M60">
-        <v>-310.48</v>
+        <v>461</v>
       </c>
       <c r="N60">
-        <v>-310.48</v>
+        <v>461</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>44246</v>
+        <v>44244</v>
       </c>
       <c r="B61" t="s">
         <v>14</v>
@@ -3245,7 +3243,7 @@
         <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E61">
         <v>18551496</v>
@@ -3254,45 +3252,45 @@
         <v>17</v>
       </c>
       <c r="G61" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H61" t="s">
         <v>19</v>
       </c>
       <c r="I61">
-        <v>1953441330</v>
+        <v>1950991738</v>
       </c>
       <c r="J61">
-        <v>-155</v>
+        <v>200</v>
       </c>
       <c r="K61">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
       <c r="L61">
-        <v>331.06</v>
+        <v>-428.9</v>
       </c>
       <c r="M61">
-        <v>331.06</v>
+        <v>-428.9</v>
       </c>
       <c r="N61">
-        <v>331.06</v>
+        <v>-428.9</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>44249</v>
+        <v>44245</v>
       </c>
       <c r="B62" t="s">
         <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E62">
-        <v>20231467</v>
+        <v>18551496</v>
       </c>
       <c r="F62" t="s">
         <v>17</v>
@@ -3304,27 +3302,27 @@
         <v>19</v>
       </c>
       <c r="I62">
-        <v>1954517337</v>
+        <v>1951905830</v>
       </c>
       <c r="J62">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="K62">
-        <v>2.0299999999999998</v>
+        <v>1.99</v>
       </c>
       <c r="L62">
-        <v>-327.3</v>
+        <v>-310.48</v>
       </c>
       <c r="M62">
-        <v>-327.3</v>
+        <v>-310.48</v>
       </c>
       <c r="N62">
-        <v>-327.3</v>
+        <v>-310.48</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>44250</v>
+        <v>44246</v>
       </c>
       <c r="B63" t="s">
         <v>14</v>
@@ -3333,7 +3331,7 @@
         <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E63">
         <v>18551496</v>
@@ -3348,66 +3346,66 @@
         <v>19</v>
       </c>
       <c r="I63">
-        <v>1955900349</v>
+        <v>1953441330</v>
       </c>
       <c r="J63">
-        <v>-200</v>
+        <v>-155</v>
       </c>
       <c r="K63">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L63">
-        <v>368.3</v>
+        <v>331.06</v>
       </c>
       <c r="M63">
-        <v>368.3</v>
+        <v>331.06</v>
       </c>
       <c r="N63">
-        <v>368.3</v>
+        <v>331.06</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>44250</v>
+        <v>44249</v>
       </c>
       <c r="B64" t="s">
         <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E64">
-        <v>20187713</v>
+        <v>20231467</v>
       </c>
       <c r="F64" t="s">
         <v>17</v>
       </c>
       <c r="G64" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H64" t="s">
         <v>19</v>
       </c>
       <c r="I64">
-        <v>1956019321</v>
+        <v>1954517337</v>
       </c>
       <c r="J64">
-        <v>-100</v>
+        <v>160</v>
       </c>
       <c r="K64">
-        <v>3.5</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="L64">
-        <v>347.5</v>
+        <v>-327.3</v>
       </c>
       <c r="M64">
-        <v>347.5</v>
+        <v>-327.3</v>
       </c>
       <c r="N64">
-        <v>347.5</v>
+        <v>-327.3</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
@@ -3418,13 +3416,13 @@
         <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E65">
-        <v>20231467</v>
+        <v>18551496</v>
       </c>
       <c r="F65" t="s">
         <v>17</v>
@@ -3436,27 +3434,27 @@
         <v>19</v>
       </c>
       <c r="I65">
-        <v>1956083693</v>
+        <v>1955900349</v>
       </c>
       <c r="J65">
-        <v>-160</v>
+        <v>-200</v>
       </c>
       <c r="K65">
-        <v>2.12</v>
+        <v>1.85</v>
       </c>
       <c r="L65">
-        <v>336.7</v>
+        <v>368.3</v>
       </c>
       <c r="M65">
-        <v>336.7</v>
+        <v>368.3</v>
       </c>
       <c r="N65">
-        <v>336.7</v>
+        <v>368.3</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B66" t="s">
         <v>14</v>
@@ -3465,81 +3463,81 @@
         <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E66">
-        <v>18551496</v>
+        <v>20187713</v>
       </c>
       <c r="F66" t="s">
         <v>17</v>
       </c>
       <c r="G66" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H66" t="s">
         <v>19</v>
       </c>
       <c r="I66">
-        <v>1958243750</v>
+        <v>1956019321</v>
       </c>
       <c r="J66">
-        <v>250</v>
+        <v>-100</v>
       </c>
       <c r="K66">
-        <v>1.88</v>
+        <v>3.5</v>
       </c>
       <c r="L66">
-        <v>-471.25</v>
+        <v>347.5</v>
       </c>
       <c r="M66">
-        <v>-471.25</v>
+        <v>347.5</v>
       </c>
       <c r="N66">
-        <v>-471.25</v>
+        <v>347.5</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>44251</v>
+        <v>44250</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D67" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E67">
-        <v>18551496</v>
+        <v>20231467</v>
       </c>
       <c r="F67" t="s">
         <v>17</v>
       </c>
       <c r="G67" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H67" t="s">
         <v>19</v>
       </c>
       <c r="I67">
-        <v>1958490610</v>
+        <v>1956083693</v>
       </c>
       <c r="J67">
-        <v>250</v>
+        <v>-160</v>
       </c>
       <c r="K67">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="L67">
-        <v>-458.75</v>
+        <v>336.7</v>
       </c>
       <c r="M67">
-        <v>-458.75</v>
+        <v>336.7</v>
       </c>
       <c r="N67">
-        <v>-458.75</v>
+        <v>336.7</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
@@ -3550,40 +3548,40 @@
         <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E68">
-        <v>20962611</v>
+        <v>18551496</v>
       </c>
       <c r="F68" t="s">
         <v>17</v>
       </c>
       <c r="G68" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H68" t="s">
         <v>19</v>
       </c>
       <c r="I68">
-        <v>1958628651</v>
+        <v>1958243750</v>
       </c>
       <c r="J68">
-        <v>-45</v>
+        <v>250</v>
       </c>
       <c r="K68">
-        <v>15.32</v>
+        <v>1.88</v>
       </c>
       <c r="L68">
-        <v>686.9</v>
+        <v>-471.25</v>
       </c>
       <c r="M68">
-        <v>686.9</v>
+        <v>-471.25</v>
       </c>
       <c r="N68">
-        <v>686.9</v>
+        <v>-471.25</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -3597,37 +3595,37 @@
         <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E69">
-        <v>20187713</v>
+        <v>18551496</v>
       </c>
       <c r="F69" t="s">
         <v>17</v>
       </c>
       <c r="G69" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H69" t="s">
         <v>19</v>
       </c>
       <c r="I69">
-        <v>1958629005</v>
+        <v>1958490610</v>
       </c>
       <c r="J69">
-        <v>-100</v>
+        <v>250</v>
       </c>
       <c r="K69">
-        <v>2.72</v>
+        <v>1.83</v>
       </c>
       <c r="L69">
-        <v>269.60000000000002</v>
+        <v>-458.75</v>
       </c>
       <c r="M69">
-        <v>269.60000000000002</v>
+        <v>-458.75</v>
       </c>
       <c r="N69">
-        <v>269.60000000000002</v>
+        <v>-458.75</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
@@ -3638,13 +3636,13 @@
         <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D70" t="s">
         <v>32</v>
       </c>
       <c r="E70">
-        <v>20051603</v>
+        <v>20962611</v>
       </c>
       <c r="F70" t="s">
         <v>17</v>
@@ -3656,22 +3654,22 @@
         <v>19</v>
       </c>
       <c r="I70">
-        <v>1958630606</v>
+        <v>1958628651</v>
       </c>
       <c r="J70">
-        <v>-100</v>
+        <v>-45</v>
       </c>
       <c r="K70">
-        <v>5.04</v>
+        <v>15.32</v>
       </c>
       <c r="L70">
-        <v>501.5</v>
+        <v>686.9</v>
       </c>
       <c r="M70">
-        <v>501.5</v>
+        <v>686.9</v>
       </c>
       <c r="N70">
-        <v>501.5</v>
+        <v>686.9</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
@@ -3682,57 +3680,57 @@
         <v>14</v>
       </c>
       <c r="C71" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E71">
-        <v>20165186</v>
+        <v>20187713</v>
       </c>
       <c r="F71" t="s">
         <v>17</v>
       </c>
       <c r="G71" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H71" t="s">
         <v>19</v>
       </c>
       <c r="I71">
-        <v>1958735110</v>
+        <v>1958629005</v>
       </c>
       <c r="J71">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K71">
-        <v>3.87</v>
+        <v>2.72</v>
       </c>
       <c r="L71">
-        <v>-389.2</v>
+        <v>269.60000000000002</v>
       </c>
       <c r="M71">
-        <v>-389.2</v>
+        <v>269.60000000000002</v>
       </c>
       <c r="N71">
-        <v>-389.2</v>
+        <v>269.60000000000002</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>44252</v>
+        <v>44251</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E72">
-        <v>20165186</v>
+        <v>20051603</v>
       </c>
       <c r="F72" t="s">
         <v>17</v>
@@ -3744,110 +3742,110 @@
         <v>19</v>
       </c>
       <c r="I72">
-        <v>1959591946</v>
+        <v>1958630606</v>
       </c>
       <c r="J72">
         <v>-100</v>
       </c>
       <c r="K72">
-        <v>3.67</v>
+        <v>5.04</v>
       </c>
       <c r="L72">
-        <v>364.5</v>
+        <v>501.5</v>
       </c>
       <c r="M72">
-        <v>364.5</v>
+        <v>501.5</v>
       </c>
       <c r="N72">
-        <v>364.5</v>
+        <v>501.5</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>44257</v>
+        <v>44251</v>
       </c>
       <c r="B73" t="s">
         <v>14</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D73" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E73">
-        <v>18551496</v>
+        <v>20165186</v>
       </c>
       <c r="F73" t="s">
         <v>17</v>
       </c>
       <c r="G73" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H73" t="s">
         <v>19</v>
       </c>
       <c r="I73">
-        <v>1964077230</v>
+        <v>1958735110</v>
       </c>
       <c r="J73">
-        <v>-250</v>
+        <v>100</v>
       </c>
       <c r="K73">
-        <v>2.06</v>
+        <v>3.87</v>
       </c>
       <c r="L73">
-        <v>512</v>
+        <v>-389.2</v>
       </c>
       <c r="M73">
-        <v>512</v>
+        <v>-389.2</v>
       </c>
       <c r="N73">
-        <v>512</v>
+        <v>-389.2</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>44257</v>
+        <v>44252</v>
       </c>
       <c r="B74" t="s">
         <v>14</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D74" t="s">
         <v>35</v>
       </c>
       <c r="E74">
-        <v>20187715</v>
+        <v>20165186</v>
       </c>
       <c r="F74" t="s">
         <v>17</v>
       </c>
       <c r="G74" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H74" t="s">
         <v>19</v>
       </c>
       <c r="I74">
-        <v>1964474752</v>
+        <v>1959591946</v>
       </c>
       <c r="J74">
-        <v>125</v>
+        <v>-100</v>
       </c>
       <c r="K74">
-        <v>4.05</v>
+        <v>3.67</v>
       </c>
       <c r="L74">
-        <v>-508.88</v>
+        <v>364.5</v>
       </c>
       <c r="M74">
-        <v>-508.88</v>
+        <v>364.5</v>
       </c>
       <c r="N74">
-        <v>-508.88</v>
+        <v>364.5</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
@@ -3858,40 +3856,40 @@
         <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E75">
-        <v>20962611</v>
+        <v>18551496</v>
       </c>
       <c r="F75" t="s">
         <v>17</v>
       </c>
       <c r="G75" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H75" t="s">
         <v>19</v>
       </c>
       <c r="I75">
-        <v>1964693928</v>
+        <v>1964077230</v>
       </c>
       <c r="J75">
-        <v>30</v>
+        <v>-250</v>
       </c>
       <c r="K75">
-        <v>14.88</v>
+        <v>2.06</v>
       </c>
       <c r="L75">
-        <v>-448.9</v>
+        <v>512</v>
       </c>
       <c r="M75">
-        <v>-448.9</v>
+        <v>512</v>
       </c>
       <c r="N75">
-        <v>-448.9</v>
+        <v>512</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
@@ -3902,54 +3900,57 @@
         <v>14</v>
       </c>
       <c r="C76" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" t="s">
         <v>36</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>20187715</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="H76" t="s">
         <v>19</v>
       </c>
-      <c r="I76" t="s">
-        <v>19</v>
-      </c>
-      <c r="J76" t="s">
-        <v>19</v>
-      </c>
-      <c r="K76" t="s">
-        <v>19</v>
+      <c r="I76">
+        <v>1964474752</v>
+      </c>
+      <c r="J76">
+        <v>125</v>
+      </c>
+      <c r="K76">
+        <v>4.05</v>
       </c>
       <c r="L76">
-        <v>5</v>
+        <v>-508.88</v>
       </c>
       <c r="M76">
-        <v>5</v>
+        <v>-508.88</v>
       </c>
       <c r="N76">
-        <v>5</v>
+        <v>-508.88</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>44258</v>
+        <v>44257</v>
       </c>
       <c r="B77" t="s">
         <v>14</v>
       </c>
       <c r="C77" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D77" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E77">
-        <v>18438537</v>
+        <v>20962611</v>
       </c>
       <c r="F77" t="s">
         <v>17</v>
@@ -3961,83 +3962,80 @@
         <v>19</v>
       </c>
       <c r="I77">
-        <v>1965857621</v>
+        <v>1964693928</v>
       </c>
       <c r="J77">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="K77">
-        <v>6.89</v>
+        <v>14.88</v>
       </c>
       <c r="L77">
-        <v>-553.70000000000005</v>
+        <v>-448.9</v>
       </c>
       <c r="M77">
-        <v>-553.70000000000005</v>
+        <v>-448.9</v>
       </c>
       <c r="N77">
-        <v>-553.70000000000005</v>
+        <v>-448.9</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>44260</v>
+        <v>44257</v>
       </c>
       <c r="B78" t="s">
         <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>22</v>
-      </c>
-      <c r="D78" t="s">
+        <v>37</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78" t="s">
+        <v>38</v>
+      </c>
+      <c r="G78" t="s">
         <v>39</v>
       </c>
-      <c r="E78">
-        <v>18438537</v>
-      </c>
-      <c r="F78" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" t="s">
-        <v>20</v>
-      </c>
       <c r="H78" t="s">
         <v>19</v>
       </c>
-      <c r="I78">
-        <v>1968977463</v>
-      </c>
-      <c r="J78">
-        <v>-80</v>
-      </c>
-      <c r="K78">
-        <v>6.32</v>
+      <c r="I78" t="s">
+        <v>19</v>
+      </c>
+      <c r="J78" t="s">
+        <v>19</v>
+      </c>
+      <c r="K78" t="s">
+        <v>19</v>
       </c>
       <c r="L78">
-        <v>503.1</v>
+        <v>5</v>
       </c>
       <c r="M78">
-        <v>503.1</v>
+        <v>5</v>
       </c>
       <c r="N78">
-        <v>503.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>44263</v>
+        <v>44258</v>
       </c>
       <c r="B79" t="s">
         <v>14</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D79" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E79">
-        <v>20187715</v>
+        <v>18438537</v>
       </c>
       <c r="F79" t="s">
         <v>17</v>
@@ -4049,39 +4047,39 @@
         <v>19</v>
       </c>
       <c r="I79">
-        <v>1971031562</v>
+        <v>1965857621</v>
       </c>
       <c r="J79">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="K79">
-        <v>2.91</v>
+        <v>6.89</v>
       </c>
       <c r="L79">
-        <v>-510.88</v>
+        <v>-553.70000000000005</v>
       </c>
       <c r="M79">
-        <v>-510.88</v>
+        <v>-553.70000000000005</v>
       </c>
       <c r="N79">
-        <v>-510.88</v>
+        <v>-553.70000000000005</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>44263</v>
+        <v>44260</v>
       </c>
       <c r="B80" t="s">
         <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D80" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E80">
-        <v>20962611</v>
+        <v>18438537</v>
       </c>
       <c r="F80" t="s">
         <v>17</v>
@@ -4093,22 +4091,22 @@
         <v>19</v>
       </c>
       <c r="I80">
-        <v>1971191664</v>
+        <v>1968977463</v>
       </c>
       <c r="J80">
-        <v>-30</v>
+        <v>-80</v>
       </c>
       <c r="K80">
-        <v>19.37</v>
+        <v>6.32</v>
       </c>
       <c r="L80">
-        <v>578.6</v>
+        <v>503.1</v>
       </c>
       <c r="M80">
-        <v>578.6</v>
+        <v>503.1</v>
       </c>
       <c r="N80">
-        <v>578.6</v>
+        <v>503.1</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
@@ -4122,10 +4120,10 @@
         <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E81">
-        <v>19219209</v>
+        <v>20187715</v>
       </c>
       <c r="F81" t="s">
         <v>17</v>
@@ -4137,39 +4135,39 @@
         <v>19</v>
       </c>
       <c r="I81">
-        <v>1971543181</v>
+        <v>1971031562</v>
       </c>
       <c r="J81">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="K81">
-        <v>30.71</v>
+        <v>2.91</v>
       </c>
       <c r="L81">
-        <v>-524.57000000000005</v>
+        <v>-510.88</v>
       </c>
       <c r="M81">
-        <v>-524.57000000000005</v>
+        <v>-510.88</v>
       </c>
       <c r="N81">
-        <v>-524.57000000000005</v>
+        <v>-510.88</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>44264</v>
+        <v>44263</v>
       </c>
       <c r="B82" t="s">
         <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D82" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E82">
-        <v>19219209</v>
+        <v>20962611</v>
       </c>
       <c r="F82" t="s">
         <v>17</v>
@@ -4181,27 +4179,27 @@
         <v>19</v>
       </c>
       <c r="I82">
-        <v>1972233724</v>
+        <v>1971191664</v>
       </c>
       <c r="J82">
-        <v>-17</v>
+        <v>-30</v>
       </c>
       <c r="K82">
-        <v>27.26</v>
+        <v>19.37</v>
       </c>
       <c r="L82">
-        <v>460.92</v>
+        <v>578.6</v>
       </c>
       <c r="M82">
-        <v>460.92</v>
+        <v>578.6</v>
       </c>
       <c r="N82">
-        <v>460.92</v>
+        <v>578.6</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>44265</v>
+        <v>44263</v>
       </c>
       <c r="B83" t="s">
         <v>14</v>
@@ -4210,81 +4208,81 @@
         <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E83">
-        <v>20187715</v>
+        <v>19219209</v>
       </c>
       <c r="F83" t="s">
         <v>17</v>
       </c>
       <c r="G83" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H83" t="s">
         <v>19</v>
       </c>
       <c r="I83">
-        <v>1973770638</v>
+        <v>1971543181</v>
       </c>
       <c r="J83">
-        <v>-300</v>
+        <v>17</v>
       </c>
       <c r="K83">
-        <v>2.73</v>
+        <v>30.71</v>
       </c>
       <c r="L83">
-        <v>815.6</v>
+        <v>-524.57000000000005</v>
       </c>
       <c r="M83">
-        <v>815.6</v>
+        <v>-524.57000000000005</v>
       </c>
       <c r="N83">
-        <v>815.6</v>
+        <v>-524.57000000000005</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="B84" t="s">
         <v>14</v>
       </c>
       <c r="C84" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D84" t="s">
         <v>41</v>
       </c>
       <c r="E84">
-        <v>23919</v>
+        <v>19219209</v>
       </c>
       <c r="F84" t="s">
         <v>17</v>
       </c>
       <c r="G84" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H84" t="s">
         <v>19</v>
       </c>
       <c r="I84">
-        <v>1973807851</v>
+        <v>1972233724</v>
       </c>
       <c r="J84">
-        <v>240</v>
+        <v>-17</v>
       </c>
       <c r="K84">
-        <v>3.77</v>
+        <v>27.26</v>
       </c>
       <c r="L84">
-        <v>-908.26</v>
+        <v>460.92</v>
       </c>
       <c r="M84">
-        <v>-908.26</v>
+        <v>460.92</v>
       </c>
       <c r="N84">
-        <v>-908.26</v>
+        <v>460.92</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
@@ -4298,10 +4296,10 @@
         <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E85">
-        <v>18551496</v>
+        <v>20187715</v>
       </c>
       <c r="F85" t="s">
         <v>17</v>
@@ -4313,22 +4311,22 @@
         <v>19</v>
       </c>
       <c r="I85">
-        <v>1973936043</v>
+        <v>1973770638</v>
       </c>
       <c r="J85">
-        <v>-250</v>
+        <v>-300</v>
       </c>
       <c r="K85">
-        <v>1.65</v>
+        <v>2.73</v>
       </c>
       <c r="L85">
-        <v>409.75</v>
+        <v>815.6</v>
       </c>
       <c r="M85">
-        <v>409.75</v>
+        <v>815.6</v>
       </c>
       <c r="N85">
-        <v>409.75</v>
+        <v>815.6</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
@@ -4339,13 +4337,13 @@
         <v>14</v>
       </c>
       <c r="C86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D86" t="s">
         <v>42</v>
       </c>
       <c r="E86">
-        <v>18799246</v>
+        <v>23919</v>
       </c>
       <c r="F86" t="s">
         <v>17</v>
@@ -4357,22 +4355,22 @@
         <v>19</v>
       </c>
       <c r="I86">
-        <v>1973946191</v>
+        <v>1973807851</v>
       </c>
       <c r="J86">
-        <v>420</v>
+        <v>240</v>
       </c>
       <c r="K86">
-        <v>1.32</v>
+        <v>3.77</v>
       </c>
       <c r="L86">
-        <v>-556.9</v>
+        <v>-908.26</v>
       </c>
       <c r="M86">
-        <v>-556.9</v>
+        <v>-908.26</v>
       </c>
       <c r="N86">
-        <v>-556.9</v>
+        <v>-908.26</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
@@ -4386,37 +4384,37 @@
         <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E87">
-        <v>18430232</v>
+        <v>18551496</v>
       </c>
       <c r="F87" t="s">
         <v>17</v>
       </c>
       <c r="G87" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H87" t="s">
         <v>19</v>
       </c>
       <c r="I87">
-        <v>1974109973</v>
+        <v>1973936043</v>
       </c>
       <c r="J87">
-        <v>10</v>
+        <v>-250</v>
       </c>
       <c r="K87">
-        <v>53.67</v>
+        <v>1.65</v>
       </c>
       <c r="L87">
-        <v>-539.20000000000005</v>
+        <v>409.75</v>
       </c>
       <c r="M87">
-        <v>-539.20000000000005</v>
+        <v>409.75</v>
       </c>
       <c r="N87">
-        <v>-539.20000000000005</v>
+        <v>409.75</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
@@ -4427,40 +4425,40 @@
         <v>14</v>
       </c>
       <c r="C88" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D88" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E88">
-        <v>23919</v>
+        <v>18799246</v>
       </c>
       <c r="F88" t="s">
         <v>17</v>
       </c>
       <c r="G88" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H88" t="s">
         <v>19</v>
       </c>
       <c r="I88">
-        <v>1974299366</v>
+        <v>1973946191</v>
       </c>
       <c r="J88">
-        <v>-240</v>
+        <v>420</v>
       </c>
       <c r="K88">
-        <v>3.86</v>
+        <v>1.32</v>
       </c>
       <c r="L88">
-        <v>923.42</v>
+        <v>-556.9</v>
       </c>
       <c r="M88">
-        <v>923.42</v>
+        <v>-556.9</v>
       </c>
       <c r="N88">
-        <v>923.42</v>
+        <v>-556.9</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
@@ -4471,13 +4469,13 @@
         <v>14</v>
       </c>
       <c r="C89" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E89">
-        <v>19028703</v>
+        <v>18430232</v>
       </c>
       <c r="F89" t="s">
         <v>17</v>
@@ -4489,22 +4487,22 @@
         <v>19</v>
       </c>
       <c r="I89">
-        <v>1974314094</v>
+        <v>1974109973</v>
       </c>
       <c r="J89">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="K89">
-        <v>8.91</v>
+        <v>53.67</v>
       </c>
       <c r="L89">
-        <v>-537.1</v>
+        <v>-539.20000000000005</v>
       </c>
       <c r="M89">
-        <v>-537.1</v>
+        <v>-539.20000000000005</v>
       </c>
       <c r="N89">
-        <v>-537.1</v>
+        <v>-539.20000000000005</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
@@ -4515,101 +4513,101 @@
         <v>14</v>
       </c>
       <c r="C90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D90" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E90">
-        <v>20743879</v>
+        <v>23919</v>
       </c>
       <c r="F90" t="s">
         <v>17</v>
       </c>
       <c r="G90" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H90" t="s">
         <v>19</v>
       </c>
       <c r="I90">
-        <v>1974390339</v>
+        <v>1974299366</v>
       </c>
       <c r="J90">
-        <v>115</v>
+        <v>-240</v>
       </c>
       <c r="K90">
-        <v>4.99</v>
+        <v>3.86</v>
       </c>
       <c r="L90">
-        <v>-576.35</v>
+        <v>923.42</v>
       </c>
       <c r="M90">
-        <v>-576.35</v>
+        <v>923.42</v>
       </c>
       <c r="N90">
-        <v>-576.35</v>
+        <v>923.42</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B91" t="s">
         <v>14</v>
       </c>
       <c r="C91" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D91" t="s">
         <v>44</v>
       </c>
       <c r="E91">
-        <v>20743879</v>
+        <v>19028703</v>
       </c>
       <c r="F91" t="s">
         <v>17</v>
       </c>
       <c r="G91" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H91" t="s">
         <v>19</v>
       </c>
       <c r="I91">
-        <v>1975225146</v>
+        <v>1974314094</v>
       </c>
       <c r="J91">
-        <v>-115</v>
+        <v>60</v>
       </c>
       <c r="K91">
-        <v>5.27</v>
+        <v>8.91</v>
       </c>
       <c r="L91">
-        <v>603.54999999999995</v>
+        <v>-537.1</v>
       </c>
       <c r="M91">
-        <v>603.54999999999995</v>
+        <v>-537.1</v>
       </c>
       <c r="N91">
-        <v>603.54999999999995</v>
+        <v>-537.1</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>44266</v>
+        <v>44265</v>
       </c>
       <c r="B92" t="s">
         <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D92" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E92">
-        <v>20187715</v>
+        <v>20743879</v>
       </c>
       <c r="F92" t="s">
         <v>17</v>
@@ -4621,39 +4619,39 @@
         <v>19</v>
       </c>
       <c r="I92">
-        <v>1975228762</v>
+        <v>1974390339</v>
       </c>
       <c r="J92">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="K92">
-        <v>3.17</v>
+        <v>4.99</v>
       </c>
       <c r="L92">
-        <v>-572.20000000000005</v>
+        <v>-576.35</v>
       </c>
       <c r="M92">
-        <v>-572.20000000000005</v>
+        <v>-576.35</v>
       </c>
       <c r="N92">
-        <v>-572.20000000000005</v>
+        <v>-576.35</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>44271</v>
+        <v>44266</v>
       </c>
       <c r="B93" t="s">
         <v>14</v>
       </c>
       <c r="C93" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D93" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E93">
-        <v>19028703</v>
+        <v>20743879</v>
       </c>
       <c r="F93" t="s">
         <v>17</v>
@@ -4665,27 +4663,27 @@
         <v>19</v>
       </c>
       <c r="I93">
-        <v>1979175060</v>
+        <v>1975225146</v>
       </c>
       <c r="J93">
-        <v>-60</v>
+        <v>-115</v>
       </c>
       <c r="K93">
-        <v>8.76</v>
+        <v>5.27</v>
       </c>
       <c r="L93">
-        <v>523.1</v>
+        <v>603.54999999999995</v>
       </c>
       <c r="M93">
-        <v>523.1</v>
+        <v>603.54999999999995</v>
       </c>
       <c r="N93">
-        <v>523.1</v>
+        <v>603.54999999999995</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>44271</v>
+        <v>44266</v>
       </c>
       <c r="B94" t="s">
         <v>14</v>
@@ -4694,7 +4692,7 @@
         <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E94">
         <v>20187715</v>
@@ -4709,39 +4707,39 @@
         <v>19</v>
       </c>
       <c r="I94">
-        <v>1979180968</v>
+        <v>1975228762</v>
       </c>
       <c r="J94">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="K94">
-        <v>2.17</v>
+        <v>3.17</v>
       </c>
       <c r="L94">
-        <v>-524.26</v>
+        <v>-572.20000000000005</v>
       </c>
       <c r="M94">
-        <v>-524.26</v>
+        <v>-572.20000000000005</v>
       </c>
       <c r="N94">
-        <v>-524.26</v>
+        <v>-572.20000000000005</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="B95" t="s">
         <v>14</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D95" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E95">
-        <v>20187715</v>
+        <v>19028703</v>
       </c>
       <c r="F95" t="s">
         <v>17</v>
@@ -4753,66 +4751,66 @@
         <v>19</v>
       </c>
       <c r="I95">
-        <v>1987147009</v>
+        <v>1979175060</v>
       </c>
       <c r="J95">
-        <v>-420</v>
+        <v>-60</v>
       </c>
       <c r="K95">
-        <v>2.06</v>
+        <v>8.76</v>
       </c>
       <c r="L95">
-        <v>862.28</v>
+        <v>523.1</v>
       </c>
       <c r="M95">
-        <v>862.28</v>
+        <v>523.1</v>
       </c>
       <c r="N95">
-        <v>862.28</v>
+        <v>523.1</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>44280</v>
+        <v>44271</v>
       </c>
       <c r="B96" t="s">
         <v>14</v>
       </c>
       <c r="C96" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E96">
-        <v>18799246</v>
+        <v>20187715</v>
       </c>
       <c r="F96" t="s">
         <v>17</v>
       </c>
       <c r="G96" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H96" t="s">
         <v>19</v>
       </c>
       <c r="I96">
-        <v>1987147620</v>
+        <v>1979180968</v>
       </c>
       <c r="J96">
-        <v>-420</v>
+        <v>240</v>
       </c>
       <c r="K96">
-        <v>1.1299999999999999</v>
+        <v>2.17</v>
       </c>
       <c r="L96">
-        <v>472.1</v>
+        <v>-524.26</v>
       </c>
       <c r="M96">
-        <v>472.1</v>
+        <v>-524.26</v>
       </c>
       <c r="N96">
-        <v>472.1</v>
+        <v>-524.26</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
@@ -4826,7 +4824,7 @@
         <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E97">
         <v>20187715</v>
@@ -4835,77 +4833,77 @@
         <v>17</v>
       </c>
       <c r="G97" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H97" t="s">
         <v>19</v>
       </c>
       <c r="I97">
-        <v>1987517650</v>
+        <v>1987147009</v>
       </c>
       <c r="J97">
-        <v>230</v>
+        <v>-420</v>
       </c>
       <c r="K97">
-        <v>2.42</v>
+        <v>2.06</v>
       </c>
       <c r="L97">
-        <v>-557.95000000000005</v>
+        <v>862.28</v>
       </c>
       <c r="M97">
-        <v>-557.95000000000005</v>
+        <v>862.28</v>
       </c>
       <c r="N97">
-        <v>-557.95000000000005</v>
+        <v>862.28</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>44281</v>
+        <v>44280</v>
       </c>
       <c r="B98" t="s">
         <v>14</v>
       </c>
       <c r="C98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D98" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E98">
-        <v>19412260</v>
+        <v>18799246</v>
       </c>
       <c r="F98" t="s">
         <v>17</v>
       </c>
       <c r="G98" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H98" t="s">
         <v>19</v>
       </c>
       <c r="I98">
-        <v>1988723430</v>
+        <v>1987147620</v>
       </c>
       <c r="J98">
-        <v>823</v>
+        <v>-420</v>
       </c>
       <c r="K98">
-        <v>0.68</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="L98">
-        <v>-562.14</v>
+        <v>472.1</v>
       </c>
       <c r="M98">
-        <v>-562.14</v>
+        <v>472.1</v>
       </c>
       <c r="N98">
-        <v>-562.14</v>
+        <v>472.1</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>44286</v>
+        <v>44280</v>
       </c>
       <c r="B99" t="s">
         <v>14</v>
@@ -4914,7 +4912,7 @@
         <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E99">
         <v>20187715</v>
@@ -4923,221 +4921,221 @@
         <v>17</v>
       </c>
       <c r="G99" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H99" t="s">
         <v>19</v>
       </c>
       <c r="I99">
-        <v>1991900129</v>
+        <v>1987517650</v>
       </c>
       <c r="J99">
-        <v>-230</v>
+        <v>230</v>
       </c>
       <c r="K99">
-        <v>2.2000000000000002</v>
+        <v>2.42</v>
       </c>
       <c r="L99">
-        <v>503.04</v>
+        <v>-557.95000000000005</v>
       </c>
       <c r="M99">
-        <v>503.04</v>
+        <v>-557.95000000000005</v>
       </c>
       <c r="N99">
-        <v>503.04</v>
+        <v>-557.95000000000005</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>44286</v>
+        <v>44281</v>
       </c>
       <c r="B100" t="s">
         <v>14</v>
       </c>
       <c r="C100" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100" t="s">
         <v>46</v>
       </c>
-      <c r="D100" t="s">
-        <v>47</v>
-      </c>
       <c r="E100">
-        <v>9466</v>
+        <v>19412260</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="H100" t="s">
         <v>19</v>
       </c>
-      <c r="I100" t="s">
-        <v>19</v>
-      </c>
-      <c r="J100" t="s">
-        <v>19</v>
-      </c>
-      <c r="K100" t="s">
-        <v>19</v>
+      <c r="I100">
+        <v>1988723430</v>
+      </c>
+      <c r="J100">
+        <v>823</v>
+      </c>
+      <c r="K100">
+        <v>0.68</v>
       </c>
       <c r="L100">
-        <v>1000</v>
+        <v>-562.14</v>
       </c>
       <c r="M100">
-        <v>1000</v>
+        <v>-562.14</v>
       </c>
       <c r="N100">
-        <v>1000</v>
+        <v>-562.14</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>44203</v>
+        <v>44286</v>
       </c>
       <c r="B101" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C101" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E101">
-        <v>49439</v>
+        <v>20187715</v>
       </c>
       <c r="F101" t="s">
         <v>17</v>
       </c>
       <c r="G101" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H101" t="s">
         <v>19</v>
       </c>
       <c r="I101">
-        <v>1910476265</v>
+        <v>1991900129</v>
       </c>
       <c r="J101">
-        <v>9400</v>
+        <v>-230</v>
       </c>
       <c r="K101">
-        <v>0.11</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L101">
-        <v>-994.2</v>
+        <v>503.04</v>
       </c>
       <c r="M101">
-        <v>-994.2</v>
+        <v>503.04</v>
       </c>
       <c r="N101">
-        <v>-994.2</v>
+        <v>503.04</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>44221</v>
+        <v>44286</v>
       </c>
       <c r="B102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" t="s">
+        <v>47</v>
+      </c>
+      <c r="D102" t="s">
         <v>48</v>
       </c>
-      <c r="C102" t="s">
-        <v>21</v>
-      </c>
-      <c r="D102" t="s">
-        <v>49</v>
-      </c>
       <c r="E102">
-        <v>112808</v>
+        <v>9466</v>
       </c>
       <c r="F102" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G102" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H102" t="s">
         <v>19</v>
       </c>
-      <c r="I102">
-        <v>1925735955</v>
-      </c>
-      <c r="J102">
-        <v>67</v>
-      </c>
-      <c r="K102">
-        <v>14.8</v>
+      <c r="I102" t="s">
+        <v>19</v>
+      </c>
+      <c r="J102" t="s">
+        <v>19</v>
+      </c>
+      <c r="K102" t="s">
+        <v>19</v>
       </c>
       <c r="L102">
-        <v>-996.73</v>
+        <v>1000</v>
       </c>
       <c r="M102">
-        <v>-996.73</v>
+        <v>1000</v>
       </c>
       <c r="N102">
-        <v>-996.73</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>44223</v>
+        <v>44203</v>
       </c>
       <c r="B103" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C103" t="s">
         <v>21</v>
       </c>
       <c r="D103" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E103">
-        <v>112808</v>
+        <v>49439</v>
       </c>
       <c r="F103" t="s">
         <v>17</v>
       </c>
       <c r="G103" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H103" t="s">
         <v>19</v>
       </c>
       <c r="I103">
-        <v>1928478118</v>
+        <v>1910476265</v>
       </c>
       <c r="J103">
-        <v>-67</v>
+        <v>9400</v>
       </c>
       <c r="K103">
-        <v>14.27</v>
+        <v>0.11</v>
       </c>
       <c r="L103">
-        <v>953.26</v>
+        <v>-994.2</v>
       </c>
       <c r="M103">
-        <v>953.26</v>
+        <v>-994.2</v>
       </c>
       <c r="N103">
-        <v>953.26</v>
+        <v>-994.2</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>44235</v>
+        <v>44208</v>
       </c>
       <c r="B104" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C104" t="s">
         <v>21</v>
       </c>
       <c r="D104" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E104">
-        <v>22454</v>
+        <v>3853478</v>
       </c>
       <c r="F104" t="s">
         <v>17</v>
@@ -5149,39 +5147,39 @@
         <v>19</v>
       </c>
       <c r="I104">
-        <v>1941836275</v>
+        <v>1914294823</v>
       </c>
       <c r="J104">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K104">
-        <v>19.02</v>
+        <v>12.37</v>
       </c>
       <c r="L104">
-        <v>-953.3</v>
+        <v>-992.34</v>
       </c>
       <c r="M104">
-        <v>-953.3</v>
+        <v>-992.34</v>
       </c>
       <c r="N104">
-        <v>-953.3</v>
+        <v>-992.34</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>44235</v>
+        <v>44221</v>
       </c>
       <c r="B105" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C105" t="s">
         <v>21</v>
       </c>
       <c r="D105" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E105">
-        <v>13142</v>
+        <v>112808</v>
       </c>
       <c r="F105" t="s">
         <v>17</v>
@@ -5193,83 +5191,83 @@
         <v>19</v>
       </c>
       <c r="I105">
-        <v>1941871096</v>
+        <v>1925735955</v>
       </c>
       <c r="J105">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="K105">
-        <v>48.6</v>
+        <v>14.8</v>
       </c>
       <c r="L105">
-        <v>-977.42</v>
+        <v>-996.73</v>
       </c>
       <c r="M105">
-        <v>-977.42</v>
+        <v>-996.73</v>
       </c>
       <c r="N105">
-        <v>-977.42</v>
+        <v>-996.73</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>44235</v>
+        <v>44223</v>
       </c>
       <c r="B106" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C106" t="s">
         <v>21</v>
       </c>
       <c r="D106" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E106">
-        <v>49439</v>
+        <v>112808</v>
       </c>
       <c r="F106" t="s">
         <v>17</v>
       </c>
       <c r="G106" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H106" t="s">
         <v>19</v>
       </c>
       <c r="I106">
-        <v>1941947166</v>
+        <v>1928478118</v>
       </c>
       <c r="J106">
-        <v>5600</v>
+        <v>-67</v>
       </c>
       <c r="K106">
-        <v>0.18</v>
+        <v>14.27</v>
       </c>
       <c r="L106">
-        <v>-988.1</v>
+        <v>953.26</v>
       </c>
       <c r="M106">
-        <v>-988.1</v>
+        <v>953.26</v>
       </c>
       <c r="N106">
-        <v>-988.1</v>
+        <v>953.26</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>44237</v>
+        <v>44223</v>
       </c>
       <c r="B107" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C107" t="s">
         <v>21</v>
       </c>
       <c r="D107" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="E107">
-        <v>25345</v>
+        <v>3853478</v>
       </c>
       <c r="F107" t="s">
         <v>17</v>
@@ -5281,39 +5279,39 @@
         <v>19</v>
       </c>
       <c r="I107">
-        <v>1945325585</v>
+        <v>1928537627</v>
       </c>
       <c r="J107">
-        <v>1350</v>
+        <v>172</v>
       </c>
       <c r="K107">
-        <v>2.1800000000000002</v>
+        <v>12.38</v>
       </c>
       <c r="L107">
-        <v>-2952.05</v>
+        <v>-2134.6999999999998</v>
       </c>
       <c r="M107">
-        <v>-2952.05</v>
+        <v>-2134.6999999999998</v>
       </c>
       <c r="N107">
-        <v>-2952.05</v>
+        <v>-2134.6999999999998</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>44238</v>
+        <v>44232</v>
       </c>
       <c r="B108" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C108" t="s">
         <v>21</v>
       </c>
       <c r="D108" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E108">
-        <v>22454</v>
+        <v>3853478</v>
       </c>
       <c r="F108" t="s">
         <v>17</v>
@@ -5325,30 +5323,30 @@
         <v>19</v>
       </c>
       <c r="I108">
-        <v>1946043558</v>
+        <v>1940458366</v>
       </c>
       <c r="J108">
-        <v>-50</v>
+        <v>-300</v>
       </c>
       <c r="K108">
-        <v>18.920000000000002</v>
+        <v>11.99</v>
       </c>
       <c r="L108">
-        <v>943.3</v>
+        <v>3591.72</v>
       </c>
       <c r="M108">
-        <v>943.3</v>
+        <v>3591.72</v>
       </c>
       <c r="N108">
-        <v>943.3</v>
+        <v>3591.72</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>44239</v>
+        <v>44235</v>
       </c>
       <c r="B109" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C109" t="s">
         <v>21</v>
@@ -5357,42 +5355,42 @@
         <v>51</v>
       </c>
       <c r="E109">
-        <v>13142</v>
+        <v>22454</v>
       </c>
       <c r="F109" t="s">
         <v>17</v>
       </c>
       <c r="G109" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H109" t="s">
         <v>19</v>
       </c>
       <c r="I109">
-        <v>1947293540</v>
+        <v>1941836275</v>
       </c>
       <c r="J109">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="K109">
-        <v>50.08</v>
+        <v>19.02</v>
       </c>
       <c r="L109">
-        <v>996.56</v>
+        <v>-953.3</v>
       </c>
       <c r="M109">
-        <v>996.56</v>
+        <v>-953.3</v>
       </c>
       <c r="N109">
-        <v>996.56</v>
+        <v>-953.3</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>44239</v>
+        <v>44235</v>
       </c>
       <c r="B110" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C110" t="s">
         <v>21</v>
@@ -5401,7 +5399,7 @@
         <v>52</v>
       </c>
       <c r="E110">
-        <v>25345</v>
+        <v>13142</v>
       </c>
       <c r="F110" t="s">
         <v>17</v>
@@ -5413,39 +5411,39 @@
         <v>19</v>
       </c>
       <c r="I110">
-        <v>1947851691</v>
+        <v>1941871096</v>
       </c>
       <c r="J110">
-        <v>1350</v>
+        <v>20</v>
       </c>
       <c r="K110">
-        <v>2.14</v>
+        <v>48.6</v>
       </c>
       <c r="L110">
-        <v>-2896.02</v>
+        <v>-977.42</v>
       </c>
       <c r="M110">
-        <v>-2896.02</v>
+        <v>-977.42</v>
       </c>
       <c r="N110">
-        <v>-2896.02</v>
+        <v>-977.42</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>44242</v>
+        <v>44235</v>
       </c>
       <c r="B111" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C111" t="s">
         <v>21</v>
       </c>
       <c r="D111" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E111">
-        <v>3844730</v>
+        <v>49439</v>
       </c>
       <c r="F111" t="s">
         <v>17</v>
@@ -5457,74 +5455,74 @@
         <v>19</v>
       </c>
       <c r="I111">
-        <v>1948447224</v>
+        <v>1941947166</v>
       </c>
       <c r="J111">
-        <v>109</v>
+        <v>5600</v>
       </c>
       <c r="K111">
-        <v>9.09</v>
+        <v>0.18</v>
       </c>
       <c r="L111">
-        <v>-993.31</v>
+        <v>-988.1</v>
       </c>
       <c r="M111">
-        <v>-993.31</v>
+        <v>-988.1</v>
       </c>
       <c r="N111">
-        <v>-993.31</v>
+        <v>-988.1</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>44242</v>
+        <v>44235</v>
       </c>
       <c r="B112" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C112" t="s">
         <v>21</v>
       </c>
       <c r="D112" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E112">
-        <v>1242522</v>
+        <v>3853478</v>
       </c>
       <c r="F112" t="s">
         <v>17</v>
       </c>
       <c r="G112" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H112" t="s">
         <v>19</v>
       </c>
       <c r="I112">
-        <v>1948461136</v>
+        <v>1942156331</v>
       </c>
       <c r="J112">
-        <v>120</v>
+        <v>-300</v>
       </c>
       <c r="K112">
-        <v>7.35</v>
+        <v>11.77</v>
       </c>
       <c r="L112">
-        <v>-887.15</v>
+        <v>3526</v>
       </c>
       <c r="M112">
-        <v>-887.15</v>
+        <v>3526</v>
       </c>
       <c r="N112">
-        <v>-887.15</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>44243</v>
+        <v>44237</v>
       </c>
       <c r="B113" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C113" t="s">
         <v>21</v>
@@ -5533,95 +5531,95 @@
         <v>53</v>
       </c>
       <c r="E113">
-        <v>3844730</v>
+        <v>25345</v>
       </c>
       <c r="F113" t="s">
         <v>17</v>
       </c>
       <c r="G113" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H113" t="s">
         <v>19</v>
       </c>
       <c r="I113">
-        <v>1949053395</v>
+        <v>1945325585</v>
       </c>
       <c r="J113">
-        <v>-109</v>
+        <v>1350</v>
       </c>
       <c r="K113">
-        <v>8.99</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="L113">
-        <v>977.41</v>
+        <v>-2952.05</v>
       </c>
       <c r="M113">
-        <v>977.41</v>
+        <v>-2952.05</v>
       </c>
       <c r="N113">
-        <v>977.41</v>
+        <v>-2952.05</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>44244</v>
+        <v>44238</v>
       </c>
       <c r="B114" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C114" t="s">
         <v>21</v>
       </c>
       <c r="D114" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E114">
-        <v>25345</v>
+        <v>22454</v>
       </c>
       <c r="F114" t="s">
         <v>17</v>
       </c>
       <c r="G114" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H114" t="s">
         <v>19</v>
       </c>
       <c r="I114">
-        <v>1951152110</v>
+        <v>1946043558</v>
       </c>
       <c r="J114">
-        <v>1300</v>
+        <v>-50</v>
       </c>
       <c r="K114">
-        <v>2.08</v>
+        <v>18.920000000000002</v>
       </c>
       <c r="L114">
-        <v>-2710.3</v>
+        <v>943.3</v>
       </c>
       <c r="M114">
-        <v>-2710.3</v>
+        <v>943.3</v>
       </c>
       <c r="N114">
-        <v>-2710.3</v>
+        <v>943.3</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>44244</v>
+        <v>44239</v>
       </c>
       <c r="B115" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C115" t="s">
         <v>21</v>
       </c>
       <c r="D115" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E115">
-        <v>1242522</v>
+        <v>13142</v>
       </c>
       <c r="F115" t="s">
         <v>17</v>
@@ -5633,83 +5631,83 @@
         <v>19</v>
       </c>
       <c r="I115">
-        <v>1951252232</v>
+        <v>1947293540</v>
       </c>
       <c r="J115">
-        <v>-120</v>
+        <v>-20</v>
       </c>
       <c r="K115">
-        <v>7.45</v>
+        <v>50.08</v>
       </c>
       <c r="L115">
-        <v>890.9</v>
+        <v>996.56</v>
       </c>
       <c r="M115">
-        <v>890.9</v>
+        <v>996.56</v>
       </c>
       <c r="N115">
-        <v>890.9</v>
+        <v>996.56</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>44245</v>
+        <v>44239</v>
       </c>
       <c r="B116" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C116" t="s">
         <v>21</v>
       </c>
       <c r="D116" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E116">
-        <v>49439</v>
+        <v>25345</v>
       </c>
       <c r="F116" t="s">
         <v>17</v>
       </c>
       <c r="G116" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H116" t="s">
         <v>19</v>
       </c>
       <c r="I116">
-        <v>1952108311</v>
+        <v>1947851691</v>
       </c>
       <c r="J116">
-        <v>-15000</v>
+        <v>1350</v>
       </c>
       <c r="K116">
-        <v>0.16</v>
+        <v>2.14</v>
       </c>
       <c r="L116">
-        <v>2468.02</v>
+        <v>-2896.02</v>
       </c>
       <c r="M116">
-        <v>2468.02</v>
+        <v>-2896.02</v>
       </c>
       <c r="N116">
-        <v>2468.02</v>
+        <v>-2896.02</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>44249</v>
+        <v>44242</v>
       </c>
       <c r="B117" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C117" t="s">
         <v>21</v>
       </c>
       <c r="D117" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E117">
-        <v>11114004</v>
+        <v>3844730</v>
       </c>
       <c r="F117" t="s">
         <v>17</v>
@@ -5721,30 +5719,30 @@
         <v>19</v>
       </c>
       <c r="I117">
-        <v>1955055490</v>
+        <v>1948447224</v>
       </c>
       <c r="J117">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="K117">
-        <v>51.2</v>
+        <v>9.09</v>
       </c>
       <c r="L117">
-        <v>-924.1</v>
+        <v>-993.31</v>
       </c>
       <c r="M117">
-        <v>-924.1</v>
+        <v>-993.31</v>
       </c>
       <c r="N117">
-        <v>-924.1</v>
+        <v>-993.31</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>44249</v>
+        <v>44242</v>
       </c>
       <c r="B118" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C118" t="s">
         <v>21</v>
@@ -5753,95 +5751,95 @@
         <v>55</v>
       </c>
       <c r="E118">
-        <v>11114004</v>
+        <v>1242522</v>
       </c>
       <c r="F118" t="s">
         <v>17</v>
       </c>
       <c r="G118" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H118" t="s">
         <v>19</v>
       </c>
       <c r="I118">
-        <v>1955242702</v>
+        <v>1948461136</v>
       </c>
       <c r="J118">
-        <v>-18</v>
+        <v>120</v>
       </c>
       <c r="K118">
-        <v>49.8</v>
+        <v>7.35</v>
       </c>
       <c r="L118">
-        <v>893.9</v>
+        <v>-887.15</v>
       </c>
       <c r="M118">
-        <v>893.9</v>
+        <v>-887.15</v>
       </c>
       <c r="N118">
-        <v>893.9</v>
+        <v>-887.15</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="B119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C119" t="s">
         <v>21</v>
       </c>
       <c r="D119" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E119">
-        <v>2159003</v>
+        <v>3844730</v>
       </c>
       <c r="F119" t="s">
         <v>17</v>
       </c>
       <c r="G119" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H119" t="s">
         <v>19</v>
       </c>
       <c r="I119">
-        <v>1959258108</v>
+        <v>1949053395</v>
       </c>
       <c r="J119">
-        <v>688</v>
+        <v>-109</v>
       </c>
       <c r="K119">
-        <v>1.37</v>
+        <v>8.99</v>
       </c>
       <c r="L119">
-        <v>-942.31</v>
+        <v>977.41</v>
       </c>
       <c r="M119">
-        <v>-942.31</v>
+        <v>977.41</v>
       </c>
       <c r="N119">
-        <v>-942.31</v>
+        <v>977.41</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>44252</v>
+        <v>44244</v>
       </c>
       <c r="B120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C120" t="s">
         <v>21</v>
       </c>
       <c r="D120" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E120">
-        <v>8820998</v>
+        <v>25345</v>
       </c>
       <c r="F120" t="s">
         <v>17</v>
@@ -5853,127 +5851,127 @@
         <v>19</v>
       </c>
       <c r="I120">
-        <v>1959480841</v>
+        <v>1951152110</v>
       </c>
       <c r="J120">
-        <v>61</v>
+        <v>1300</v>
       </c>
       <c r="K120">
-        <v>14.85</v>
+        <v>2.08</v>
       </c>
       <c r="L120">
-        <v>-908.35</v>
+        <v>-2710.3</v>
       </c>
       <c r="M120">
-        <v>-908.35</v>
+        <v>-2710.3</v>
       </c>
       <c r="N120">
-        <v>-908.35</v>
+        <v>-2710.3</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>44252</v>
+        <v>44244</v>
       </c>
       <c r="B121" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C121" t="s">
         <v>21</v>
       </c>
       <c r="D121" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E121">
-        <v>12768</v>
+        <v>1242522</v>
       </c>
       <c r="F121" t="s">
         <v>17</v>
       </c>
       <c r="G121" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H121" t="s">
         <v>19</v>
       </c>
       <c r="I121">
-        <v>1959515938</v>
+        <v>1951252232</v>
       </c>
       <c r="J121">
-        <v>54</v>
+        <v>-120</v>
       </c>
       <c r="K121">
-        <v>16.82</v>
+        <v>7.45</v>
       </c>
       <c r="L121">
-        <v>-913.5</v>
+        <v>890.9</v>
       </c>
       <c r="M121">
-        <v>-913.5</v>
+        <v>890.9</v>
       </c>
       <c r="N121">
-        <v>-913.5</v>
+        <v>890.9</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>44253</v>
+        <v>44245</v>
       </c>
       <c r="B122" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C122" t="s">
         <v>21</v>
       </c>
       <c r="D122" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="E122">
-        <v>52312</v>
+        <v>49439</v>
       </c>
       <c r="F122" t="s">
         <v>17</v>
       </c>
       <c r="G122" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H122" t="s">
         <v>19</v>
       </c>
       <c r="I122">
-        <v>1961241819</v>
+        <v>1952108311</v>
       </c>
       <c r="J122">
-        <v>33</v>
+        <v>-15000</v>
       </c>
       <c r="K122">
-        <v>27.2</v>
+        <v>0.16</v>
       </c>
       <c r="L122">
-        <v>-900.1</v>
+        <v>2468.02</v>
       </c>
       <c r="M122">
-        <v>-900.1</v>
+        <v>2468.02</v>
       </c>
       <c r="N122">
-        <v>-900.1</v>
+        <v>2468.02</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>44253</v>
+        <v>44249</v>
       </c>
       <c r="B123" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C123" t="s">
         <v>21</v>
       </c>
       <c r="D123" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E123">
-        <v>32220</v>
+        <v>11114004</v>
       </c>
       <c r="F123" t="s">
         <v>17</v>
@@ -5985,171 +5983,171 @@
         <v>19</v>
       </c>
       <c r="I123">
-        <v>1961554237</v>
+        <v>1955055490</v>
       </c>
       <c r="J123">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="K123">
-        <v>89.2</v>
+        <v>51.2</v>
       </c>
       <c r="L123">
-        <v>-894.5</v>
+        <v>-924.1</v>
       </c>
       <c r="M123">
-        <v>-894.5</v>
+        <v>-924.1</v>
       </c>
       <c r="N123">
-        <v>-894.5</v>
+        <v>-924.1</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>44256</v>
+        <v>44249</v>
       </c>
       <c r="B124" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C124" t="s">
         <v>21</v>
       </c>
       <c r="D124" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E124">
-        <v>12768</v>
+        <v>11114004</v>
       </c>
       <c r="F124" t="s">
         <v>17</v>
       </c>
       <c r="G124" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H124" t="s">
         <v>19</v>
       </c>
       <c r="I124">
-        <v>1962796726</v>
+        <v>1955242702</v>
       </c>
       <c r="J124">
-        <v>54</v>
+        <v>-18</v>
       </c>
       <c r="K124">
-        <v>17.059999999999999</v>
+        <v>49.8</v>
       </c>
       <c r="L124">
-        <v>-926.5</v>
+        <v>893.9</v>
       </c>
       <c r="M124">
-        <v>-926.5</v>
+        <v>893.9</v>
       </c>
       <c r="N124">
-        <v>-926.5</v>
+        <v>893.9</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>44256</v>
+        <v>44252</v>
       </c>
       <c r="B125" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C125" t="s">
         <v>21</v>
       </c>
       <c r="D125" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E125">
-        <v>25345</v>
+        <v>2159003</v>
       </c>
       <c r="F125" t="s">
         <v>17</v>
       </c>
       <c r="G125" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H125" t="s">
         <v>19</v>
       </c>
       <c r="I125">
-        <v>1962825930</v>
+        <v>1959258108</v>
       </c>
       <c r="J125">
-        <v>-1450</v>
+        <v>688</v>
       </c>
       <c r="K125">
-        <v>2.0699999999999998</v>
+        <v>1.37</v>
       </c>
       <c r="L125">
-        <v>2989.25</v>
+        <v>-942.31</v>
       </c>
       <c r="M125">
-        <v>2989.25</v>
+        <v>-942.31</v>
       </c>
       <c r="N125">
-        <v>2989.25</v>
+        <v>-942.31</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>44256</v>
+        <v>44252</v>
       </c>
       <c r="B126" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C126" t="s">
         <v>21</v>
       </c>
       <c r="D126" t="s">
+        <v>58</v>
+      </c>
+      <c r="E126">
+        <v>8820998</v>
+      </c>
+      <c r="F126" t="s">
+        <v>17</v>
+      </c>
+      <c r="G126" t="s">
+        <v>18</v>
+      </c>
+      <c r="H126" t="s">
+        <v>19</v>
+      </c>
+      <c r="I126">
+        <v>1959480841</v>
+      </c>
+      <c r="J126">
         <v>61</v>
       </c>
-      <c r="E126">
-        <v>339393</v>
-      </c>
-      <c r="F126" t="s">
-        <v>17</v>
-      </c>
-      <c r="G126" t="s">
-        <v>18</v>
-      </c>
-      <c r="H126" t="s">
-        <v>19</v>
-      </c>
-      <c r="I126">
-        <v>1962826904</v>
-      </c>
-      <c r="J126">
-        <v>920</v>
-      </c>
       <c r="K126">
-        <v>1</v>
+        <v>14.85</v>
       </c>
       <c r="L126">
-        <v>-922.13</v>
+        <v>-908.35</v>
       </c>
       <c r="M126">
-        <v>-922.13</v>
+        <v>-908.35</v>
       </c>
       <c r="N126">
-        <v>-922.13</v>
+        <v>-908.35</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>44256</v>
+        <v>44252</v>
       </c>
       <c r="B127" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C127" t="s">
         <v>21</v>
       </c>
       <c r="D127" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E127">
-        <v>13110</v>
+        <v>12768</v>
       </c>
       <c r="F127" t="s">
         <v>17</v>
@@ -6161,39 +6159,39 @@
         <v>19</v>
       </c>
       <c r="I127">
-        <v>1962830559</v>
+        <v>1959515938</v>
       </c>
       <c r="J127">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="K127">
-        <v>47.7</v>
+        <v>16.82</v>
       </c>
       <c r="L127">
-        <v>-911.52</v>
+        <v>-913.5</v>
       </c>
       <c r="M127">
-        <v>-911.52</v>
+        <v>-913.5</v>
       </c>
       <c r="N127">
-        <v>-911.52</v>
+        <v>-913.5</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>44258</v>
+        <v>44253</v>
       </c>
       <c r="B128" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C128" t="s">
         <v>21</v>
       </c>
       <c r="D128" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E128">
-        <v>339393</v>
+        <v>52312</v>
       </c>
       <c r="F128" t="s">
         <v>17</v>
@@ -6205,83 +6203,83 @@
         <v>19</v>
       </c>
       <c r="I128">
-        <v>1965437024</v>
+        <v>1961241819</v>
       </c>
       <c r="J128">
-        <v>907</v>
+        <v>33</v>
       </c>
       <c r="K128">
-        <v>1.01</v>
+        <v>27.2</v>
       </c>
       <c r="L128">
-        <v>-921.74</v>
+        <v>-900.1</v>
       </c>
       <c r="M128">
-        <v>-921.74</v>
+        <v>-900.1</v>
       </c>
       <c r="N128">
-        <v>-921.74</v>
+        <v>-900.1</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>44258</v>
+        <v>44253</v>
       </c>
       <c r="B129" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C129" t="s">
         <v>21</v>
       </c>
       <c r="D129" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E129">
-        <v>25345</v>
+        <v>32220</v>
       </c>
       <c r="F129" t="s">
         <v>17</v>
       </c>
       <c r="G129" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H129" t="s">
         <v>19</v>
       </c>
       <c r="I129">
-        <v>1965467508</v>
+        <v>1961554237</v>
       </c>
       <c r="J129">
-        <v>-1450</v>
+        <v>10</v>
       </c>
       <c r="K129">
-        <v>2.02</v>
+        <v>89.2</v>
       </c>
       <c r="L129">
-        <v>2925.45</v>
+        <v>-894.5</v>
       </c>
       <c r="M129">
-        <v>2925.45</v>
+        <v>-894.5</v>
       </c>
       <c r="N129">
-        <v>2925.45</v>
+        <v>-894.5</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>44258</v>
+        <v>44256</v>
       </c>
       <c r="B130" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C130" t="s">
         <v>21</v>
       </c>
       <c r="D130" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E130">
-        <v>10961403</v>
+        <v>12768</v>
       </c>
       <c r="F130" t="s">
         <v>17</v>
@@ -6293,39 +6291,39 @@
         <v>19</v>
       </c>
       <c r="I130">
-        <v>1965538011</v>
+        <v>1962796726</v>
       </c>
       <c r="J130">
-        <v>200</v>
+        <v>54</v>
       </c>
       <c r="K130">
-        <v>3.54</v>
+        <v>17.059999999999999</v>
       </c>
       <c r="L130">
-        <v>-709.5</v>
+        <v>-926.5</v>
       </c>
       <c r="M130">
-        <v>-709.5</v>
+        <v>-926.5</v>
       </c>
       <c r="N130">
-        <v>-709.5</v>
+        <v>-926.5</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>44258</v>
+        <v>44256</v>
       </c>
       <c r="B131" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C131" t="s">
         <v>21</v>
       </c>
       <c r="D131" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E131">
-        <v>2159003</v>
+        <v>25345</v>
       </c>
       <c r="F131" t="s">
         <v>17</v>
@@ -6337,80 +6335,80 @@
         <v>19</v>
       </c>
       <c r="I131">
-        <v>1965746543</v>
+        <v>1962825930</v>
       </c>
       <c r="J131">
-        <v>-688</v>
+        <v>-1450</v>
       </c>
       <c r="K131">
-        <v>1.26</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="L131">
-        <v>865.76</v>
+        <v>2989.25</v>
       </c>
       <c r="M131">
-        <v>865.76</v>
+        <v>2989.25</v>
       </c>
       <c r="N131">
-        <v>865.76</v>
+        <v>2989.25</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>44260</v>
+        <v>44256</v>
       </c>
       <c r="B132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C132" t="s">
         <v>21</v>
       </c>
       <c r="D132" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E132">
-        <v>8820998</v>
+        <v>339393</v>
       </c>
       <c r="F132" t="s">
         <v>17</v>
       </c>
       <c r="G132" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H132" t="s">
         <v>19</v>
       </c>
       <c r="I132">
-        <v>1968864033</v>
+        <v>1962826904</v>
       </c>
       <c r="J132">
-        <v>-61</v>
+        <v>920</v>
       </c>
       <c r="K132">
-        <v>13.55</v>
+        <v>1</v>
       </c>
       <c r="L132">
-        <v>824.05</v>
+        <v>-922.13</v>
       </c>
       <c r="M132">
-        <v>824.05</v>
+        <v>-922.13</v>
       </c>
       <c r="N132">
-        <v>824.05</v>
+        <v>-922.13</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>44263</v>
+        <v>44256</v>
       </c>
       <c r="B133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C133" t="s">
         <v>21</v>
       </c>
       <c r="D133" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E133">
         <v>13110</v>
@@ -6425,83 +6423,83 @@
         <v>19</v>
       </c>
       <c r="I133">
-        <v>1970616107</v>
+        <v>1962830559</v>
       </c>
       <c r="J133">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K133">
-        <v>49.08</v>
+        <v>47.7</v>
       </c>
       <c r="L133">
-        <v>-888.59</v>
+        <v>-911.52</v>
       </c>
       <c r="M133">
-        <v>-888.59</v>
+        <v>-911.52</v>
       </c>
       <c r="N133">
-        <v>-888.59</v>
+        <v>-911.52</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>44263</v>
+        <v>44258</v>
       </c>
       <c r="B134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C134" t="s">
         <v>21</v>
       </c>
       <c r="D134" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E134">
-        <v>25345</v>
+        <v>339393</v>
       </c>
       <c r="F134" t="s">
         <v>17</v>
       </c>
       <c r="G134" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H134" t="s">
         <v>19</v>
       </c>
       <c r="I134">
-        <v>1971421168</v>
+        <v>1965437024</v>
       </c>
       <c r="J134">
-        <v>-1100</v>
+        <v>907</v>
       </c>
       <c r="K134">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="L134">
-        <v>2176.7399999999998</v>
+        <v>-921.74</v>
       </c>
       <c r="M134">
-        <v>2176.7399999999998</v>
+        <v>-921.74</v>
       </c>
       <c r="N134">
-        <v>2176.7399999999998</v>
+        <v>-921.74</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>44264</v>
+        <v>44258</v>
       </c>
       <c r="B135" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C135" t="s">
         <v>21</v>
       </c>
       <c r="D135" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E135">
-        <v>10961403</v>
+        <v>25345</v>
       </c>
       <c r="F135" t="s">
         <v>17</v>
@@ -6513,39 +6511,39 @@
         <v>19</v>
       </c>
       <c r="I135">
-        <v>1972887370</v>
+        <v>1965467508</v>
       </c>
       <c r="J135">
-        <v>-200</v>
+        <v>-1450</v>
       </c>
       <c r="K135">
-        <v>3.19</v>
+        <v>2.02</v>
       </c>
       <c r="L135">
-        <v>634.5</v>
+        <v>2925.45</v>
       </c>
       <c r="M135">
-        <v>634.5</v>
+        <v>2925.45</v>
       </c>
       <c r="N135">
-        <v>634.5</v>
+        <v>2925.45</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>44265</v>
+        <v>44258</v>
       </c>
       <c r="B136" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C136" t="s">
         <v>21</v>
       </c>
       <c r="D136" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E136">
-        <v>23919</v>
+        <v>10961403</v>
       </c>
       <c r="F136" t="s">
         <v>17</v>
@@ -6557,127 +6555,127 @@
         <v>19</v>
       </c>
       <c r="I136">
-        <v>1973816510</v>
+        <v>1965538011</v>
       </c>
       <c r="J136">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="K136">
-        <v>3.8</v>
+        <v>3.54</v>
       </c>
       <c r="L136">
-        <v>-914.5</v>
+        <v>-709.5</v>
       </c>
       <c r="M136">
-        <v>-914.5</v>
+        <v>-709.5</v>
       </c>
       <c r="N136">
-        <v>-914.5</v>
+        <v>-709.5</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>44266</v>
+        <v>44258</v>
       </c>
       <c r="B137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C137" t="s">
         <v>21</v>
       </c>
       <c r="D137" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E137">
-        <v>112808</v>
+        <v>2159003</v>
       </c>
       <c r="F137" t="s">
         <v>17</v>
       </c>
       <c r="G137" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H137" t="s">
         <v>19</v>
       </c>
       <c r="I137">
-        <v>1975264151</v>
+        <v>1965746543</v>
       </c>
       <c r="J137">
-        <v>64</v>
+        <v>-688</v>
       </c>
       <c r="K137">
-        <v>14.62</v>
+        <v>1.26</v>
       </c>
       <c r="L137">
-        <v>-940.99</v>
+        <v>865.76</v>
       </c>
       <c r="M137">
-        <v>-940.99</v>
+        <v>865.76</v>
       </c>
       <c r="N137">
-        <v>-940.99</v>
+        <v>865.76</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>44271</v>
+        <v>44260</v>
       </c>
       <c r="B138" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C138" t="s">
         <v>21</v>
       </c>
       <c r="D138" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="E138">
-        <v>49439</v>
+        <v>8820998</v>
       </c>
       <c r="F138" t="s">
         <v>17</v>
       </c>
       <c r="G138" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H138" t="s">
         <v>19</v>
       </c>
       <c r="I138">
-        <v>1978814398</v>
+        <v>1968864033</v>
       </c>
       <c r="J138">
-        <v>4700</v>
+        <v>-61</v>
       </c>
       <c r="K138">
-        <v>0.19</v>
+        <v>13.55</v>
       </c>
       <c r="L138">
-        <v>-904.9</v>
+        <v>824.05</v>
       </c>
       <c r="M138">
-        <v>-904.9</v>
+        <v>824.05</v>
       </c>
       <c r="N138">
-        <v>-904.9</v>
+        <v>824.05</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>44271</v>
+        <v>44263</v>
       </c>
       <c r="B139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C139" t="s">
         <v>21</v>
       </c>
       <c r="D139" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E139">
-        <v>339393</v>
+        <v>13110</v>
       </c>
       <c r="F139" t="s">
         <v>17</v>
@@ -6689,39 +6687,39 @@
         <v>19</v>
       </c>
       <c r="I139">
-        <v>1979332444</v>
+        <v>1970616107</v>
       </c>
       <c r="J139">
-        <v>900</v>
+        <v>18</v>
       </c>
       <c r="K139">
-        <v>1.1100000000000001</v>
+        <v>49.08</v>
       </c>
       <c r="L139">
-        <v>-1000.6</v>
+        <v>-888.59</v>
       </c>
       <c r="M139">
-        <v>-1000.6</v>
+        <v>-888.59</v>
       </c>
       <c r="N139">
-        <v>-1000.6</v>
+        <v>-888.59</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>44273</v>
+        <v>44263</v>
       </c>
       <c r="B140" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C140" t="s">
         <v>21</v>
       </c>
       <c r="D140" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E140">
-        <v>339393</v>
+        <v>25345</v>
       </c>
       <c r="F140" t="s">
         <v>17</v>
@@ -6733,39 +6731,39 @@
         <v>19</v>
       </c>
       <c r="I140">
-        <v>1981289704</v>
+        <v>1971421168</v>
       </c>
       <c r="J140">
-        <v>-850</v>
+        <v>-1100</v>
       </c>
       <c r="K140">
-        <v>1.18</v>
+        <v>1.98</v>
       </c>
       <c r="L140">
-        <v>997.1</v>
+        <v>2176.7399999999998</v>
       </c>
       <c r="M140">
-        <v>997.1</v>
+        <v>2176.7399999999998</v>
       </c>
       <c r="N140">
-        <v>997.1</v>
+        <v>2176.7399999999998</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>44278</v>
+        <v>44264</v>
       </c>
       <c r="B141" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C141" t="s">
         <v>21</v>
       </c>
       <c r="D141" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E141">
-        <v>32220</v>
+        <v>10961403</v>
       </c>
       <c r="F141" t="s">
         <v>17</v>
@@ -6777,39 +6775,39 @@
         <v>19</v>
       </c>
       <c r="I141">
-        <v>1984784257</v>
+        <v>1972887370</v>
       </c>
       <c r="J141">
-        <v>-10</v>
+        <v>-200</v>
       </c>
       <c r="K141">
-        <v>84.3</v>
+        <v>3.19</v>
       </c>
       <c r="L141">
-        <v>840.5</v>
+        <v>634.5</v>
       </c>
       <c r="M141">
-        <v>840.5</v>
+        <v>634.5</v>
       </c>
       <c r="N141">
-        <v>840.5</v>
+        <v>634.5</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>44279</v>
+        <v>44265</v>
       </c>
       <c r="B142" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C142" t="s">
         <v>21</v>
       </c>
       <c r="D142" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E142">
-        <v>112808</v>
+        <v>23919</v>
       </c>
       <c r="F142" t="s">
         <v>17</v>
@@ -6821,83 +6819,83 @@
         <v>19</v>
       </c>
       <c r="I142">
-        <v>1985941417</v>
+        <v>1973816510</v>
       </c>
       <c r="J142">
-        <v>64</v>
+        <v>240</v>
       </c>
       <c r="K142">
-        <v>14.87</v>
+        <v>3.8</v>
       </c>
       <c r="L142">
-        <v>-957.04</v>
+        <v>-914.5</v>
       </c>
       <c r="M142">
-        <v>-957.04</v>
+        <v>-914.5</v>
       </c>
       <c r="N142">
-        <v>-957.04</v>
+        <v>-914.5</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>44281</v>
+        <v>44266</v>
       </c>
       <c r="B143" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C143" t="s">
         <v>21</v>
       </c>
       <c r="D143" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E143">
-        <v>49439</v>
+        <v>112808</v>
       </c>
       <c r="F143" t="s">
         <v>17</v>
       </c>
       <c r="G143" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H143" t="s">
         <v>19</v>
       </c>
       <c r="I143">
-        <v>1988545319</v>
+        <v>1975264151</v>
       </c>
       <c r="J143">
-        <v>-4700</v>
+        <v>64</v>
       </c>
       <c r="K143">
-        <v>0.17</v>
+        <v>14.62</v>
       </c>
       <c r="L143">
-        <v>787.1</v>
+        <v>-940.99</v>
       </c>
       <c r="M143">
-        <v>787.1</v>
+        <v>-940.99</v>
       </c>
       <c r="N143">
-        <v>787.1</v>
+        <v>-940.99</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>44281</v>
+        <v>44271</v>
       </c>
       <c r="B144" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C144" t="s">
         <v>21</v>
       </c>
       <c r="D144" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="E144">
-        <v>8704739</v>
+        <v>49439</v>
       </c>
       <c r="F144" t="s">
         <v>17</v>
@@ -6909,39 +6907,39 @@
         <v>19</v>
       </c>
       <c r="I144">
-        <v>1988671724</v>
+        <v>1978814398</v>
       </c>
       <c r="J144">
-        <v>560</v>
+        <v>4700</v>
       </c>
       <c r="K144">
-        <v>1.64</v>
+        <v>0.19</v>
       </c>
       <c r="L144">
-        <v>-920.9</v>
+        <v>-904.9</v>
       </c>
       <c r="M144">
-        <v>-920.9</v>
+        <v>-904.9</v>
       </c>
       <c r="N144">
-        <v>-920.9</v>
+        <v>-904.9</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>44284</v>
+        <v>44271</v>
       </c>
       <c r="B145" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C145" t="s">
         <v>21</v>
       </c>
       <c r="D145" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E145">
-        <v>12624</v>
+        <v>339393</v>
       </c>
       <c r="F145" t="s">
         <v>17</v>
@@ -6953,39 +6951,39 @@
         <v>19</v>
       </c>
       <c r="I145">
-        <v>1989869640</v>
+        <v>1979332444</v>
       </c>
       <c r="J145">
-        <v>58</v>
+        <v>900</v>
       </c>
       <c r="K145">
-        <v>16.36</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="L145">
-        <v>-954.23</v>
+        <v>-1000.6</v>
       </c>
       <c r="M145">
-        <v>-954.23</v>
+        <v>-1000.6</v>
       </c>
       <c r="N145">
-        <v>-954.23</v>
+        <v>-1000.6</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>44285</v>
+        <v>44273</v>
       </c>
       <c r="B146" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C146" t="s">
         <v>21</v>
       </c>
       <c r="D146" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E146">
-        <v>8704739</v>
+        <v>339393</v>
       </c>
       <c r="F146" t="s">
         <v>17</v>
@@ -6997,27 +6995,334 @@
         <v>19</v>
       </c>
       <c r="I146">
+        <v>1981289704</v>
+      </c>
+      <c r="J146">
+        <v>-850</v>
+      </c>
+      <c r="K146">
+        <v>1.18</v>
+      </c>
+      <c r="L146">
+        <v>997.1</v>
+      </c>
+      <c r="M146">
+        <v>997.1</v>
+      </c>
+      <c r="N146">
+        <v>997.1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>44278</v>
+      </c>
+      <c r="B147" t="s">
+        <v>49</v>
+      </c>
+      <c r="C147" t="s">
+        <v>21</v>
+      </c>
+      <c r="D147" t="s">
+        <v>61</v>
+      </c>
+      <c r="E147">
+        <v>32220</v>
+      </c>
+      <c r="F147" t="s">
+        <v>17</v>
+      </c>
+      <c r="G147" t="s">
+        <v>20</v>
+      </c>
+      <c r="H147" t="s">
+        <v>19</v>
+      </c>
+      <c r="I147">
+        <v>1984784257</v>
+      </c>
+      <c r="J147">
+        <v>-10</v>
+      </c>
+      <c r="K147">
+        <v>84.3</v>
+      </c>
+      <c r="L147">
+        <v>840.5</v>
+      </c>
+      <c r="M147">
+        <v>840.5</v>
+      </c>
+      <c r="N147">
+        <v>840.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>44279</v>
+      </c>
+      <c r="B148" t="s">
+        <v>49</v>
+      </c>
+      <c r="C148" t="s">
+        <v>21</v>
+      </c>
+      <c r="D148" t="s">
+        <v>50</v>
+      </c>
+      <c r="E148">
+        <v>112808</v>
+      </c>
+      <c r="F148" t="s">
+        <v>17</v>
+      </c>
+      <c r="G148" t="s">
+        <v>18</v>
+      </c>
+      <c r="H148" t="s">
+        <v>19</v>
+      </c>
+      <c r="I148">
+        <v>1985941417</v>
+      </c>
+      <c r="J148">
+        <v>64</v>
+      </c>
+      <c r="K148">
+        <v>14.87</v>
+      </c>
+      <c r="L148">
+        <v>-957.04</v>
+      </c>
+      <c r="M148">
+        <v>-957.04</v>
+      </c>
+      <c r="N148">
+        <v>-957.04</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>44281</v>
+      </c>
+      <c r="B149" t="s">
+        <v>49</v>
+      </c>
+      <c r="C149" t="s">
+        <v>21</v>
+      </c>
+      <c r="D149" t="s">
+        <v>29</v>
+      </c>
+      <c r="E149">
+        <v>49439</v>
+      </c>
+      <c r="F149" t="s">
+        <v>17</v>
+      </c>
+      <c r="G149" t="s">
+        <v>20</v>
+      </c>
+      <c r="H149" t="s">
+        <v>19</v>
+      </c>
+      <c r="I149">
+        <v>1988545319</v>
+      </c>
+      <c r="J149">
+        <v>-4700</v>
+      </c>
+      <c r="K149">
+        <v>0.17</v>
+      </c>
+      <c r="L149">
+        <v>787.1</v>
+      </c>
+      <c r="M149">
+        <v>787.1</v>
+      </c>
+      <c r="N149">
+        <v>787.1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>44281</v>
+      </c>
+      <c r="B150" t="s">
+        <v>49</v>
+      </c>
+      <c r="C150" t="s">
+        <v>21</v>
+      </c>
+      <c r="D150" t="s">
+        <v>65</v>
+      </c>
+      <c r="E150">
+        <v>8704739</v>
+      </c>
+      <c r="F150" t="s">
+        <v>17</v>
+      </c>
+      <c r="G150" t="s">
+        <v>18</v>
+      </c>
+      <c r="H150" t="s">
+        <v>19</v>
+      </c>
+      <c r="I150">
+        <v>1988671724</v>
+      </c>
+      <c r="J150">
+        <v>560</v>
+      </c>
+      <c r="K150">
+        <v>1.64</v>
+      </c>
+      <c r="L150">
+        <v>-920.9</v>
+      </c>
+      <c r="M150">
+        <v>-920.9</v>
+      </c>
+      <c r="N150">
+        <v>-920.9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>44284</v>
+      </c>
+      <c r="B151" t="s">
+        <v>49</v>
+      </c>
+      <c r="C151" t="s">
+        <v>21</v>
+      </c>
+      <c r="D151" t="s">
+        <v>66</v>
+      </c>
+      <c r="E151">
+        <v>12624</v>
+      </c>
+      <c r="F151" t="s">
+        <v>17</v>
+      </c>
+      <c r="G151" t="s">
+        <v>18</v>
+      </c>
+      <c r="H151" t="s">
+        <v>19</v>
+      </c>
+      <c r="I151">
+        <v>1989869640</v>
+      </c>
+      <c r="J151">
+        <v>58</v>
+      </c>
+      <c r="K151">
+        <v>16.36</v>
+      </c>
+      <c r="L151">
+        <v>-954.23</v>
+      </c>
+      <c r="M151">
+        <v>-954.23</v>
+      </c>
+      <c r="N151">
+        <v>-954.23</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>44285</v>
+      </c>
+      <c r="B152" t="s">
+        <v>49</v>
+      </c>
+      <c r="C152" t="s">
+        <v>21</v>
+      </c>
+      <c r="D152" t="s">
+        <v>65</v>
+      </c>
+      <c r="E152">
+        <v>8704739</v>
+      </c>
+      <c r="F152" t="s">
+        <v>17</v>
+      </c>
+      <c r="G152" t="s">
+        <v>20</v>
+      </c>
+      <c r="H152" t="s">
+        <v>19</v>
+      </c>
+      <c r="I152">
         <v>1990695330</v>
       </c>
-      <c r="J146">
+      <c r="J152">
         <v>-560</v>
       </c>
-      <c r="K146">
+      <c r="K152">
         <v>1.77</v>
       </c>
-      <c r="L146">
+      <c r="L152">
         <v>988.7</v>
       </c>
-      <c r="M146">
+      <c r="M152">
         <v>988.7</v>
       </c>
-      <c r="N146">
+      <c r="N152">
         <v>988.7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>44287</v>
+      </c>
+      <c r="B153" t="s">
+        <v>49</v>
+      </c>
+      <c r="C153" t="s">
+        <v>21</v>
+      </c>
+      <c r="D153" t="s">
+        <v>60</v>
+      </c>
+      <c r="E153">
+        <v>52312</v>
+      </c>
+      <c r="F153" t="s">
+        <v>17</v>
+      </c>
+      <c r="G153" t="s">
+        <v>20</v>
+      </c>
+      <c r="H153" t="s">
+        <v>19</v>
+      </c>
+      <c r="I153">
+        <v>1992567037</v>
+      </c>
+      <c r="J153">
+        <v>-33</v>
+      </c>
+      <c r="K153">
+        <v>23.6</v>
+      </c>
+      <c r="L153">
+        <v>776.3</v>
+      </c>
+      <c r="M153">
+        <v>776.3</v>
+      </c>
+      <c r="N153">
+        <v>776.3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>